--- a/vbp.xlsx
+++ b/vbp.xlsx
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2927,8 +2927,8 @@
       <c r="I4" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J4" s="35">
-        <v>6.6</v>
+      <c r="J4" s="39">
+        <v>0.94285714285714284</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="36">
@@ -2966,8 +2966,8 @@
       <c r="I5" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J5" s="35">
-        <v>6.6</v>
+      <c r="J5" s="39">
+        <v>0.94285714285714284</v>
       </c>
       <c r="K5" s="35"/>
       <c r="L5" s="36">
@@ -3005,8 +3005,8 @@
       <c r="I6" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J6" s="35">
-        <v>6.6</v>
+      <c r="J6" s="39">
+        <v>0.94285714285714284</v>
       </c>
       <c r="K6" s="38">
         <v>2.6084012278529012</v>
@@ -3046,8 +3046,8 @@
       <c r="I7" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J7" s="35">
-        <v>6.6</v>
+      <c r="J7" s="39">
+        <v>0.94285714285714284</v>
       </c>
       <c r="K7" s="38">
         <v>3.5186050989002973</v>
@@ -3085,8 +3085,8 @@
       <c r="I8" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J8" s="35">
-        <v>6.6</v>
+      <c r="J8" s="39">
+        <v>0.94285714285714284</v>
       </c>
       <c r="K8" s="38">
         <v>6.4316864721008642</v>
@@ -3124,8 +3124,8 @@
       <c r="I9" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J9" s="35">
-        <v>21.8</v>
+      <c r="J9" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K9" s="39">
         <v>2.5164968727809582</v>
@@ -3165,8 +3165,8 @@
       <c r="I10" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J10" s="35">
-        <v>21.8</v>
+      <c r="J10" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="36">
@@ -3204,8 +3204,8 @@
       <c r="I11" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J11" s="35">
-        <v>21.8</v>
+      <c r="J11" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K11" s="39">
         <v>2.8987411715941023</v>
@@ -3245,8 +3245,8 @@
       <c r="I12" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J12" s="35">
-        <v>21.8</v>
+      <c r="J12" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K12" s="39">
         <v>3.1717676127624475</v>
@@ -3284,8 +3284,8 @@
       <c r="I13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="35">
-        <v>21.8</v>
+      <c r="J13" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K13" s="39">
         <v>4.0205626355092319</v>
@@ -3323,8 +3323,8 @@
       <c r="I14" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J14" s="35">
-        <v>21.8</v>
+      <c r="J14" s="39">
+        <v>0.77857142857142858</v>
       </c>
       <c r="K14" s="39">
         <v>6.311494245862975</v>
@@ -3362,8 +3362,8 @@
       <c r="I15" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J15" s="35">
-        <v>22.26</v>
+      <c r="J15" s="39">
+        <v>3.18</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="36">
@@ -3401,8 +3401,8 @@
       <c r="I16" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J16" s="35">
-        <v>22.26</v>
+      <c r="J16" s="39">
+        <v>3.18</v>
       </c>
       <c r="K16" s="39">
         <v>15.924687470932279</v>
@@ -3442,8 +3442,8 @@
       <c r="I17" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J17" s="35">
-        <v>22.26</v>
+      <c r="J17" s="39">
+        <v>3.18</v>
       </c>
       <c r="K17" s="39">
         <v>6.7403919498047147</v>
@@ -3483,8 +3483,8 @@
       <c r="I18" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J18" s="35">
-        <v>22.26</v>
+      <c r="J18" s="39">
+        <v>3.18</v>
       </c>
       <c r="K18" s="39">
         <v>8.2071950252433599</v>
@@ -3522,8 +3522,8 @@
       <c r="I19" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J19" s="35">
-        <v>5.66</v>
+      <c r="J19" s="39">
+        <v>0.20214285714285715</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="36">
@@ -3561,8 +3561,8 @@
       <c r="I20" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J20" s="35">
-        <v>5.66</v>
+      <c r="J20" s="39">
+        <v>0.20214285714285715</v>
       </c>
       <c r="K20" s="39">
         <v>0.53531977685952137</v>
@@ -3602,8 +3602,8 @@
       <c r="I21" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J21" s="35">
-        <v>5.66</v>
+      <c r="J21" s="39">
+        <v>0.20214285714285715</v>
       </c>
       <c r="K21" s="39">
         <v>1.2931271822905741</v>
@@ -3643,8 +3643,8 @@
       <c r="I22" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J22" s="35">
-        <v>5.66</v>
+      <c r="J22" s="39">
+        <v>0.20214285714285715</v>
       </c>
       <c r="K22" s="39">
         <v>4.208464972161396</v>
@@ -3682,8 +3682,8 @@
       <c r="I23" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J23" s="35">
-        <v>4.16</v>
+      <c r="J23" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K23" s="39">
         <v>0.66231211342398322</v>
@@ -3723,8 +3723,8 @@
       <c r="I24" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J24" s="35">
-        <v>4.16</v>
+      <c r="J24" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K24" s="39">
         <v>0.59455887212248038</v>
@@ -3764,8 +3764,8 @@
       <c r="I25" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="35">
-        <v>4.16</v>
+      <c r="J25" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K25" s="39"/>
       <c r="L25" s="36">
@@ -3803,8 +3803,8 @@
       <c r="I26" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J26" s="35">
-        <v>4.16</v>
+      <c r="J26" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="36">
@@ -3840,8 +3840,8 @@
       <c r="I27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="35">
-        <v>4.16</v>
+      <c r="J27" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K27" s="39">
         <v>0.28382604300841285</v>
@@ -3879,8 +3879,8 @@
       <c r="I28" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J28" s="35">
-        <v>4.16</v>
+      <c r="J28" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K28" s="39">
         <v>0.7986175709404385</v>
@@ -3918,8 +3918,8 @@
       <c r="I29" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J29" s="35">
-        <v>4.16</v>
+      <c r="J29" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="36">
@@ -3955,8 +3955,8 @@
       <c r="I30" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J30" s="35">
-        <v>4.16</v>
+      <c r="J30" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K30" s="39">
         <v>0.26541093880234318</v>
@@ -3994,8 +3994,8 @@
       <c r="I31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="35">
-        <v>4.16</v>
+      <c r="J31" s="39">
+        <v>0.14857142857142858</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="36">
@@ -4031,8 +4031,8 @@
       <c r="I32" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J32" s="35">
-        <v>17.36</v>
+      <c r="J32" s="39">
+        <v>0.62</v>
       </c>
       <c r="K32" s="39">
         <v>15.73692173407041</v>
@@ -4072,8 +4072,8 @@
       <c r="I33" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J33" s="35">
-        <v>17.36</v>
+      <c r="J33" s="39">
+        <v>0.62</v>
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="36">
@@ -4111,8 +4111,8 @@
       <c r="I34" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J34" s="35">
-        <v>17.36</v>
+      <c r="J34" s="39">
+        <v>0.62</v>
       </c>
       <c r="K34" s="39">
         <v>9.5726844583987436</v>
@@ -4152,8 +4152,8 @@
       <c r="I35" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J35" s="35">
-        <v>17.36</v>
+      <c r="J35" s="39">
+        <v>0.62</v>
       </c>
       <c r="K35" s="39">
         <v>10.459261501210653</v>
@@ -4191,8 +4191,8 @@
       <c r="I36" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J36" s="35">
-        <v>17.36</v>
+      <c r="J36" s="39">
+        <v>0.62</v>
       </c>
       <c r="K36" s="39">
         <v>6.6617964844549178</v>
@@ -4230,8 +4230,8 @@
       <c r="I37" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J37" s="35">
-        <v>17.36</v>
+      <c r="J37" s="39">
+        <v>0.62</v>
       </c>
       <c r="K37" s="39">
         <v>6.259532433775818</v>
@@ -4269,8 +4269,8 @@
       <c r="I38" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J38" s="35">
-        <v>17.36</v>
+      <c r="J38" s="39">
+        <v>0.62</v>
       </c>
       <c r="K38" s="39"/>
       <c r="L38" s="36">
@@ -4306,8 +4306,8 @@
       <c r="I39" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J39" s="35">
-        <v>17.36</v>
+      <c r="J39" s="39">
+        <v>0.62</v>
       </c>
       <c r="K39" s="39">
         <v>13.630900516340919</v>
@@ -4345,8 +4345,8 @@
       <c r="I40" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J40" s="35">
-        <v>17.36</v>
+      <c r="J40" s="39">
+        <v>0.62</v>
       </c>
       <c r="K40" s="39">
         <v>27.059155952321181</v>
@@ -4384,8 +4384,8 @@
       <c r="I41" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J41" s="35">
-        <v>30.94</v>
+      <c r="J41" s="39">
+        <v>4.42</v>
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="36">
@@ -4423,8 +4423,8 @@
       <c r="I42" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J42" s="35">
-        <v>30.94</v>
+      <c r="J42" s="39">
+        <v>4.42</v>
       </c>
       <c r="K42" s="39">
         <v>4.2712816910402962</v>
@@ -4464,8 +4464,8 @@
       <c r="I43" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="35">
-        <v>30.94</v>
+      <c r="J43" s="39">
+        <v>4.42</v>
       </c>
       <c r="K43" s="39">
         <v>6.8380250799343312</v>
@@ -4505,8 +4505,8 @@
       <c r="I44" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J44" s="35">
-        <v>30.94</v>
+      <c r="J44" s="39">
+        <v>4.42</v>
       </c>
       <c r="K44" s="35">
         <v>13.76</v>
@@ -4544,8 +4544,8 @@
       <c r="I45" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J45" s="35">
-        <v>33.4</v>
+      <c r="J45" s="39">
+        <v>1.67</v>
       </c>
       <c r="K45" s="35">
         <v>3.4</v>
@@ -4585,8 +4585,8 @@
       <c r="I46" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J46" s="35">
-        <v>33.4</v>
+      <c r="J46" s="39">
+        <v>1.67</v>
       </c>
       <c r="K46" s="35">
         <v>3.38</v>
@@ -4626,8 +4626,8 @@
       <c r="I47" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="35">
-        <v>33.4</v>
+      <c r="J47" s="39">
+        <v>1.67</v>
       </c>
       <c r="K47" s="35">
         <v>8.81</v>
@@ -4665,8 +4665,8 @@
       <c r="I48" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J48" s="35">
-        <v>67.510000000000005</v>
+      <c r="J48" s="39">
+        <v>9.644285714285715</v>
       </c>
       <c r="K48" s="35"/>
       <c r="L48" s="36">
@@ -4704,8 +4704,8 @@
       <c r="I49" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J49" s="35">
-        <v>67.510000000000005</v>
+      <c r="J49" s="39">
+        <v>9.644285714285715</v>
       </c>
       <c r="K49" s="35">
         <v>14.4</v>
@@ -4745,8 +4745,8 @@
       <c r="I50" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J50" s="35">
-        <v>67.510000000000005</v>
+      <c r="J50" s="39">
+        <v>9.644285714285715</v>
       </c>
       <c r="K50" s="35">
         <v>13.87</v>
@@ -4786,8 +4786,8 @@
       <c r="I51" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J51" s="35">
-        <v>67.510000000000005</v>
+      <c r="J51" s="39">
+        <v>9.644285714285715</v>
       </c>
       <c r="K51" s="35">
         <v>29.06</v>
@@ -4825,8 +4825,8 @@
       <c r="I52" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J52" s="35">
-        <v>6.16</v>
+      <c r="J52" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K52" s="35">
         <v>2.54</v>
@@ -4866,8 +4866,8 @@
       <c r="I53" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J53" s="35">
-        <v>6.16</v>
+      <c r="J53" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K53" s="35">
         <v>0.63</v>
@@ -4907,8 +4907,8 @@
       <c r="I54" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J54" s="35">
-        <v>6.16</v>
+      <c r="J54" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K54" s="35">
         <v>0.64</v>
@@ -4948,8 +4948,8 @@
       <c r="I55" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J55" s="35">
-        <v>6.16</v>
+      <c r="J55" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K55" s="35">
         <v>0.61</v>
@@ -4987,8 +4987,8 @@
       <c r="I56" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J56" s="35">
-        <v>6.16</v>
+      <c r="J56" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K56" s="35"/>
       <c r="L56" s="36">
@@ -5024,8 +5024,8 @@
       <c r="I57" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J57" s="35">
-        <v>6.16</v>
+      <c r="J57" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="36">
@@ -5061,8 +5061,8 @@
       <c r="I58" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J58" s="35">
-        <v>6.16</v>
+      <c r="J58" s="39">
+        <v>0.51333333333333331</v>
       </c>
       <c r="K58" s="35">
         <v>2.85</v>
@@ -5100,8 +5100,8 @@
       <c r="I59" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J59" s="35">
-        <v>10.02</v>
+      <c r="J59" s="39">
+        <v>0.16699999999999998</v>
       </c>
       <c r="K59" s="35">
         <v>0.87</v>
@@ -5141,8 +5141,8 @@
       <c r="I60" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J60" s="35">
-        <v>10.02</v>
+      <c r="J60" s="39">
+        <v>0.16699999999999998</v>
       </c>
       <c r="K60" s="35">
         <v>1.28</v>
@@ -5182,8 +5182,8 @@
       <c r="I61" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J61" s="35">
-        <v>10.02</v>
+      <c r="J61" s="39">
+        <v>0.16699999999999998</v>
       </c>
       <c r="K61" s="35">
         <v>0.5</v>
@@ -5223,8 +5223,8 @@
       <c r="I62" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J62" s="35">
-        <v>10.02</v>
+      <c r="J62" s="39">
+        <v>0.16699999999999998</v>
       </c>
       <c r="K62" s="35">
         <v>1.08</v>
@@ -5262,8 +5262,8 @@
       <c r="I63" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J63" s="35">
-        <v>10.02</v>
+      <c r="J63" s="39">
+        <v>0.16699999999999998</v>
       </c>
       <c r="K63" s="35">
         <v>2.5499999999999998</v>
@@ -5301,8 +5301,8 @@
       <c r="I64" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J64" s="35">
-        <v>547</v>
+      <c r="J64" s="39">
+        <v>54.7</v>
       </c>
       <c r="K64" s="35">
         <v>162.15</v>
@@ -5342,8 +5342,8 @@
       <c r="I65" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="35">
-        <v>547</v>
+      <c r="J65" s="39">
+        <v>54.7</v>
       </c>
       <c r="K65" s="35"/>
       <c r="L65" s="36">
@@ -5381,8 +5381,8 @@
       <c r="I66" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J66" s="35">
-        <v>547</v>
+      <c r="J66" s="39">
+        <v>54.7</v>
       </c>
       <c r="K66" s="35">
         <v>236.22</v>
@@ -5422,8 +5422,8 @@
       <c r="I67" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J67" s="35">
-        <v>11.8</v>
+      <c r="J67" s="39">
+        <v>0.84285714285714286</v>
       </c>
       <c r="K67" s="35">
         <v>2.04</v>
@@ -5463,8 +5463,8 @@
       <c r="I68" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J68" s="35">
-        <v>11.8</v>
+      <c r="J68" s="39">
+        <v>0.84285714285714286</v>
       </c>
       <c r="K68" s="35">
         <v>2.84</v>
@@ -5504,8 +5504,8 @@
       <c r="I69" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J69" s="35">
-        <v>15.26</v>
+      <c r="J69" s="39">
+        <v>1.0900000000000001</v>
       </c>
       <c r="K69" s="35">
         <v>2.5299999999999998</v>
@@ -5545,8 +5545,8 @@
       <c r="I70" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="35">
-        <v>15.26</v>
+      <c r="J70" s="39">
+        <v>1.0900000000000001</v>
       </c>
       <c r="K70" s="35">
         <v>3.54</v>
@@ -5586,8 +5586,8 @@
       <c r="I71" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="35">
-        <v>15.26</v>
+      <c r="J71" s="39">
+        <v>1.0900000000000001</v>
       </c>
       <c r="K71" s="35">
         <v>4.3600000000000003</v>
@@ -5627,8 +5627,8 @@
       <c r="I72" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J72" s="35">
-        <v>6.45</v>
+      <c r="J72" s="39">
+        <v>0.23035714285714287</v>
       </c>
       <c r="K72" s="35">
         <v>1.19</v>
@@ -5668,8 +5668,8 @@
       <c r="I73" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J73" s="35">
-        <v>17.72</v>
+      <c r="J73" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K73" s="35"/>
       <c r="L73" s="36">
@@ -5707,8 +5707,8 @@
       <c r="I74" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J74" s="35">
-        <v>17.72</v>
+      <c r="J74" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K74" s="35"/>
       <c r="L74" s="36">
@@ -5746,8 +5746,8 @@
       <c r="I75" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J75" s="35">
-        <v>17.72</v>
+      <c r="J75" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K75" s="35">
         <v>13.34</v>
@@ -5787,8 +5787,8 @@
       <c r="I76" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J76" s="35">
-        <v>17.72</v>
+      <c r="J76" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K76" s="35"/>
       <c r="L76" s="36">
@@ -5824,8 +5824,8 @@
       <c r="I77" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J77" s="35">
-        <v>17.72</v>
+      <c r="J77" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K77" s="35"/>
       <c r="L77" s="36">
@@ -5861,8 +5861,8 @@
       <c r="I78" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J78" s="35">
-        <v>17.72</v>
+      <c r="J78" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K78" s="35">
         <v>14.19</v>
@@ -5900,8 +5900,8 @@
       <c r="I79" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J79" s="35">
-        <v>17.72</v>
+      <c r="J79" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="36">
@@ -5937,8 +5937,8 @@
       <c r="I80" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J80" s="35">
-        <v>17.72</v>
+      <c r="J80" s="39">
+        <v>0.59066666666666667</v>
       </c>
       <c r="K80" s="35">
         <v>16.27</v>
@@ -5976,8 +5976,8 @@
       <c r="I81" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J81" s="35">
-        <v>14.7</v>
+      <c r="J81" s="39">
+        <v>1.05</v>
       </c>
       <c r="K81" s="35">
         <v>2.23</v>
@@ -6017,8 +6017,8 @@
       <c r="I82" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J82" s="35">
-        <v>8.93</v>
+      <c r="J82" s="39">
+        <v>0.55812499999999998</v>
       </c>
       <c r="K82" s="35">
         <v>1.07</v>
@@ -6058,8 +6058,8 @@
       <c r="I83" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J83" s="35">
-        <v>72</v>
+      <c r="J83" s="39">
+        <v>2.4</v>
       </c>
       <c r="K83" s="35">
         <v>3.18</v>
@@ -6099,8 +6099,8 @@
       <c r="I84" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J84" s="35">
-        <v>72</v>
+      <c r="J84" s="39">
+        <v>2.4</v>
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="36">
@@ -6138,8 +6138,8 @@
       <c r="I85" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J85" s="35">
-        <v>72</v>
+      <c r="J85" s="39">
+        <v>2.4</v>
       </c>
       <c r="K85" s="35">
         <v>4.55</v>
@@ -6177,8 +6177,8 @@
       <c r="I86" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J86" s="35">
-        <v>623.82000000000005</v>
+      <c r="J86" s="39">
+        <v>10.397</v>
       </c>
       <c r="K86" s="35">
         <v>15.04</v>
@@ -6218,8 +6218,8 @@
       <c r="I87" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J87" s="35">
-        <v>623.82000000000005</v>
+      <c r="J87" s="39">
+        <v>10.397</v>
       </c>
       <c r="K87" s="35">
         <v>18.91</v>
@@ -6259,8 +6259,8 @@
       <c r="I88" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="J88" s="35">
-        <v>623.82000000000005</v>
+      <c r="J88" s="39">
+        <v>10.397</v>
       </c>
       <c r="K88" s="35">
         <v>183.29</v>
@@ -6298,8 +6298,8 @@
       <c r="I89" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J89" s="35">
-        <v>19.38</v>
+      <c r="J89" s="39">
+        <v>3.8759999999999999</v>
       </c>
       <c r="K89" s="35"/>
       <c r="L89" s="36">
@@ -6337,8 +6337,8 @@
       <c r="I90" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="35">
-        <v>19.38</v>
+      <c r="J90" s="39">
+        <v>3.8759999999999999</v>
       </c>
       <c r="K90" s="35">
         <v>6.92</v>
@@ -6378,8 +6378,8 @@
       <c r="I91" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="35">
-        <v>10.199999999999999</v>
+      <c r="J91" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K91" s="35">
         <v>1</v>
@@ -6419,8 +6419,8 @@
       <c r="I92" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="35">
-        <v>10.199999999999999</v>
+      <c r="J92" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K92" s="35">
         <v>1.76</v>
@@ -6460,8 +6460,8 @@
       <c r="I93" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="35">
-        <v>10.199999999999999</v>
+      <c r="J93" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K93" s="35">
         <v>0.68</v>
@@ -6501,8 +6501,8 @@
       <c r="I94" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="35">
-        <v>10.199999999999999</v>
+      <c r="J94" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K94" s="35">
         <v>0.85</v>
@@ -6540,8 +6540,8 @@
       <c r="I95" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="35">
-        <v>10.199999999999999</v>
+      <c r="J95" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K95" s="35">
         <v>0.78</v>
@@ -6579,8 +6579,8 @@
       <c r="I96" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J96" s="35">
-        <v>10.199999999999999</v>
+      <c r="J96" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K96" s="35">
         <v>0.66</v>
@@ -6618,8 +6618,8 @@
       <c r="I97" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="35">
-        <v>10.199999999999999</v>
+      <c r="J97" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K97" s="35">
         <v>0.4</v>
@@ -6657,8 +6657,8 @@
       <c r="I98" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J98" s="35">
-        <v>10.199999999999999</v>
+      <c r="J98" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K98" s="35">
         <v>0.52</v>
@@ -6696,8 +6696,8 @@
       <c r="I99" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J99" s="35">
-        <v>10.199999999999999</v>
+      <c r="J99" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K99" s="35">
         <v>0.81</v>
@@ -6735,8 +6735,8 @@
       <c r="I100" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J100" s="35">
-        <v>10.199999999999999</v>
+      <c r="J100" s="39">
+        <v>0.67999999999999994</v>
       </c>
       <c r="K100" s="35">
         <v>1.83</v>
@@ -6774,8 +6774,8 @@
       <c r="I101" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J101" s="35">
-        <v>2776.97</v>
+      <c r="J101" s="39">
+        <v>810</v>
       </c>
       <c r="K101" s="35"/>
       <c r="L101" s="36">
@@ -6813,8 +6813,8 @@
       <c r="I102" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="35">
-        <v>2776.97</v>
+      <c r="J102" s="39">
+        <v>810</v>
       </c>
       <c r="K102" s="35">
         <v>3322</v>
@@ -6854,8 +6854,8 @@
       <c r="I103" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="35">
-        <v>109.75</v>
+      <c r="J103" s="39">
+        <v>21.95</v>
       </c>
       <c r="K103" s="35">
         <v>63.7</v>
@@ -6895,8 +6895,8 @@
       <c r="I104" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J104" s="35">
-        <v>109.75</v>
+      <c r="J104" s="39">
+        <v>21.95</v>
       </c>
       <c r="K104" s="35"/>
       <c r="L104" s="36">
@@ -6934,8 +6934,8 @@
       <c r="I105" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="35">
-        <v>532</v>
+      <c r="J105" s="39">
+        <v>133</v>
       </c>
       <c r="K105" s="35"/>
       <c r="L105" s="36">

--- a/vbp.xlsx
+++ b/vbp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccpic\PycharmProjects\datasite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Tencent\WeChat\WeChat Files\lovewendy8754\FileStorage\File\2020-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B0B19-B2F0-4960-ABC8-772B96ADEEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一批联盟地区" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">第三批集采!$A$2:$M$314</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">第一批联盟地区!$A$3:$O$105</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1218">
   <si>
     <t>全国药品集中采购中选品种表</t>
   </si>
@@ -3968,11 +3967,19 @@
   <si>
     <t>天津，河北，内蒙古，吉林，福建，山东，云南</t>
   </si>
+  <si>
+    <t>布洛芬颗粒剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berlin-Chemie AG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###0;###0"/>
@@ -3981,7 +3988,7 @@
     <numFmt numFmtId="179" formatCode="0.000"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4080,6 +4087,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4223,7 +4236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4421,7 +4434,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4445,10 +4457,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="21">
@@ -4937,7 +4959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M214"/>
   <sheetViews>
@@ -4945,22 +4967,22 @@
       <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="29" customWidth="1"/>
     <col min="3" max="3" width="9" style="29" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="28.453125" style="29" customWidth="1"/>
-    <col min="7" max="9" width="5.7265625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="86.08984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="29" customWidth="1"/>
+    <col min="5" max="6" width="28.5" style="29" customWidth="1"/>
+    <col min="7" max="9" width="5.75" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="29" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="86.125" style="48" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>403</v>
       </c>
@@ -4977,7 +4999,7 @@
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4992,7 +5014,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
@@ -5033,7 +5055,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -5072,7 +5094,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="53">
         <v>1</v>
       </c>
@@ -5111,7 +5133,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="53">
         <v>1</v>
       </c>
@@ -5152,7 +5174,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="53">
         <v>1</v>
       </c>
@@ -5191,7 +5213,7 @@
       </c>
       <c r="M7" s="37"/>
     </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="53">
         <v>1</v>
       </c>
@@ -5230,7 +5252,7 @@
       </c>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="53">
         <v>2</v>
       </c>
@@ -5271,7 +5293,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="53">
         <v>2</v>
       </c>
@@ -5310,7 +5332,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="53">
         <v>2</v>
       </c>
@@ -5351,7 +5373,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="53">
         <v>2</v>
       </c>
@@ -5390,7 +5412,7 @@
       </c>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="53">
         <v>2</v>
       </c>
@@ -5429,7 +5451,7 @@
       </c>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="53">
         <v>2</v>
       </c>
@@ -5468,7 +5490,7 @@
       </c>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="53">
         <v>3</v>
       </c>
@@ -5507,7 +5529,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="53">
         <v>3</v>
       </c>
@@ -5548,7 +5570,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="53">
         <v>3</v>
       </c>
@@ -5589,7 +5611,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="53">
         <v>3</v>
       </c>
@@ -5628,7 +5650,7 @@
       </c>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="53">
         <v>4</v>
       </c>
@@ -5667,7 +5689,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="53">
         <v>4</v>
       </c>
@@ -5708,7 +5730,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="53">
         <v>4</v>
       </c>
@@ -5749,7 +5771,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="53">
         <v>4</v>
       </c>
@@ -5788,7 +5810,7 @@
       </c>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="53">
         <v>5</v>
       </c>
@@ -5829,7 +5851,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="53">
         <v>5</v>
       </c>
@@ -5870,7 +5892,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="53">
         <v>5</v>
       </c>
@@ -5909,7 +5931,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="53">
         <v>5</v>
       </c>
@@ -5946,7 +5968,7 @@
       </c>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="53">
         <v>5</v>
       </c>
@@ -5985,7 +6007,7 @@
       </c>
       <c r="M27" s="37"/>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="53">
         <v>5</v>
       </c>
@@ -6024,7 +6046,7 @@
       </c>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="53">
         <v>5</v>
       </c>
@@ -6061,7 +6083,7 @@
       </c>
       <c r="M29" s="37"/>
     </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="53">
         <v>5</v>
       </c>
@@ -6100,7 +6122,7 @@
       </c>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="53">
         <v>5</v>
       </c>
@@ -6137,7 +6159,7 @@
       </c>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="53">
         <v>6</v>
       </c>
@@ -6178,7 +6200,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="53">
         <v>6</v>
       </c>
@@ -6217,7 +6239,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="53">
         <v>6</v>
       </c>
@@ -6258,7 +6280,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="53">
         <v>6</v>
       </c>
@@ -6297,7 +6319,7 @@
       </c>
       <c r="M35" s="37"/>
     </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="53">
         <v>6</v>
       </c>
@@ -6336,7 +6358,7 @@
       </c>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="53">
         <v>6</v>
       </c>
@@ -6375,7 +6397,7 @@
       </c>
       <c r="M37" s="37"/>
     </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="53">
         <v>6</v>
       </c>
@@ -6412,7 +6434,7 @@
       </c>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="53">
         <v>6</v>
       </c>
@@ -6451,7 +6473,7 @@
       </c>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="53">
         <v>6</v>
       </c>
@@ -6490,7 +6512,7 @@
       </c>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A41" s="53">
         <v>7</v>
       </c>
@@ -6529,7 +6551,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="53">
         <v>7</v>
       </c>
@@ -6570,7 +6592,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="53">
         <v>7</v>
       </c>
@@ -6611,7 +6633,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="53">
         <v>7</v>
       </c>
@@ -6650,7 +6672,7 @@
       </c>
       <c r="M44" s="37"/>
     </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="53">
         <v>8</v>
       </c>
@@ -6691,7 +6713,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="53">
         <v>8</v>
       </c>
@@ -6732,7 +6754,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="53">
         <v>8</v>
       </c>
@@ -6771,7 +6793,7 @@
       </c>
       <c r="M47" s="37"/>
     </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="53">
         <v>9</v>
       </c>
@@ -6810,7 +6832,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="53">
         <v>9</v>
       </c>
@@ -6851,7 +6873,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A50" s="53">
         <v>9</v>
       </c>
@@ -6892,7 +6914,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="53">
         <v>9</v>
       </c>
@@ -6931,7 +6953,7 @@
       </c>
       <c r="M51" s="37"/>
     </row>
-    <row r="52" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A52" s="53">
         <v>10</v>
       </c>
@@ -6972,7 +6994,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A53" s="53">
         <v>10</v>
       </c>
@@ -7013,7 +7035,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A54" s="53">
         <v>10</v>
       </c>
@@ -7054,7 +7076,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A55" s="53">
         <v>10</v>
       </c>
@@ -7093,7 +7115,7 @@
       </c>
       <c r="M55" s="37"/>
     </row>
-    <row r="56" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A56" s="53">
         <v>10</v>
       </c>
@@ -7130,7 +7152,7 @@
       </c>
       <c r="M56" s="37"/>
     </row>
-    <row r="57" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A57" s="53">
         <v>10</v>
       </c>
@@ -7167,7 +7189,7 @@
       </c>
       <c r="M57" s="37"/>
     </row>
-    <row r="58" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A58" s="53">
         <v>10</v>
       </c>
@@ -7206,7 +7228,7 @@
       </c>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="53">
         <v>11</v>
       </c>
@@ -7247,7 +7269,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="53">
         <v>11</v>
       </c>
@@ -7288,7 +7310,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="53">
         <v>11</v>
       </c>
@@ -7329,7 +7351,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="53">
         <v>11</v>
       </c>
@@ -7368,7 +7390,7 @@
       </c>
       <c r="M62" s="37"/>
     </row>
-    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="53">
         <v>11</v>
       </c>
@@ -7407,7 +7429,7 @@
       </c>
       <c r="M63" s="37"/>
     </row>
-    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="53">
         <v>12</v>
       </c>
@@ -7448,7 +7470,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="53">
         <v>12</v>
       </c>
@@ -7487,7 +7509,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A66" s="53">
         <v>12</v>
       </c>
@@ -7528,7 +7550,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="53">
         <v>13</v>
       </c>
@@ -7569,7 +7591,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="53">
         <v>13</v>
       </c>
@@ -7610,7 +7632,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A69" s="53">
         <v>14</v>
       </c>
@@ -7651,7 +7673,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A70" s="53">
         <v>14</v>
       </c>
@@ -7692,7 +7714,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A71" s="53">
         <v>14</v>
       </c>
@@ -7733,7 +7755,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A72" s="44">
         <v>15</v>
       </c>
@@ -7774,7 +7796,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A73" s="53">
         <v>16</v>
       </c>
@@ -7813,7 +7835,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A74" s="53">
         <v>16</v>
       </c>
@@ -7852,7 +7874,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A75" s="53">
         <v>16</v>
       </c>
@@ -7893,7 +7915,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A76" s="53">
         <v>16</v>
       </c>
@@ -7930,7 +7952,7 @@
       </c>
       <c r="M76" s="37"/>
     </row>
-    <row r="77" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A77" s="53">
         <v>16</v>
       </c>
@@ -7967,7 +7989,7 @@
       </c>
       <c r="M77" s="37"/>
     </row>
-    <row r="78" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A78" s="53">
         <v>16</v>
       </c>
@@ -8006,7 +8028,7 @@
       </c>
       <c r="M78" s="37"/>
     </row>
-    <row r="79" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A79" s="53">
         <v>16</v>
       </c>
@@ -8043,7 +8065,7 @@
       </c>
       <c r="M79" s="37"/>
     </row>
-    <row r="80" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A80" s="53">
         <v>16</v>
       </c>
@@ -8082,7 +8104,7 @@
       </c>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A81" s="44">
         <v>17</v>
       </c>
@@ -8123,7 +8145,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A82" s="44">
         <v>18</v>
       </c>
@@ -8164,7 +8186,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="53">
         <v>19</v>
       </c>
@@ -8205,7 +8227,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="53">
         <v>19</v>
       </c>
@@ -8244,7 +8266,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="53">
         <v>19</v>
       </c>
@@ -8283,7 +8305,7 @@
       </c>
       <c r="M85" s="37"/>
     </row>
-    <row r="86" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="53">
         <v>20</v>
       </c>
@@ -8324,7 +8346,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="53">
         <v>20</v>
       </c>
@@ -8365,7 +8387,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="53">
         <v>20</v>
       </c>
@@ -8404,7 +8426,7 @@
       </c>
       <c r="M88" s="37"/>
     </row>
-    <row r="89" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A89" s="53">
         <v>21</v>
       </c>
@@ -8443,7 +8465,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="53">
         <v>21</v>
       </c>
@@ -8484,7 +8506,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="53">
         <v>22</v>
       </c>
@@ -8525,7 +8547,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="53">
         <v>22</v>
       </c>
@@ -8566,7 +8588,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="53">
         <v>22</v>
       </c>
@@ -8607,7 +8629,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="53">
         <v>22</v>
       </c>
@@ -8646,7 +8668,7 @@
       </c>
       <c r="M94" s="37"/>
     </row>
-    <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="53">
         <v>22</v>
       </c>
@@ -8685,7 +8707,7 @@
       </c>
       <c r="M95" s="37"/>
     </row>
-    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="53">
         <v>22</v>
       </c>
@@ -8724,7 +8746,7 @@
       </c>
       <c r="M96" s="37"/>
     </row>
-    <row r="97" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="53">
         <v>22</v>
       </c>
@@ -8763,7 +8785,7 @@
       </c>
       <c r="M97" s="37"/>
     </row>
-    <row r="98" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="53">
         <v>22</v>
       </c>
@@ -8802,7 +8824,7 @@
       </c>
       <c r="M98" s="37"/>
     </row>
-    <row r="99" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="53">
         <v>22</v>
       </c>
@@ -8841,7 +8863,7 @@
       </c>
       <c r="M99" s="37"/>
     </row>
-    <row r="100" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="53">
         <v>22</v>
       </c>
@@ -8880,7 +8902,7 @@
       </c>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="53">
         <v>23</v>
       </c>
@@ -8919,7 +8941,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="53">
         <v>23</v>
       </c>
@@ -8960,7 +8982,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A103" s="53">
         <v>24</v>
       </c>
@@ -9001,7 +9023,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A104" s="53">
         <v>24</v>
       </c>
@@ -9040,7 +9062,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A105" s="44">
         <v>25</v>
       </c>
@@ -9079,293 +9101,293 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="47"/>
     </row>
-    <row r="107" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="47"/>
     </row>
-    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="47"/>
     </row>
-    <row r="110" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="47"/>
     </row>
-    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="47"/>
     </row>
-    <row r="112" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="49"/>
     </row>
-    <row r="113" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="49"/>
     </row>
-    <row r="114" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="50"/>
     </row>
-    <row r="115" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="51"/>
     </row>
-    <row r="117" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="49"/>
     </row>
-    <row r="118" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="49"/>
     </row>
-    <row r="119" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="49"/>
     </row>
-    <row r="120" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="49"/>
     </row>
-    <row r="121" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="50"/>
     </row>
-    <row r="122" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="51"/>
     </row>
-    <row r="124" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="49"/>
     </row>
-    <row r="125" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="49"/>
     </row>
-    <row r="126" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="50"/>
     </row>
-    <row r="127" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="51"/>
     </row>
-    <row r="129" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="49"/>
     </row>
-    <row r="130" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="49"/>
     </row>
-    <row r="131" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="51"/>
     </row>
-    <row r="133" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="49"/>
     </row>
-    <row r="134" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="49"/>
     </row>
-    <row r="135" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="49"/>
     </row>
-    <row r="136" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="49"/>
     </row>
-    <row r="137" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="49"/>
     </row>
-    <row r="138" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="50"/>
     </row>
-    <row r="139" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="51"/>
     </row>
-    <row r="141" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="49"/>
     </row>
-    <row r="142" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="49"/>
     </row>
-    <row r="143" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="49"/>
     </row>
-    <row r="144" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="51"/>
     </row>
-    <row r="146" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="49"/>
     </row>
-    <row r="147" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="49"/>
     </row>
-    <row r="148" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="49"/>
     </row>
-    <row r="149" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="50"/>
     </row>
-    <row r="150" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="51"/>
     </row>
-    <row r="152" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="49"/>
     </row>
-    <row r="153" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="49"/>
     </row>
-    <row r="154" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="50"/>
     </row>
-    <row r="155" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="51"/>
     </row>
-    <row r="157" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="52"/>
     </row>
-    <row r="158" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="51"/>
     </row>
-    <row r="160" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="49"/>
     </row>
-    <row r="161" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="49"/>
     </row>
-    <row r="162" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="51"/>
     </row>
-    <row r="164" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="49"/>
     </row>
-    <row r="166" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="49"/>
     </row>
-    <row r="167" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="50"/>
     </row>
-    <row r="168" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="51"/>
     </row>
-    <row r="170" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="49"/>
     </row>
-    <row r="171" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="50"/>
     </row>
-    <row r="172" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="50"/>
     </row>
-    <row r="173" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="51"/>
     </row>
-    <row r="175" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="49"/>
     </row>
-    <row r="176" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="49"/>
     </row>
-    <row r="177" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="49"/>
     </row>
-    <row r="178" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
     </row>
-    <row r="179" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="51"/>
     </row>
-    <row r="181" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="49"/>
     </row>
-    <row r="182" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="49"/>
     </row>
-    <row r="183" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
     </row>
-    <row r="184" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="51"/>
     </row>
-    <row r="186" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="49"/>
     </row>
-    <row r="187" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="49"/>
     </row>
-    <row r="188" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="49"/>
     </row>
-    <row r="189" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="49"/>
     </row>
-    <row r="190" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="51"/>
     </row>
-    <row r="192" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="49"/>
     </row>
-    <row r="194" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="49"/>
     </row>
-    <row r="195" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="49"/>
     </row>
-    <row r="196" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="49"/>
     </row>
-    <row r="197" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="49"/>
     </row>
-    <row r="198" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="50"/>
     </row>
-    <row r="199" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="51"/>
     </row>
-    <row r="201" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="49"/>
     </row>
-    <row r="203" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="49"/>
     </row>
-    <row r="204" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="49"/>
     </row>
-    <row r="205" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
     </row>
-    <row r="206" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="51"/>
     </row>
-    <row r="208" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="49"/>
     </row>
-    <row r="209" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="49"/>
     </row>
-    <row r="210" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="49"/>
     </row>
-    <row r="211" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="49"/>
     </row>
-    <row r="212" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="49"/>
     </row>
-    <row r="213" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
     </row>
-    <row r="214" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:O105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:O105"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9373,13 +9395,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9387,7 +9409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M177"/>
   <sheetViews>
@@ -9395,25 +9417,25 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="15" customWidth="1"/>
     <col min="12" max="12" width="9" style="15"/>
-    <col min="13" max="13" width="71.453125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="71.5" style="15" customWidth="1"/>
     <col min="14" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9428,7 +9450,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9443,7 +9465,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -9484,7 +9506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -9525,7 +9547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A7" si="0">A4</f>
         <v>1</v>
@@ -9565,7 +9587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9607,7 +9629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9647,7 +9669,7 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -9688,7 +9710,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f t="shared" ref="A9:A10" si="1">A8</f>
         <v>2</v>
@@ -9730,7 +9752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -9770,7 +9792,7 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -9811,7 +9833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <f t="shared" ref="A12:A14" si="2">A11</f>
         <v>3</v>
@@ -9853,7 +9875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -9891,7 +9913,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -9931,7 +9953,7 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>4</v>
       </c>
@@ -9970,7 +9992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" ref="A16:A25" si="3">A15</f>
         <v>4</v>
@@ -10010,7 +10032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10052,7 +10074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10094,7 +10116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10136,7 +10158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10178,7 +10200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10218,7 +10240,7 @@
       </c>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10258,7 +10280,7 @@
       </c>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10296,7 +10318,7 @@
       </c>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10334,7 +10356,7 @@
       </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -10372,7 +10394,7 @@
       </c>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -10413,7 +10435,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f t="shared" ref="A27:A31" si="4">A26</f>
         <v>5</v>
@@ -10453,7 +10475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10493,7 +10515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10533,7 +10555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10573,7 +10595,7 @@
       </c>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -10611,7 +10633,7 @@
       </c>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>6</v>
       </c>
@@ -10650,7 +10672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <f t="shared" ref="A33:A35" si="5">A32</f>
         <v>6</v>
@@ -10692,7 +10714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -10732,7 +10754,7 @@
       </c>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -10772,7 +10794,7 @@
       </c>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -10811,7 +10833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <f t="shared" ref="A37:A40" si="6">A36</f>
         <v>7</v>
@@ -10851,7 +10873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -10893,7 +10915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -10933,7 +10955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -10973,7 +10995,7 @@
       </c>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>8</v>
       </c>
@@ -11015,7 +11037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <f t="shared" ref="A42:A43" si="7">A41</f>
         <v>8</v>
@@ -11057,7 +11079,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -11095,7 +11117,7 @@
       </c>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>9</v>
       </c>
@@ -11136,7 +11158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <f t="shared" ref="A45:A52" si="8">A44</f>
         <v>9</v>
@@ -11176,7 +11198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11216,7 +11238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11258,7 +11280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11298,7 +11320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11338,7 +11360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11376,7 +11398,7 @@
       </c>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11414,7 +11436,7 @@
       </c>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -11452,7 +11474,7 @@
       </c>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>10</v>
       </c>
@@ -11493,7 +11515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <f t="shared" ref="A54:A55" si="9">A53</f>
         <v>10</v>
@@ -11535,7 +11557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -11575,7 +11597,7 @@
       </c>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11616,7 +11638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <f t="shared" ref="A57:A60" si="10">A56</f>
         <v>11</v>
@@ -11658,7 +11680,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -11700,7 +11722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -11740,7 +11762,7 @@
       </c>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -11778,7 +11800,7 @@
       </c>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>12</v>
       </c>
@@ -11819,7 +11841,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <f t="shared" ref="A62:A64" si="11">A61</f>
         <v>12</v>
@@ -11859,7 +11881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -11901,7 +11923,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -11941,7 +11963,7 @@
       </c>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>13</v>
       </c>
@@ -11982,7 +12004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <f t="shared" ref="A66:A71" si="12">A65</f>
         <v>13</v>
@@ -12024,7 +12046,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -12068,7 +12090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -12112,7 +12134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -12156,7 +12178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -12194,7 +12216,7 @@
       </c>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -12232,7 +12254,7 @@
       </c>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>14</v>
       </c>
@@ -12271,7 +12293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <f t="shared" ref="A73:A74" si="13">A72</f>
         <v>14</v>
@@ -12311,7 +12333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -12349,7 +12371,7 @@
       </c>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>15</v>
       </c>
@@ -12390,7 +12412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <f t="shared" ref="A76:A79" si="14">A75</f>
         <v>15</v>
@@ -12432,7 +12454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -12474,7 +12496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -12516,7 +12538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -12556,7 +12578,7 @@
       </c>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>16</v>
       </c>
@@ -12597,7 +12619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <f t="shared" ref="A81:A83" si="15">A80</f>
         <v>16</v>
@@ -12641,7 +12663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -12681,7 +12703,7 @@
       </c>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -12721,7 +12743,7 @@
       </c>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>17</v>
       </c>
@@ -12762,7 +12784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <f t="shared" ref="A85:A89" si="16">A84</f>
         <v>17</v>
@@ -12804,7 +12826,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -12846,7 +12868,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -12886,7 +12908,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -12924,7 +12946,7 @@
       </c>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -12962,7 +12984,7 @@
       </c>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>18</v>
       </c>
@@ -13003,7 +13025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <f t="shared" ref="A91:A92" si="17">A90</f>
         <v>18</v>
@@ -13045,7 +13067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -13085,7 +13107,7 @@
       </c>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>19</v>
       </c>
@@ -13126,7 +13148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <f t="shared" ref="A94:A95" si="18">A93</f>
         <v>19</v>
@@ -13168,7 +13190,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <f t="shared" si="18"/>
         <v>19</v>
@@ -13208,7 +13230,7 @@
       </c>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>20</v>
       </c>
@@ -13249,7 +13271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <f t="shared" ref="A97:A102" si="19">A96</f>
         <v>20</v>
@@ -13291,7 +13313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -13331,7 +13353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -13371,7 +13393,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -13413,7 +13435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -13451,7 +13473,7 @@
       </c>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -13489,7 +13511,7 @@
       </c>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>21</v>
       </c>
@@ -13528,7 +13550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <f t="shared" ref="A104:A106" si="20">A103</f>
         <v>21</v>
@@ -13570,7 +13592,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -13612,7 +13634,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -13652,7 +13674,7 @@
       </c>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>22</v>
       </c>
@@ -13693,7 +13715,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <f t="shared" ref="A108:A110" si="21">A107</f>
         <v>22</v>
@@ -13733,7 +13755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -13775,7 +13797,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -13815,7 +13837,7 @@
       </c>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>23</v>
       </c>
@@ -13854,7 +13876,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <f t="shared" ref="A112:A115" si="22">A111</f>
         <v>23</v>
@@ -13896,7 +13918,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -13934,7 +13956,7 @@
       </c>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -13974,7 +13996,7 @@
       </c>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -14012,7 +14034,7 @@
       </c>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>24</v>
       </c>
@@ -14053,7 +14075,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <f t="shared" ref="A117:A118" si="23">A116</f>
         <v>24</v>
@@ -14095,7 +14117,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <f t="shared" si="23"/>
         <v>24</v>
@@ -14133,7 +14155,7 @@
       </c>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>25</v>
       </c>
@@ -14174,7 +14196,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <f t="shared" ref="A120:A121" si="24">A119</f>
         <v>25</v>
@@ -14216,7 +14238,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -14256,7 +14278,7 @@
       </c>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
         <v>26</v>
       </c>
@@ -14297,7 +14319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
         <f t="shared" ref="A123:A126" si="25">A122</f>
         <v>26</v>
@@ -14337,7 +14359,7 @@
       </c>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -14375,7 +14397,7 @@
       </c>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -14415,7 +14437,7 @@
       </c>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -14453,7 +14475,7 @@
       </c>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>27</v>
       </c>
@@ -14492,7 +14514,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <f t="shared" ref="A128:A132" si="26">A127</f>
         <v>27</v>
@@ -14532,7 +14554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -14574,7 +14596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -14614,7 +14636,7 @@
       </c>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -14654,7 +14676,7 @@
       </c>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -14694,7 +14716,7 @@
       </c>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>28</v>
       </c>
@@ -14735,7 +14757,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <f t="shared" ref="A134:A135" si="27">A133</f>
         <v>28</v>
@@ -14777,7 +14799,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <f t="shared" si="27"/>
         <v>28</v>
@@ -14817,7 +14839,7 @@
       </c>
       <c r="M135" s="14"/>
     </row>
-    <row r="136" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>29</v>
       </c>
@@ -14856,7 +14878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <f t="shared" ref="A137:A141" si="28">A136</f>
         <v>29</v>
@@ -14896,7 +14918,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <f t="shared" si="28"/>
         <v>29</v>
@@ -14936,7 +14958,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <f t="shared" si="28"/>
         <v>29</v>
@@ -14978,7 +15000,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <f t="shared" si="28"/>
         <v>29</v>
@@ -15016,7 +15038,7 @@
       </c>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <f t="shared" si="28"/>
         <v>29</v>
@@ -15056,7 +15078,7 @@
       </c>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>30</v>
       </c>
@@ -15097,7 +15119,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <f t="shared" ref="A143:A149" si="29">A142</f>
         <v>30</v>
@@ -15139,7 +15161,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15181,7 +15203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15223,7 +15245,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15263,7 +15285,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15303,7 +15325,7 @@
       </c>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15341,7 +15363,7 @@
       </c>
       <c r="M148" s="14"/>
     </row>
-    <row r="149" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <f t="shared" si="29"/>
         <v>30</v>
@@ -15381,7 +15403,7 @@
       </c>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>31</v>
       </c>
@@ -15422,7 +15444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <f t="shared" ref="A151:A153" si="30">A150</f>
         <v>31</v>
@@ -15464,7 +15486,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <f t="shared" si="30"/>
         <v>31</v>
@@ -15506,7 +15528,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <f t="shared" si="30"/>
         <v>31</v>
@@ -15546,7 +15568,7 @@
       </c>
       <c r="M153" s="14"/>
     </row>
-    <row r="154" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>32</v>
       </c>
@@ -15585,7 +15607,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <f t="shared" ref="A155:A161" si="31">A154</f>
         <v>32</v>
@@ -15627,7 +15649,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15669,7 +15691,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15709,7 +15731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15751,7 +15773,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15791,7 +15813,7 @@
       </c>
       <c r="M159" s="14"/>
     </row>
-    <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15831,7 +15853,7 @@
       </c>
       <c r="M160" s="14"/>
     </row>
-    <row r="161" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <f t="shared" si="31"/>
         <v>32</v>
@@ -15871,28 +15893,28 @@
       </c>
       <c r="M161" s="14"/>
     </row>
-    <row r="163" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
     </row>
-    <row r="167" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
     </row>
-    <row r="173" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
     </row>
-    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K161" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A3:K161"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -15900,34 +15922,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:M314"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L255" sqref="L255"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="15" customWidth="1"/>
-    <col min="7" max="9" width="5.90625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.08984375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="105.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="15" customWidth="1"/>
+    <col min="7" max="9" width="5.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="105.625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
@@ -15968,7 +15990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55">
         <v>1</v>
       </c>
@@ -16009,7 +16031,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
         <v>1</v>
       </c>
@@ -16048,7 +16070,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55">
         <v>1</v>
       </c>
@@ -16089,7 +16111,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55">
         <v>1</v>
       </c>
@@ -16130,7 +16152,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55">
         <v>1</v>
       </c>
@@ -16169,7 +16191,7 @@
       </c>
       <c r="M7" s="56"/>
     </row>
-    <row r="8" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55">
         <v>2</v>
       </c>
@@ -16208,7 +16230,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55">
         <v>2</v>
       </c>
@@ -16249,7 +16271,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55">
         <v>2</v>
       </c>
@@ -16288,7 +16310,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>2</v>
       </c>
@@ -16327,7 +16349,7 @@
       </c>
       <c r="M11" s="56"/>
     </row>
-    <row r="12" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
         <v>2</v>
       </c>
@@ -16366,7 +16388,7 @@
       </c>
       <c r="M12" s="56"/>
     </row>
-    <row r="13" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55">
         <v>2</v>
       </c>
@@ -16407,7 +16429,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61">
         <v>2</v>
       </c>
@@ -16417,36 +16439,36 @@
       <c r="C14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="57" t="s">
         <v>645</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="55" t="s">
         <v>651</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="56" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="64">
+      <c r="H14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="58">
         <v>28.428599999999999</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="56">
         <v>39.89</v>
       </c>
-      <c r="L14" s="65">
-        <v>99999</v>
+      <c r="L14" s="59">
+        <v>28.428599999999999</v>
       </c>
       <c r="M14" s="56"/>
     </row>
-    <row r="15" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55">
         <v>3</v>
       </c>
@@ -16487,7 +16509,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55">
         <v>3</v>
       </c>
@@ -16526,7 +16548,7 @@
       </c>
       <c r="M16" s="56"/>
     </row>
-    <row r="17" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55">
         <v>3</v>
       </c>
@@ -16567,7 +16589,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55">
         <v>4</v>
       </c>
@@ -16608,7 +16630,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55">
         <v>4</v>
       </c>
@@ -16649,7 +16671,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55">
         <v>4</v>
       </c>
@@ -16690,7 +16712,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>4</v>
       </c>
@@ -16731,7 +16753,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>4</v>
       </c>
@@ -16768,7 +16790,7 @@
       </c>
       <c r="M22" s="56"/>
     </row>
-    <row r="23" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>5</v>
       </c>
@@ -16809,7 +16831,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55">
         <v>5</v>
       </c>
@@ -16850,7 +16872,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55">
         <v>5</v>
       </c>
@@ -16891,7 +16913,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>5</v>
       </c>
@@ -16930,7 +16952,7 @@
       </c>
       <c r="M26" s="56"/>
     </row>
-    <row r="27" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55">
         <v>5</v>
       </c>
@@ -16969,7 +16991,7 @@
       </c>
       <c r="M27" s="56"/>
     </row>
-    <row r="28" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55">
         <v>5</v>
       </c>
@@ -17008,7 +17030,7 @@
       </c>
       <c r="M28" s="56"/>
     </row>
-    <row r="29" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55">
         <v>6</v>
       </c>
@@ -17049,7 +17071,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55">
         <v>6</v>
       </c>
@@ -17088,7 +17110,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55">
         <v>6</v>
       </c>
@@ -17127,7 +17149,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55">
         <v>6</v>
       </c>
@@ -17166,7 +17188,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55">
         <v>6</v>
       </c>
@@ -17203,7 +17225,7 @@
       </c>
       <c r="M33" s="56"/>
     </row>
-    <row r="34" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55">
         <v>6</v>
       </c>
@@ -17242,7 +17264,7 @@
       </c>
       <c r="M34" s="56"/>
     </row>
-    <row r="35" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="55">
         <v>7</v>
       </c>
@@ -17281,7 +17303,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55">
         <v>7</v>
       </c>
@@ -17322,7 +17344,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="55">
         <v>7</v>
       </c>
@@ -17359,7 +17381,7 @@
       </c>
       <c r="M37" s="56"/>
     </row>
-    <row r="38" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55">
         <v>7</v>
       </c>
@@ -17398,7 +17420,7 @@
       </c>
       <c r="M38" s="56"/>
     </row>
-    <row r="39" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55">
         <v>7</v>
       </c>
@@ -17437,7 +17459,7 @@
       </c>
       <c r="M39" s="56"/>
     </row>
-    <row r="40" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55">
         <v>7</v>
       </c>
@@ -17474,7 +17496,7 @@
       </c>
       <c r="M40" s="56"/>
     </row>
-    <row r="41" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55">
         <v>8</v>
       </c>
@@ -17515,7 +17537,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55">
         <v>8</v>
       </c>
@@ -17556,7 +17578,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55">
         <v>8</v>
       </c>
@@ -17595,7 +17617,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55">
         <v>8</v>
       </c>
@@ -17634,7 +17656,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55">
         <v>8</v>
       </c>
@@ -17673,7 +17695,7 @@
       </c>
       <c r="M45" s="56"/>
     </row>
-    <row r="46" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55">
         <v>9</v>
       </c>
@@ -17712,7 +17734,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55">
         <v>9</v>
       </c>
@@ -17753,7 +17775,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55">
         <v>9</v>
       </c>
@@ -17794,7 +17816,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55">
         <v>9</v>
       </c>
@@ -17835,7 +17857,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="55">
         <v>9</v>
       </c>
@@ -17874,7 +17896,7 @@
       </c>
       <c r="M50" s="56"/>
     </row>
-    <row r="51" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55">
         <v>9</v>
       </c>
@@ -17913,12 +17935,12 @@
       </c>
       <c r="M51" s="56"/>
     </row>
-    <row r="52" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61">
         <v>9</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>706</v>
+        <v>1216</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>11</v>
@@ -17945,12 +17967,12 @@
         <v>1.2296</v>
       </c>
       <c r="K52" s="62"/>
-      <c r="L52" s="65">
+      <c r="L52" s="80">
         <v>99999</v>
       </c>
       <c r="M52" s="56"/>
     </row>
-    <row r="53" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55">
         <v>10</v>
       </c>
@@ -17991,7 +18013,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="55">
         <v>10</v>
       </c>
@@ -18032,7 +18054,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55">
         <v>10</v>
       </c>
@@ -18071,7 +18093,7 @@
       </c>
       <c r="M55" s="56"/>
     </row>
-    <row r="56" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55">
         <v>11</v>
       </c>
@@ -18112,7 +18134,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="55">
         <v>11</v>
       </c>
@@ -18153,7 +18175,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55">
         <v>11</v>
       </c>
@@ -18194,7 +18216,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55">
         <v>11</v>
       </c>
@@ -18233,7 +18255,7 @@
       </c>
       <c r="M59" s="56"/>
     </row>
-    <row r="60" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55">
         <v>12</v>
       </c>
@@ -18274,7 +18296,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55">
         <v>12</v>
       </c>
@@ -18315,7 +18337,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="55">
         <v>12</v>
       </c>
@@ -18356,7 +18378,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55">
         <v>12</v>
       </c>
@@ -18397,7 +18419,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="55">
         <v>12</v>
       </c>
@@ -18438,7 +18460,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55">
         <v>12</v>
       </c>
@@ -18479,7 +18501,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55">
         <v>12</v>
       </c>
@@ -18520,7 +18542,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55">
         <v>12</v>
       </c>
@@ -18561,7 +18583,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55">
         <v>12</v>
       </c>
@@ -18598,7 +18620,7 @@
       </c>
       <c r="M68" s="56"/>
     </row>
-    <row r="69" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55">
         <v>12</v>
       </c>
@@ -18637,7 +18659,7 @@
       </c>
       <c r="M69" s="56"/>
     </row>
-    <row r="70" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55">
         <v>12</v>
       </c>
@@ -18676,7 +18698,7 @@
       </c>
       <c r="M70" s="56"/>
     </row>
-    <row r="71" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="55">
         <v>12</v>
       </c>
@@ -18713,7 +18735,7 @@
       </c>
       <c r="M71" s="56"/>
     </row>
-    <row r="72" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55">
         <v>12</v>
       </c>
@@ -18750,7 +18772,7 @@
       </c>
       <c r="M72" s="56"/>
     </row>
-    <row r="73" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55">
         <v>12</v>
       </c>
@@ -18787,7 +18809,7 @@
       </c>
       <c r="M73" s="56"/>
     </row>
-    <row r="74" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55">
         <v>12</v>
       </c>
@@ -18826,7 +18848,7 @@
       </c>
       <c r="M74" s="56"/>
     </row>
-    <row r="75" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55">
         <v>12</v>
       </c>
@@ -18865,7 +18887,7 @@
       </c>
       <c r="M75" s="56"/>
     </row>
-    <row r="76" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55">
         <v>12</v>
       </c>
@@ -18904,7 +18926,7 @@
       </c>
       <c r="M76" s="56"/>
     </row>
-    <row r="77" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55">
         <v>12</v>
       </c>
@@ -18938,12 +18960,12 @@
       <c r="K77" s="56">
         <v>0.72</v>
       </c>
-      <c r="L77" s="59">
-        <v>4.0999999999999996</v>
+      <c r="L77" s="81">
+        <v>0.39</v>
       </c>
       <c r="M77" s="56"/>
     </row>
-    <row r="78" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="61">
         <v>12</v>
       </c>
@@ -18977,12 +18999,12 @@
       <c r="K78" s="62">
         <v>0.52</v>
       </c>
-      <c r="L78" s="65">
+      <c r="L78" s="80">
         <v>99999</v>
       </c>
       <c r="M78" s="56"/>
     </row>
-    <row r="79" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55">
         <v>13</v>
       </c>
@@ -19023,7 +19045,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55">
         <v>13</v>
       </c>
@@ -19064,7 +19086,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55">
         <v>13</v>
       </c>
@@ -19105,7 +19127,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="55">
         <v>13</v>
       </c>
@@ -19146,7 +19168,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55">
         <v>13</v>
       </c>
@@ -19187,7 +19209,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55">
         <v>13</v>
       </c>
@@ -19228,7 +19250,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55">
         <v>13</v>
       </c>
@@ -19267,7 +19289,7 @@
       </c>
       <c r="M85" s="56"/>
     </row>
-    <row r="86" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55">
         <v>13</v>
       </c>
@@ -19306,7 +19328,7 @@
       </c>
       <c r="M86" s="56"/>
     </row>
-    <row r="87" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55">
         <v>13</v>
       </c>
@@ -19345,7 +19367,7 @@
       </c>
       <c r="M87" s="56"/>
     </row>
-    <row r="88" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="55">
         <v>13</v>
       </c>
@@ -19384,7 +19406,7 @@
       </c>
       <c r="M88" s="56"/>
     </row>
-    <row r="89" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="55">
         <v>13</v>
       </c>
@@ -19423,7 +19445,7 @@
       </c>
       <c r="M89" s="56"/>
     </row>
-    <row r="90" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55">
         <v>13</v>
       </c>
@@ -19462,7 +19484,7 @@
       </c>
       <c r="M90" s="56"/>
     </row>
-    <row r="91" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55">
         <v>13</v>
       </c>
@@ -19501,7 +19523,7 @@
       </c>
       <c r="M91" s="56"/>
     </row>
-    <row r="92" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55">
         <v>13</v>
       </c>
@@ -19540,7 +19562,7 @@
       </c>
       <c r="M92" s="56"/>
     </row>
-    <row r="93" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55">
         <v>13</v>
       </c>
@@ -19579,7 +19601,7 @@
       </c>
       <c r="M93" s="56"/>
     </row>
-    <row r="94" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55">
         <v>13</v>
       </c>
@@ -19618,7 +19640,7 @@
       </c>
       <c r="M94" s="56"/>
     </row>
-    <row r="95" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="55">
         <v>13</v>
       </c>
@@ -19659,7 +19681,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55">
         <v>13</v>
       </c>
@@ -19698,7 +19720,7 @@
       </c>
       <c r="M96" s="56"/>
     </row>
-    <row r="97" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="55">
         <v>13</v>
       </c>
@@ -19735,7 +19757,7 @@
       </c>
       <c r="M97" s="56"/>
     </row>
-    <row r="98" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55">
         <v>13</v>
       </c>
@@ -19776,7 +19798,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="55">
         <v>13</v>
       </c>
@@ -19815,7 +19837,7 @@
       </c>
       <c r="M99" s="56"/>
     </row>
-    <row r="100" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="55">
         <v>13</v>
       </c>
@@ -19852,7 +19874,7 @@
       </c>
       <c r="M100" s="56"/>
     </row>
-    <row r="101" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="55">
         <v>13</v>
       </c>
@@ -19889,7 +19911,7 @@
       </c>
       <c r="M101" s="56"/>
     </row>
-    <row r="102" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="55">
         <v>13</v>
       </c>
@@ -19926,7 +19948,7 @@
       </c>
       <c r="M102" s="56"/>
     </row>
-    <row r="103" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="55">
         <v>13</v>
       </c>
@@ -19965,7 +19987,7 @@
       </c>
       <c r="M103" s="56"/>
     </row>
-    <row r="104" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="55">
         <v>13</v>
       </c>
@@ -20002,7 +20024,7 @@
       </c>
       <c r="M104" s="56"/>
     </row>
-    <row r="105" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="61">
         <v>13</v>
       </c>
@@ -20041,7 +20063,7 @@
       </c>
       <c r="M105" s="56"/>
     </row>
-    <row r="106" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="61">
         <v>13</v>
       </c>
@@ -20080,7 +20102,7 @@
       </c>
       <c r="M106" s="56"/>
     </row>
-    <row r="107" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="61">
         <v>13</v>
       </c>
@@ -20119,7 +20141,7 @@
       </c>
       <c r="M107" s="56"/>
     </row>
-    <row r="108" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="61">
         <v>13</v>
       </c>
@@ -20156,7 +20178,7 @@
       </c>
       <c r="M108" s="56"/>
     </row>
-    <row r="109" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="55">
         <v>14</v>
       </c>
@@ -20197,7 +20219,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="55">
         <v>14</v>
       </c>
@@ -20238,7 +20260,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="55">
         <v>14</v>
       </c>
@@ -20277,47 +20299,48 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="61">
+    <row r="112" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="55">
         <v>14</v>
       </c>
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="55" t="s">
         <v>800</v>
       </c>
-      <c r="C112" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="63" t="s">
+      <c r="C112" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="57" t="s">
         <v>801</v>
       </c>
-      <c r="E112" s="61" t="s">
+      <c r="E112" s="55" t="s">
         <v>805</v>
       </c>
-      <c r="F112" s="62" t="s">
+      <c r="F112" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="G112" s="62" t="s">
+      <c r="G112" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J112" s="64">
+      <c r="H112" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="58">
         <v>6.8285999999999998</v>
       </c>
-      <c r="K112" s="69">
+      <c r="K112" s="82">
         <f>5.36*2</f>
         <v>10.72</v>
       </c>
-      <c r="L112" s="65">
-        <v>99999</v>
+      <c r="L112" s="59">
+        <f>1.0571*2</f>
+        <v>2.1141999999999999</v>
       </c>
       <c r="M112" s="56"/>
     </row>
-    <row r="113" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="55">
         <v>15</v>
       </c>
@@ -20358,7 +20381,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="55">
         <v>15</v>
       </c>
@@ -20397,7 +20420,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="55">
         <v>15</v>
       </c>
@@ -20436,7 +20459,7 @@
       </c>
       <c r="M115" s="56"/>
     </row>
-    <row r="116" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="55">
         <v>16</v>
       </c>
@@ -20477,7 +20500,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="55">
         <v>16</v>
       </c>
@@ -20516,7 +20539,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="55">
         <v>16</v>
       </c>
@@ -20557,7 +20580,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="55">
         <v>16</v>
       </c>
@@ -20598,7 +20621,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="55">
         <v>16</v>
       </c>
@@ -20637,7 +20660,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="55">
         <v>16</v>
       </c>
@@ -20676,7 +20699,7 @@
       </c>
       <c r="M121" s="56"/>
     </row>
-    <row r="122" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="55">
         <v>16</v>
       </c>
@@ -20715,7 +20738,7 @@
       </c>
       <c r="M122" s="56"/>
     </row>
-    <row r="123" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="55">
         <v>16</v>
       </c>
@@ -20756,7 +20779,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="55">
         <v>17</v>
       </c>
@@ -20797,7 +20820,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="55">
         <v>17</v>
       </c>
@@ -20838,7 +20861,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="55">
         <v>17</v>
       </c>
@@ -20877,7 +20900,7 @@
       </c>
       <c r="M126" s="56"/>
     </row>
-    <row r="127" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="55">
         <v>18</v>
       </c>
@@ -20916,11 +20939,11 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="55">
         <v>18</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="72" t="s">
         <v>1023</v>
       </c>
       <c r="C128" s="56" t="s">
@@ -20953,11 +20976,11 @@
       </c>
       <c r="M128" s="56"/>
     </row>
-    <row r="129" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="61">
         <v>18</v>
       </c>
-      <c r="B129" s="73" t="s">
+      <c r="B129" s="29" t="s">
         <v>1023</v>
       </c>
       <c r="C129" s="62" t="s">
@@ -20984,7 +21007,7 @@
       <c r="J129" s="64">
         <v>28.3474</v>
       </c>
-      <c r="K129" s="70">
+      <c r="K129" s="69">
         <f>38.7/2</f>
         <v>19.350000000000001</v>
       </c>
@@ -20993,46 +21016,46 @@
       </c>
       <c r="M129" s="56"/>
     </row>
-    <row r="130" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="61">
+    <row r="130" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="55">
         <v>18</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="B130" s="83" t="s">
         <v>1023</v>
       </c>
-      <c r="C130" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="63" t="s">
+      <c r="C130" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="57" t="s">
         <v>814</v>
       </c>
-      <c r="E130" s="61" t="s">
+      <c r="E130" s="55" t="s">
         <v>818</v>
       </c>
-      <c r="F130" s="62" t="s">
+      <c r="F130" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="G130" s="62" t="s">
+      <c r="G130" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I130" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J130" s="64">
+      <c r="H130" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130" s="58">
         <v>28.3474</v>
       </c>
-      <c r="K130" s="62">
+      <c r="K130" s="56">
         <v>26.7</v>
       </c>
-      <c r="L130" s="65">
-        <v>99999</v>
+      <c r="L130" s="59">
+        <v>58.73</v>
       </c>
       <c r="M130" s="56"/>
     </row>
-    <row r="131" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="55">
         <v>19</v>
       </c>
@@ -21073,7 +21096,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="55">
         <v>19</v>
       </c>
@@ -21114,7 +21137,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="55">
         <v>19</v>
       </c>
@@ -21153,7 +21176,7 @@
       </c>
       <c r="M133" s="56"/>
     </row>
-    <row r="134" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="55">
         <v>20</v>
       </c>
@@ -21194,7 +21217,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="55">
         <v>20</v>
       </c>
@@ -21235,7 +21258,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="55">
         <v>20</v>
       </c>
@@ -21274,7 +21297,7 @@
       </c>
       <c r="M136" s="56"/>
     </row>
-    <row r="137" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="55">
         <v>21</v>
       </c>
@@ -21315,7 +21338,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="55">
         <v>21</v>
       </c>
@@ -21354,7 +21377,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="55">
         <v>21</v>
       </c>
@@ -21393,7 +21416,7 @@
       </c>
       <c r="M139" s="56"/>
     </row>
-    <row r="140" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="55">
         <v>21</v>
       </c>
@@ -21432,7 +21455,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="55">
         <v>21</v>
       </c>
@@ -21473,7 +21496,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="55">
         <v>21</v>
       </c>
@@ -21514,7 +21537,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="55">
         <v>21</v>
       </c>
@@ -21555,7 +21578,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="55">
         <v>21</v>
       </c>
@@ -21596,7 +21619,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="55">
         <v>21</v>
       </c>
@@ -21635,7 +21658,7 @@
       </c>
       <c r="M145" s="56"/>
     </row>
-    <row r="146" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="55">
         <v>21</v>
       </c>
@@ -21676,7 +21699,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="61">
         <v>21</v>
       </c>
@@ -21715,7 +21738,7 @@
       </c>
       <c r="M147" s="56"/>
     </row>
-    <row r="148" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="61">
         <v>21</v>
       </c>
@@ -21752,7 +21775,7 @@
       </c>
       <c r="M148" s="56"/>
     </row>
-    <row r="149" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="55">
         <v>22</v>
       </c>
@@ -21791,7 +21814,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="55">
         <v>22</v>
       </c>
@@ -21832,7 +21855,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="55">
         <v>22</v>
       </c>
@@ -21873,7 +21896,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="55">
         <v>22</v>
       </c>
@@ -21912,7 +21935,7 @@
       </c>
       <c r="M152" s="56"/>
     </row>
-    <row r="153" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="55">
         <v>23</v>
       </c>
@@ -21952,7 +21975,7 @@
       </c>
       <c r="M153" s="56"/>
     </row>
-    <row r="154" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="61">
         <v>23</v>
       </c>
@@ -21992,46 +22015,46 @@
       </c>
       <c r="M154" s="56"/>
     </row>
-    <row r="155" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="61">
+    <row r="155" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="55">
         <v>23</v>
       </c>
-      <c r="B155" s="61" t="s">
+      <c r="B155" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D155" s="63" t="s">
+      <c r="D155" s="57" t="s">
         <v>700</v>
       </c>
-      <c r="E155" s="61" t="s">
+      <c r="E155" s="55" t="s">
         <v>844</v>
       </c>
-      <c r="F155" s="62" t="s">
+      <c r="F155" s="56" t="s">
         <v>845</v>
       </c>
-      <c r="G155" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H155" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="I155" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J155" s="64">
+      <c r="G155" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I155" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" s="58">
         <v>0.34</v>
       </c>
-      <c r="K155" s="62">
+      <c r="K155" s="56">
         <v>25.33</v>
       </c>
-      <c r="L155" s="65">
-        <v>99999</v>
+      <c r="L155" s="59">
+        <v>11.94</v>
       </c>
       <c r="M155" s="56"/>
     </row>
-    <row r="156" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" s="55">
         <v>24</v>
       </c>
@@ -22072,7 +22095,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="55">
         <v>24</v>
       </c>
@@ -22113,7 +22136,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="158" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="55">
         <v>24</v>
       </c>
@@ -22152,7 +22175,7 @@
       </c>
       <c r="M158" s="56"/>
     </row>
-    <row r="159" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="55">
         <v>25</v>
       </c>
@@ -22193,7 +22216,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="160" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="55">
         <v>25</v>
       </c>
@@ -22234,7 +22257,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="55">
         <v>25</v>
       </c>
@@ -22273,7 +22296,7 @@
       </c>
       <c r="M161" s="56"/>
     </row>
-    <row r="162" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="55">
         <v>26</v>
       </c>
@@ -22312,7 +22335,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="55">
         <v>26</v>
       </c>
@@ -22351,7 +22374,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="55">
         <v>26</v>
       </c>
@@ -22392,7 +22415,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="55">
         <v>26</v>
       </c>
@@ -22433,7 +22456,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="55">
         <v>26</v>
       </c>
@@ -22472,7 +22495,7 @@
       </c>
       <c r="M166" s="56"/>
     </row>
-    <row r="167" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="55">
         <v>26</v>
       </c>
@@ -22509,7 +22532,7 @@
       </c>
       <c r="M167" s="56"/>
     </row>
-    <row r="168" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="55">
         <v>27</v>
       </c>
@@ -22550,7 +22573,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="55">
         <v>27</v>
       </c>
@@ -22591,7 +22614,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="55">
         <v>27</v>
       </c>
@@ -22630,7 +22653,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="55">
         <v>27</v>
       </c>
@@ -22669,7 +22692,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="55">
         <v>27</v>
       </c>
@@ -22708,7 +22731,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="55">
         <v>27</v>
       </c>
@@ -22747,7 +22770,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="55">
         <v>27</v>
       </c>
@@ -22786,7 +22809,7 @@
       </c>
       <c r="M174" s="56"/>
     </row>
-    <row r="175" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="55">
         <v>27</v>
       </c>
@@ -22825,7 +22848,7 @@
       </c>
       <c r="M175" s="56"/>
     </row>
-    <row r="176" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="55">
         <v>28</v>
       </c>
@@ -22866,7 +22889,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="55">
         <v>28</v>
       </c>
@@ -22905,7 +22928,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="55">
         <v>28</v>
       </c>
@@ -22942,7 +22965,7 @@
       </c>
       <c r="M178" s="56"/>
     </row>
-    <row r="179" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="55">
         <v>28</v>
       </c>
@@ -22983,7 +23006,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="55">
         <v>29</v>
       </c>
@@ -23011,7 +23034,7 @@
       <c r="I180" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J180" s="71">
+      <c r="J180" s="70">
         <v>5.5</v>
       </c>
       <c r="K180" s="56"/>
@@ -23022,7 +23045,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="55">
         <v>29</v>
       </c>
@@ -23050,7 +23073,7 @@
       <c r="I181" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J181" s="71">
+      <c r="J181" s="70">
         <v>5.5</v>
       </c>
       <c r="K181" s="56">
@@ -23063,7 +23086,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="55">
         <v>29</v>
       </c>
@@ -23091,7 +23114,7 @@
       <c r="I182" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J182" s="71">
+      <c r="J182" s="70">
         <v>5.5</v>
       </c>
       <c r="K182" s="56">
@@ -23104,7 +23127,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="55">
         <v>29</v>
       </c>
@@ -23132,7 +23155,7 @@
       <c r="I183" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J183" s="71">
+      <c r="J183" s="70">
         <v>5.5</v>
       </c>
       <c r="K183" s="56"/>
@@ -23143,7 +23166,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="55">
         <v>29</v>
       </c>
@@ -23171,7 +23194,7 @@
       <c r="I184" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J184" s="71">
+      <c r="J184" s="70">
         <v>5.5</v>
       </c>
       <c r="K184" s="56">
@@ -23182,7 +23205,7 @@
       </c>
       <c r="M184" s="56"/>
     </row>
-    <row r="185" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="55">
         <v>30</v>
       </c>
@@ -23223,7 +23246,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="55">
         <v>30</v>
       </c>
@@ -23262,7 +23285,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="55">
         <v>30</v>
       </c>
@@ -23303,7 +23326,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="55">
         <v>30</v>
       </c>
@@ -23342,7 +23365,7 @@
       </c>
       <c r="M188" s="56"/>
     </row>
-    <row r="189" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="55">
         <v>31</v>
       </c>
@@ -23383,7 +23406,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="55">
         <v>31</v>
       </c>
@@ -23424,7 +23447,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="55">
         <v>31</v>
       </c>
@@ -23465,7 +23488,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="192" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="55">
         <v>31</v>
       </c>
@@ -23504,7 +23527,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="55">
         <v>31</v>
       </c>
@@ -23543,46 +23566,46 @@
       </c>
       <c r="M193" s="56"/>
     </row>
-    <row r="194" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="61">
+    <row r="194" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="55">
         <v>31</v>
       </c>
-      <c r="B194" s="61" t="s">
+      <c r="B194" s="55" t="s">
         <v>886</v>
       </c>
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D194" s="63" t="s">
+      <c r="D194" s="57" t="s">
         <v>691</v>
       </c>
-      <c r="E194" s="61" t="s">
+      <c r="E194" s="55" t="s">
         <v>894</v>
       </c>
-      <c r="F194" s="62" t="s">
+      <c r="F194" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="G194" s="62" t="s">
+      <c r="G194" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="H194" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I194" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J194" s="64">
+      <c r="H194" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I194" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J194" s="58">
         <v>0.7833</v>
       </c>
-      <c r="K194" s="62">
+      <c r="K194" s="56">
         <v>1.52</v>
       </c>
-      <c r="L194" s="65">
-        <v>99999</v>
+      <c r="L194" s="59">
+        <v>0.77300000000000002</v>
       </c>
       <c r="M194" s="56"/>
     </row>
-    <row r="195" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="55">
         <v>32</v>
       </c>
@@ -23621,7 +23644,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="55">
         <v>32</v>
       </c>
@@ -23660,7 +23683,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="55">
         <v>32</v>
       </c>
@@ -23699,7 +23722,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="55">
         <v>32</v>
       </c>
@@ -23738,7 +23761,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="55">
         <v>32</v>
       </c>
@@ -23777,46 +23800,46 @@
       </c>
       <c r="M199" s="56"/>
     </row>
-    <row r="200" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="61">
+    <row r="200" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="55">
         <v>32</v>
       </c>
-      <c r="B200" s="61" t="s">
+      <c r="B200" s="55" t="s">
         <v>895</v>
       </c>
-      <c r="C200" s="62" t="s">
+      <c r="C200" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D200" s="63" t="s">
+      <c r="D200" s="57" t="s">
         <v>707</v>
       </c>
-      <c r="E200" s="61" t="s">
+      <c r="E200" s="55" t="s">
         <v>818</v>
       </c>
-      <c r="F200" s="62" t="s">
+      <c r="F200" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="G200" s="62" t="s">
+      <c r="G200" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="H200" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I200" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J200" s="64">
+      <c r="H200" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I200" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J200" s="58">
         <v>5</v>
       </c>
-      <c r="K200" s="62">
+      <c r="K200" s="56">
         <v>6.08</v>
       </c>
-      <c r="L200" s="65">
-        <v>99999</v>
+      <c r="L200" s="59">
+        <v>5.2483000000000004</v>
       </c>
       <c r="M200" s="56"/>
     </row>
-    <row r="201" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="55">
         <v>33</v>
       </c>
@@ -23857,7 +23880,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="202" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="55">
         <v>33</v>
       </c>
@@ -23898,46 +23921,46 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A203" s="61">
+    <row r="203" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="55">
         <v>33</v>
       </c>
-      <c r="B203" s="61" t="s">
+      <c r="B203" s="55" t="s">
         <v>896</v>
       </c>
-      <c r="C203" s="62" t="s">
+      <c r="C203" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D203" s="63" t="s">
+      <c r="D203" s="57" t="s">
         <v>897</v>
       </c>
-      <c r="E203" s="61" t="s">
+      <c r="E203" s="55" t="s">
         <v>818</v>
       </c>
-      <c r="F203" s="62" t="s">
+      <c r="F203" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="G203" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H203" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I203" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J203" s="64">
+      <c r="G203" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I203" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J203" s="58">
         <v>1.885</v>
       </c>
-      <c r="K203" s="62">
+      <c r="K203" s="56">
         <v>5.84</v>
       </c>
-      <c r="L203" s="65">
-        <v>99999</v>
+      <c r="L203" s="59">
+        <v>5.6680000000000001</v>
       </c>
       <c r="M203" s="56"/>
     </row>
-    <row r="204" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="55">
         <v>34</v>
       </c>
@@ -23978,7 +24001,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="55">
         <v>34</v>
       </c>
@@ -24019,7 +24042,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="206" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="55">
         <v>34</v>
       </c>
@@ -24060,7 +24083,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="207" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A207" s="55">
         <v>34</v>
       </c>
@@ -24099,7 +24122,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="208" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="55">
         <v>34</v>
       </c>
@@ -24138,7 +24161,7 @@
       </c>
       <c r="M208" s="56"/>
     </row>
-    <row r="209" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="55">
         <v>35</v>
       </c>
@@ -24179,7 +24202,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="55">
         <v>35</v>
       </c>
@@ -24220,7 +24243,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="211" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="55">
         <v>35</v>
       </c>
@@ -24261,7 +24284,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="55">
         <v>35</v>
       </c>
@@ -24302,7 +24325,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="55">
         <v>35</v>
       </c>
@@ -24341,7 +24364,7 @@
       </c>
       <c r="M213" s="56"/>
     </row>
-    <row r="214" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="55">
         <v>35</v>
       </c>
@@ -24378,7 +24401,7 @@
       </c>
       <c r="M214" s="56"/>
     </row>
-    <row r="215" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="55">
         <v>36</v>
       </c>
@@ -24419,7 +24442,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="216" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="55">
         <v>36</v>
       </c>
@@ -24460,7 +24483,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="217" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="55">
         <v>36</v>
       </c>
@@ -24501,7 +24524,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="55">
         <v>36</v>
       </c>
@@ -24542,7 +24565,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="55">
         <v>36</v>
       </c>
@@ -24581,7 +24604,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="55">
         <v>36</v>
       </c>
@@ -24622,7 +24645,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="55">
         <v>36</v>
       </c>
@@ -24661,7 +24684,7 @@
       </c>
       <c r="M221" s="56"/>
     </row>
-    <row r="222" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="55">
         <v>36</v>
       </c>
@@ -24700,243 +24723,243 @@
       </c>
       <c r="M222" s="56"/>
     </row>
-    <row r="223" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A223" s="74">
+    <row r="223" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="73">
         <v>37</v>
       </c>
-      <c r="B223" s="74" t="s">
+      <c r="B223" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C223" s="75" t="s">
+      <c r="C223" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D223" s="76" t="s">
+      <c r="D223" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E223" s="74" t="s">
+      <c r="E223" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F223" s="75" t="s">
+      <c r="F223" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="G223" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H223" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I223" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J223" s="77">
+      <c r="G223" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H223" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J223" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K223" s="75">
+      <c r="K223" s="74">
         <v>31.43</v>
       </c>
-      <c r="L223" s="78">
+      <c r="L223" s="77">
         <v>1.5999999999999999</v>
       </c>
-      <c r="M223" s="75" t="s">
+      <c r="M223" s="74" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="224" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="74">
+    <row r="224" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="73">
         <v>37</v>
       </c>
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C224" s="75" t="s">
+      <c r="C224" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D224" s="76" t="s">
+      <c r="D224" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E224" s="74" t="s">
+      <c r="E224" s="73" t="s">
         <v>921</v>
       </c>
-      <c r="F224" s="75" t="s">
+      <c r="F224" s="74" t="s">
         <v>922</v>
       </c>
-      <c r="G224" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H224" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I224" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J224" s="77">
+      <c r="G224" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H224" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I224" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J224" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K224" s="75"/>
-      <c r="L224" s="78">
+      <c r="K224" s="74"/>
+      <c r="L224" s="77">
         <v>1.9642857142857142</v>
       </c>
-      <c r="M224" s="75" t="s">
+      <c r="M224" s="74" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="74">
+    <row r="225" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="73">
         <v>37</v>
       </c>
-      <c r="B225" s="74" t="s">
+      <c r="B225" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="75" t="s">
+      <c r="C225" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D225" s="76" t="s">
+      <c r="D225" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E225" s="74" t="s">
+      <c r="E225" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="F225" s="75" t="s">
+      <c r="F225" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="G225" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H225" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I225" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J225" s="77">
+      <c r="G225" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H225" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I225" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J225" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K225" s="75"/>
-      <c r="L225" s="78">
+      <c r="K225" s="74"/>
+      <c r="L225" s="77">
         <v>7.15</v>
       </c>
-      <c r="M225" s="75" t="s">
+      <c r="M225" s="74" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A226" s="74">
+    <row r="226" spans="1:13" s="78" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A226" s="73">
         <v>37</v>
       </c>
-      <c r="B226" s="74" t="s">
+      <c r="B226" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C226" s="75" t="s">
+      <c r="C226" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D226" s="76" t="s">
+      <c r="D226" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E226" s="80" t="s">
+      <c r="E226" s="79" t="s">
         <v>923</v>
       </c>
-      <c r="F226" s="75" t="s">
+      <c r="F226" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="G226" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H226" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I226" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J226" s="77">
+      <c r="G226" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H226" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I226" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J226" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K226" s="75"/>
-      <c r="L226" s="78">
+      <c r="K226" s="74"/>
+      <c r="L226" s="77">
         <v>8.3930000000000007</v>
       </c>
-      <c r="M226" s="75"/>
-    </row>
-    <row r="227" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A227" s="74">
+      <c r="M226" s="74"/>
+    </row>
+    <row r="227" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="73">
         <v>37</v>
       </c>
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C227" s="75" t="s">
+      <c r="C227" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D227" s="76" t="s">
+      <c r="D227" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E227" s="74" t="s">
+      <c r="E227" s="73" t="s">
         <v>924</v>
       </c>
-      <c r="F227" s="75" t="s">
+      <c r="F227" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="G227" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H227" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="I227" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J227" s="77">
+      <c r="G227" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H227" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I227" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J227" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K227" s="75">
+      <c r="K227" s="74">
         <v>66.2</v>
       </c>
-      <c r="L227" s="78">
+      <c r="L227" s="77">
         <v>15.356999999999999</v>
       </c>
-      <c r="M227" s="75"/>
-    </row>
-    <row r="228" spans="1:13" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A228" s="74">
+      <c r="M227" s="74"/>
+    </row>
+    <row r="228" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="73">
         <v>37</v>
       </c>
-      <c r="B228" s="74" t="s">
+      <c r="B228" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="C228" s="75" t="s">
+      <c r="C228" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="D228" s="76" t="s">
+      <c r="D228" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="E228" s="74" t="s">
+      <c r="E228" s="73" t="s">
         <v>650</v>
       </c>
-      <c r="F228" s="75" t="s">
+      <c r="F228" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="G228" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H228" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I228" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J228" s="77">
+      <c r="G228" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H228" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I228" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J228" s="76">
         <v>66.287899999999993</v>
       </c>
-      <c r="K228" s="75">
+      <c r="K228" s="74">
         <v>18.5</v>
       </c>
-      <c r="L228" s="78">
+      <c r="L228" s="77">
         <v>4.3928571428571432</v>
       </c>
-      <c r="M228" s="75" t="s">
+      <c r="M228" s="74" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="55">
         <v>38</v>
       </c>
@@ -24977,7 +25000,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="230" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="55">
         <v>38</v>
       </c>
@@ -25018,7 +25041,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="231" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="55">
         <v>38</v>
       </c>
@@ -25057,7 +25080,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="55">
         <v>38</v>
       </c>
@@ -25096,7 +25119,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="233" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="55">
         <v>38</v>
       </c>
@@ -25135,7 +25158,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="234" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="55">
         <v>38</v>
       </c>
@@ -25174,7 +25197,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="55">
         <v>38</v>
       </c>
@@ -25211,7 +25234,7 @@
       </c>
       <c r="M235" s="56"/>
     </row>
-    <row r="236" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="55">
         <v>38</v>
       </c>
@@ -25250,7 +25273,7 @@
       </c>
       <c r="M236" s="56"/>
     </row>
-    <row r="237" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="55">
         <v>38</v>
       </c>
@@ -25289,7 +25312,7 @@
       </c>
       <c r="M237" s="56"/>
     </row>
-    <row r="238" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="55">
         <v>39</v>
       </c>
@@ -25330,7 +25353,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="55">
         <v>39</v>
       </c>
@@ -25371,7 +25394,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A240" s="55">
         <v>39</v>
       </c>
@@ -25412,7 +25435,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="241" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="55">
         <v>39</v>
       </c>
@@ -25451,7 +25474,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="55">
         <v>39</v>
       </c>
@@ -25488,7 +25511,7 @@
       </c>
       <c r="M242" s="56"/>
     </row>
-    <row r="243" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="55">
         <v>39</v>
       </c>
@@ -25527,7 +25550,7 @@
       </c>
       <c r="M243" s="56"/>
     </row>
-    <row r="244" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="55">
         <v>40</v>
       </c>
@@ -25568,7 +25591,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="55">
         <v>40</v>
       </c>
@@ -25609,7 +25632,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="246" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="55">
         <v>40</v>
       </c>
@@ -25648,7 +25671,7 @@
       </c>
       <c r="M246" s="56"/>
     </row>
-    <row r="247" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="55">
         <v>41</v>
       </c>
@@ -25689,7 +25712,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="248" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="55">
         <v>41</v>
       </c>
@@ -25726,7 +25749,7 @@
       </c>
       <c r="M248" s="56"/>
     </row>
-    <row r="249" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="55">
         <v>41</v>
       </c>
@@ -25767,7 +25790,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="250" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="55">
         <v>41</v>
       </c>
@@ -25806,7 +25829,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="251" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="55">
         <v>41</v>
       </c>
@@ -25845,7 +25868,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="252" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="55">
         <v>41</v>
       </c>
@@ -25886,7 +25909,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="253" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="55">
         <v>41</v>
       </c>
@@ -25925,7 +25948,7 @@
       </c>
       <c r="M253" s="56"/>
     </row>
-    <row r="254" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="55">
         <v>41</v>
       </c>
@@ -25964,7 +25987,7 @@
       </c>
       <c r="M254" s="56"/>
     </row>
-    <row r="255" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="55">
         <v>42</v>
       </c>
@@ -26005,7 +26028,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="55">
         <v>42</v>
       </c>
@@ -26044,7 +26067,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="257" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="55">
         <v>42</v>
       </c>
@@ -26085,7 +26108,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="258" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="55">
         <v>42</v>
       </c>
@@ -26126,7 +26149,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="259" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="55">
         <v>42</v>
       </c>
@@ -26165,7 +26188,7 @@
       </c>
       <c r="M259" s="56"/>
     </row>
-    <row r="260" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="55">
         <v>42</v>
       </c>
@@ -26204,7 +26227,7 @@
       </c>
       <c r="M260" s="56"/>
     </row>
-    <row r="261" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="55">
         <v>42</v>
       </c>
@@ -26245,7 +26268,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="262" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="55">
         <v>43</v>
       </c>
@@ -26284,7 +26307,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="263" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="55">
         <v>43</v>
       </c>
@@ -26323,7 +26346,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="264" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="55">
         <v>43</v>
       </c>
@@ -26340,9 +26363,9 @@
         <v>959</v>
       </c>
       <c r="F264" s="56" t="s">
-        <v>959</v>
-      </c>
-      <c r="G264" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G264" s="71" t="s">
         <v>643</v>
       </c>
       <c r="H264" s="56" t="s">
@@ -26362,7 +26385,7 @@
       </c>
       <c r="M264" s="56"/>
     </row>
-    <row r="265" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="61">
         <v>43</v>
       </c>
@@ -26399,7 +26422,7 @@
       </c>
       <c r="M265" s="56"/>
     </row>
-    <row r="266" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A266" s="55">
         <v>44</v>
       </c>
@@ -26440,7 +26463,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="267" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="55">
         <v>44</v>
       </c>
@@ -26479,7 +26502,7 @@
       </c>
       <c r="M267" s="56"/>
     </row>
-    <row r="268" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="55">
         <v>44</v>
       </c>
@@ -26520,7 +26543,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="269" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A269" s="55">
         <v>45</v>
       </c>
@@ -26561,7 +26584,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="270" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="55">
         <v>45</v>
       </c>
@@ -26600,7 +26623,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A271" s="55">
         <v>45</v>
       </c>
@@ -26641,7 +26664,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="272" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="55">
         <v>45</v>
       </c>
@@ -26680,7 +26703,7 @@
       </c>
       <c r="M272" s="56"/>
     </row>
-    <row r="273" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="55">
         <v>46</v>
       </c>
@@ -26721,7 +26744,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="274" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A274" s="55">
         <v>46</v>
       </c>
@@ -26762,7 +26785,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="275" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="55">
         <v>46</v>
       </c>
@@ -26801,7 +26824,7 @@
       </c>
       <c r="M275" s="56"/>
     </row>
-    <row r="276" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A276" s="55">
         <v>47</v>
       </c>
@@ -26842,7 +26865,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="277" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A277" s="55">
         <v>47</v>
       </c>
@@ -26881,7 +26904,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="278" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="55">
         <v>47</v>
       </c>
@@ -26920,7 +26943,7 @@
       </c>
       <c r="M278" s="56"/>
     </row>
-    <row r="279" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="55">
         <v>48</v>
       </c>
@@ -26959,7 +26982,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="280" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="55">
         <v>48</v>
       </c>
@@ -26998,7 +27021,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="55">
         <v>48</v>
       </c>
@@ -27039,7 +27062,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="282" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="55">
         <v>48</v>
       </c>
@@ -27080,7 +27103,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="283" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="55">
         <v>48</v>
       </c>
@@ -27119,7 +27142,7 @@
       </c>
       <c r="M283" s="56"/>
     </row>
-    <row r="284" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="55">
         <v>49</v>
       </c>
@@ -27160,7 +27183,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="285" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="55">
         <v>49</v>
       </c>
@@ -27201,7 +27224,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="286" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="55">
         <v>49</v>
       </c>
@@ -27240,7 +27263,7 @@
       </c>
       <c r="M286" s="56"/>
     </row>
-    <row r="287" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="55">
         <v>50</v>
       </c>
@@ -27281,7 +27304,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="288" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="55">
         <v>50</v>
       </c>
@@ -27322,7 +27345,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="289" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="55">
         <v>50</v>
       </c>
@@ -27361,7 +27384,7 @@
       </c>
       <c r="M289" s="56"/>
     </row>
-    <row r="290" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="55">
         <v>51</v>
       </c>
@@ -27402,7 +27425,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="291" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="55">
         <v>51</v>
       </c>
@@ -27441,7 +27464,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="292" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="55">
         <v>51</v>
       </c>
@@ -27480,7 +27503,7 @@
       </c>
       <c r="M292" s="56"/>
     </row>
-    <row r="293" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="55">
         <v>52</v>
       </c>
@@ -27519,7 +27542,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="294" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="55">
         <v>52</v>
       </c>
@@ -27560,7 +27583,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="55">
         <v>52</v>
       </c>
@@ -27599,7 +27622,7 @@
       </c>
       <c r="M295" s="56"/>
     </row>
-    <row r="296" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="55">
         <v>53</v>
       </c>
@@ -27640,7 +27663,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="297" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A297" s="55">
         <v>53</v>
       </c>
@@ -27681,7 +27704,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="298" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="55">
         <v>53</v>
       </c>
@@ -27718,44 +27741,44 @@
       </c>
       <c r="M298" s="56"/>
     </row>
-    <row r="299" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A299" s="61">
+    <row r="299" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="55">
         <v>53</v>
       </c>
-      <c r="B299" s="61" t="s">
+      <c r="B299" s="55" t="s">
         <v>998</v>
       </c>
-      <c r="C299" s="62" t="s">
+      <c r="C299" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D299" s="63" t="s">
+      <c r="D299" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="E299" s="61" t="s">
+      <c r="E299" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F299" s="62" t="s">
+      <c r="F299" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="G299" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H299" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I299" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J299" s="64">
+      <c r="G299" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H299" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I299" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J299" s="58">
         <v>0.68</v>
       </c>
-      <c r="K299" s="62"/>
-      <c r="L299" s="65">
-        <v>99999</v>
+      <c r="K299" s="56"/>
+      <c r="L299" s="59">
+        <v>0.68</v>
       </c>
       <c r="M299" s="56"/>
     </row>
-    <row r="300" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="55">
         <v>54</v>
       </c>
@@ -27794,7 +27817,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="301" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="55">
         <v>54</v>
       </c>
@@ -27835,7 +27858,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="302" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="55">
         <v>54</v>
       </c>
@@ -27876,7 +27899,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="303" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="55">
         <v>54</v>
       </c>
@@ -27915,7 +27938,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="304" spans="1:13" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="55">
         <v>54</v>
       </c>
@@ -27934,7 +27957,7 @@
       <c r="F304" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="G304" s="72" t="s">
+      <c r="G304" s="71" t="s">
         <v>643</v>
       </c>
       <c r="H304" s="56" t="s">
@@ -27954,7 +27977,7 @@
       </c>
       <c r="M304" s="56"/>
     </row>
-    <row r="305" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="55">
         <v>55</v>
       </c>
@@ -27995,7 +28018,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="55">
         <v>55</v>
       </c>
@@ -28036,7 +28059,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="55">
         <v>55</v>
       </c>
@@ -28077,7 +28100,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="55">
         <v>55</v>
       </c>
@@ -28114,7 +28137,7 @@
       </c>
       <c r="M308" s="56"/>
     </row>
-    <row r="309" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="55">
         <v>56</v>
       </c>
@@ -28155,7 +28178,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="55">
         <v>56</v>
       </c>
@@ -28196,7 +28219,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="55">
         <v>56</v>
       </c>
@@ -28237,7 +28260,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="55">
         <v>56</v>
       </c>
@@ -28274,7 +28297,7 @@
       </c>
       <c r="M312" s="56"/>
     </row>
-    <row r="313" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="55">
         <v>56</v>
       </c>
@@ -28293,7 +28316,7 @@
       <c r="F313" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="G313" s="72" t="s">
+      <c r="G313" s="71" t="s">
         <v>643</v>
       </c>
       <c r="H313" s="56" t="s">
@@ -28313,7 +28336,7 @@
       </c>
       <c r="M313" s="56"/>
     </row>
-    <row r="314" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="55">
         <v>56</v>
       </c>
@@ -28355,7 +28378,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M314" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A2:M314"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E79:E108">
     <cfRule type="duplicateValues" dxfId="20" priority="3"/>
@@ -28393,7 +28416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB5982-C007-447D-B36B-A0A092A3D553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:D315"/>
   <sheetViews>
@@ -28401,13 +28424,13 @@
       <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>245</v>
       </c>
@@ -28415,7 +28438,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>636</v>
       </c>
@@ -28427,7 +28450,7 @@
         <v>阿那曲唑口服常释剂型浙江海正药业股份有限公司</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>636</v>
       </c>
@@ -28439,7 +28462,7 @@
         <v>阿那曲唑口服常释剂型杭州中美华东制药有限公司</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>636</v>
       </c>
@@ -28451,7 +28474,7 @@
         <v>阿那曲唑口服常释剂型重庆华邦制药有限公司</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>636</v>
       </c>
@@ -28463,7 +28486,7 @@
         <v>阿那曲唑口服常释剂型扬子江药业集团有限公司</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>636</v>
       </c>
@@ -28475,7 +28498,7 @@
         <v>阿那曲唑口服常释剂型阿斯利康制药</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28487,7 +28510,7 @@
         <v>阿哌沙班口服常释剂型齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28499,7 +28522,7 @@
         <v>阿哌沙班口服常释剂型江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28511,7 +28534,7 @@
         <v>阿哌沙班口服常释剂型江苏嘉逸医药有限公司</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28523,7 +28546,7 @@
         <v>阿哌沙班口服常释剂型江西青峰药业有限公司</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28535,7 +28558,7 @@
         <v>阿哌沙班口服常释剂型四川科伦药业股份有限公司</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28547,7 +28570,7 @@
         <v>阿哌沙班口服常释剂型正大天晴药业集团股份有限</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>1020</v>
       </c>
@@ -28559,7 +28582,7 @@
         <v>阿哌沙班口服常释剂型百时美施贵宝制药</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>652</v>
       </c>
@@ -28571,7 +28594,7 @@
         <v>阿扎胞苷注射剂四川汇宇制药有限公司</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>652</v>
       </c>
@@ -28583,7 +28606,7 @@
         <v>阿扎胞苷注射剂新基医药</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>652</v>
       </c>
@@ -28595,7 +28618,7 @@
         <v>阿扎胞苷注射剂正大天晴药业集团股份有限</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>656</v>
       </c>
@@ -28607,7 +28630,7 @@
         <v>氨基葡萄糖口服常释剂型浙江海正药业股份有限公司</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>656</v>
       </c>
@@ -28619,7 +28642,7 @@
         <v>氨基葡萄糖口服常释剂型浙江诚意药业股份有限公司</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>656</v>
       </c>
@@ -28631,7 +28654,7 @@
         <v>氨基葡萄糖口服常释剂型江苏正大清江制药有限公司</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>656</v>
       </c>
@@ -28643,7 +28666,7 @@
         <v>氨基葡萄糖口服常释剂型澳美制药厂</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>667</v>
       </c>
@@ -28655,7 +28678,7 @@
         <v>氨基葡萄糖口服常释剂型意大利罗达制药集团</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>670</v>
       </c>
@@ -28667,7 +28690,7 @@
         <v>氨溴索口服常释剂型山东裕欣药业有限公司</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
         <v>670</v>
       </c>
@@ -28679,7 +28702,7 @@
         <v>氨溴索口服常释剂型山西仟源医药集团股份有限</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
         <v>670</v>
       </c>
@@ -28691,7 +28714,7 @@
         <v>氨溴索口服常释剂型上海信谊天平药业有限公司</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
         <v>670</v>
       </c>
@@ -28703,7 +28726,7 @@
         <v>氨溴索口服常释剂型常州四药制药有限公司</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
         <v>670</v>
       </c>
@@ -28715,7 +28738,7 @@
         <v>氨溴索口服常释剂型勃林格殷格翰制药</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>670</v>
       </c>
@@ -28727,7 +28750,7 @@
         <v>氨溴索口服常释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
         <v>681</v>
       </c>
@@ -28739,7 +28762,7 @@
         <v>奥氮平口腔崩解片齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
         <v>681</v>
       </c>
@@ -28751,7 +28774,7 @@
         <v>奥氮平口腔崩解片浙江华海药业股份有限公司</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
         <v>681</v>
       </c>
@@ -28763,7 +28786,7 @@
         <v>奥氮平口腔崩解片广东东阳光药业有限公司</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
         <v>681</v>
       </c>
@@ -28775,7 +28798,7 @@
         <v>奥氮平口腔崩解片河北龙海药业有限公司</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
         <v>681</v>
       </c>
@@ -28787,7 +28810,7 @@
         <v>奥氮平口腔崩解片江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>681</v>
       </c>
@@ -28799,7 +28822,7 @@
         <v>奥氮平口腔崩解片礼来制药</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>688</v>
       </c>
@@ -28811,7 +28834,7 @@
         <v>奥美拉唑口服常释剂型山东罗欣药业集团股份有限</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
         <v>688</v>
       </c>
@@ -28823,7 +28846,7 @@
         <v>奥美拉唑口服常释剂型海南海灵化学制药有限公司</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>688</v>
       </c>
@@ -28835,7 +28858,7 @@
         <v>奥美拉唑口服常释剂型鲁南制药集团</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>688</v>
       </c>
@@ -28847,7 +28870,7 @@
         <v>奥美拉唑口服常释剂型常州四药制药有限公司</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>696</v>
       </c>
@@ -28859,7 +28882,7 @@
         <v>奥美拉唑口服常释剂型扬子江药业集团有限公司</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>688</v>
       </c>
@@ -28871,7 +28894,7 @@
         <v>奥美拉唑口服常释剂型阿斯利康制药有限公司</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
         <v>699</v>
       </c>
@@ -28883,7 +28906,7 @@
         <v>布洛芬缓释控释剂型上海信谊天平药业有限公司</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>699</v>
       </c>
@@ -28895,7 +28918,7 @@
         <v>布洛芬缓释控释剂型珠海润都制药股份有限公司</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
         <v>699</v>
       </c>
@@ -28907,7 +28930,7 @@
         <v>布洛芬缓释控释剂型南京易亨制药有限公司</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>699</v>
       </c>
@@ -28919,7 +28942,7 @@
         <v>布洛芬缓释控释剂型华北制药股份有限公司</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>699</v>
       </c>
@@ -28931,7 +28954,7 @@
         <v>布洛芬缓释控释剂型中美天津史克制药有限公司</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>706</v>
       </c>
@@ -28944,7 +28967,7 @@
 司</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>706</v>
       </c>
@@ -28956,7 +28979,7 @@
         <v>布洛芬颗粒剂河北康芝制药有限公司</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
         <v>706</v>
       </c>
@@ -28968,7 +28991,7 @@
         <v>布洛芬颗粒剂石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
         <v>706</v>
       </c>
@@ -28980,7 +29003,7 @@
         <v>布洛芬颗粒剂哈药集团世一堂制药厂</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="55" t="s">
         <v>706</v>
       </c>
@@ -28992,7 +29015,7 @@
         <v>布洛芬颗粒剂浙江康恩贝制药股份有限公</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
         <v>706</v>
       </c>
@@ -29004,7 +29027,7 @@
         <v>布洛芬颗粒剂扬子江药业集团江苏制药股</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>706</v>
       </c>
@@ -29016,7 +29039,7 @@
         <v>布洛芬颗粒剂海南赞邦制药有限公司</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>718</v>
       </c>
@@ -29028,7 +29051,7 @@
         <v>地氯雷他定口服常释剂型海南普利制药股份有限公司</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>718</v>
       </c>
@@ -29040,7 +29063,7 @@
         <v>地氯雷他定口服常释剂型深圳信立泰药业股份有限公</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>718</v>
       </c>
@@ -29052,7 +29075,7 @@
         <v>地氯雷他定口服常释剂型默沙东制药</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
         <v>723</v>
       </c>
@@ -29064,7 +29087,7 @@
         <v>多潘立酮口服常释剂型华东医药(西安)博华制药有限</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
         <v>723</v>
       </c>
@@ -29076,7 +29099,7 @@
         <v>多潘立酮口服常释剂型四川维奥制药有限公司</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
         <v>723</v>
       </c>
@@ -29088,7 +29111,7 @@
         <v>多潘立酮口服常释剂型辅仁药业集团有限公司</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>728</v>
       </c>
@@ -29100,7 +29123,7 @@
         <v>多潘立酮口服常释剂型西安杨森制药有限公司</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
         <v>731</v>
       </c>
@@ -29112,7 +29135,7 @@
         <v>二甲双胍缓释控释剂型天方药业有限公司</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
         <v>731</v>
       </c>
@@ -29124,7 +29147,7 @@
         <v>二甲双胍缓释控释剂型北京万辉双鹤药业有限责任</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
         <v>731</v>
       </c>
@@ -29136,7 +29159,7 @@
         <v>二甲双胍缓释控释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
         <v>731</v>
       </c>
@@ -29148,7 +29171,7 @@
         <v>二甲双胍缓释控释剂型石家庄市华新药业有限责任</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
         <v>731</v>
       </c>
@@ -29160,7 +29183,7 @@
         <v>二甲双胍缓释控释剂型江苏德源药业股份有限公司</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>731</v>
       </c>
@@ -29172,7 +29195,7 @@
         <v>二甲双胍缓释控释剂型南京亿华药业有限公司</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>731</v>
       </c>
@@ -29184,7 +29207,7 @@
         <v>二甲双胍缓释控释剂型广东赛康制药厂有限公司</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
         <v>731</v>
       </c>
@@ -29196,7 +29219,7 @@
         <v>二甲双胍缓释控释剂型悦康药业集团股份有限公司</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
         <v>731</v>
       </c>
@@ -29208,7 +29231,7 @@
         <v>二甲双胍缓释控释剂型美罗药业股份有限公司</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>731</v>
       </c>
@@ -29220,7 +29243,7 @@
         <v>二甲双胍缓释控释剂型山东凤凰制药股份有限公司</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>731</v>
       </c>
@@ -29233,7 +29256,7 @@
 公司</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
         <v>731</v>
       </c>
@@ -29245,7 +29268,7 @@
         <v>二甲双胍缓释控释剂型宜昌人福药业有限责任公司</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>731</v>
       </c>
@@ -29257,7 +29280,7 @@
         <v>二甲双胍缓释控释剂型上海宣泰医药科技有限公司</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
         <v>731</v>
       </c>
@@ -29269,7 +29292,7 @@
         <v>二甲双胍缓释控释剂型深圳翰宇药业股份有限公司</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
         <v>731</v>
       </c>
@@ -29281,7 +29304,7 @@
         <v>二甲双胍缓释控释剂型上海上药信谊药厂有限公司</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>731</v>
       </c>
@@ -29293,7 +29316,7 @@
         <v>二甲双胍缓释控释剂型青岛黄海制药有限责任公司</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
         <v>731</v>
       </c>
@@ -29305,7 +29328,7 @@
         <v>二甲双胍缓释控释剂型默克制药</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
         <v>731</v>
       </c>
@@ -29317,7 +29340,7 @@
         <v>二甲双胍缓释控释剂型青岛百洋制药有限公司</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>731</v>
       </c>
@@ -29329,7 +29352,7 @@
         <v>二甲双胍缓释控释剂型正大天晴药业集团股份有限</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>761</v>
       </c>
@@ -29341,7 +29364,7 @@
         <v>二甲双胍口服常释剂型重庆科瑞制药(集团)有限</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>761</v>
       </c>
@@ -29353,7 +29376,7 @@
         <v>二甲双胍口服常释剂型北京京丰制药集团有限公司</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>761</v>
       </c>
@@ -29365,7 +29388,7 @@
         <v>二甲双胍口服常释剂型上海信谊天平药业有限公司</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>761</v>
       </c>
@@ -29377,7 +29400,7 @@
         <v>二甲双胍口服常释剂型蓬莱诺康药业有限公司</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>761</v>
       </c>
@@ -29389,7 +29412,7 @@
         <v>二甲双胍口服常释剂型石家庄以岭药业股份有限公</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>761</v>
       </c>
@@ -29401,7 +29424,7 @@
         <v>二甲双胍口服常释剂型河北天成药业股份有限公司</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
         <v>761</v>
       </c>
@@ -29413,7 +29436,7 @@
         <v>二甲双胍口服常释剂型江苏苏中药业集团股份有限</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
         <v>761</v>
       </c>
@@ -29425,7 +29448,7 @@
         <v>二甲双胍口服常释剂型贵州天安药业股份有限公司</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>761</v>
       </c>
@@ -29437,7 +29460,7 @@
         <v>二甲双胍口服常释剂型天津中新药业集团股份有限</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
         <v>761</v>
       </c>
@@ -29449,7 +29472,7 @@
         <v>二甲双胍口服常释剂型深圳市中联制药有限公司</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
         <v>761</v>
       </c>
@@ -29461,7 +29484,7 @@
         <v>二甲双胍口服常释剂型上海衡山药业有限公司</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>761</v>
       </c>
@@ -29473,7 +29496,7 @@
         <v>二甲双胍口服常释剂型北京利龄恒泰药业有限公司</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
         <v>761</v>
       </c>
@@ -29485,7 +29508,7 @@
         <v>二甲双胍口服常释剂型广东华南药业集团有限公司</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
         <v>761</v>
       </c>
@@ -29497,7 +29520,7 @@
         <v>二甲双胍口服常释剂型深圳海王药业有限公司</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>761</v>
       </c>
@@ -29509,7 +29532,7 @@
         <v>二甲双胍口服常释剂型重庆康刻尔制药有限公司</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>761</v>
       </c>
@@ -29521,7 +29544,7 @@
         <v>二甲双胍口服常释剂型吉林金恒制药股份有限公司</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="55" t="s">
         <v>761</v>
       </c>
@@ -29533,7 +29556,7 @@
         <v>二甲双胍口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>761</v>
       </c>
@@ -29545,7 +29568,7 @@
         <v>二甲双胍口服常释剂型北京四环制药有限公司</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="55" t="s">
         <v>761</v>
       </c>
@@ -29557,7 +29580,7 @@
         <v>二甲双胍口服常释剂型哈尔滨珍宝制药有限公司</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>761</v>
       </c>
@@ -29569,7 +29592,7 @@
         <v>二甲双胍口服常释剂型华北制药股份有限公司</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="55" t="s">
         <v>761</v>
       </c>
@@ -29581,7 +29604,7 @@
         <v>二甲双胍口服常释剂型昆山培力药品有限公司</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="55" t="s">
         <v>761</v>
       </c>
@@ -29593,7 +29616,7 @@
         <v>二甲双胍口服常释剂型哈药集团制药六厂</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="55" t="s">
         <v>761</v>
       </c>
@@ -29605,7 +29628,7 @@
         <v>二甲双胍口服常释剂型广东赛康制药厂有限公司</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="55" t="s">
         <v>761</v>
       </c>
@@ -29617,7 +29640,7 @@
         <v>二甲双胍口服常释剂型苏州东瑞制药有限公司</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="55" t="s">
         <v>761</v>
       </c>
@@ -29629,7 +29652,7 @@
         <v>二甲双胍口服常释剂型常州兰陵制药有限公司</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="55" t="s">
         <v>761</v>
       </c>
@@ -29641,7 +29664,7 @@
         <v>二甲双胍口服常释剂型中美上海施贵宝</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="61" t="s">
         <v>761</v>
       </c>
@@ -29653,7 +29676,7 @@
         <v>二甲双胍口服常释剂型迪沙药业集团有限公司</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="61" t="s">
         <v>761</v>
       </c>
@@ -29665,7 +29688,7 @@
         <v>二甲双胍口服常释剂型郑州泰丰制药有限公司</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="61" t="s">
         <v>761</v>
       </c>
@@ -29677,7 +29700,7 @@
         <v>二甲双胍口服常释剂型上海上药信谊药厂有限公司</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="61" t="s">
         <v>761</v>
       </c>
@@ -29689,7 +29712,7 @@
         <v>二甲双胍口服常释剂型重庆希尔安药业有限公司</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="55" t="s">
         <v>800</v>
       </c>
@@ -29701,7 +29724,7 @@
         <v>非布司他口服常释剂型江苏万邦生化医药集团有限责任公司</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>800</v>
       </c>
@@ -29713,7 +29736,7 @@
         <v>非布司他口服常释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="55" t="s">
         <v>800</v>
       </c>
@@ -29725,7 +29748,7 @@
         <v>非布司他口服常释剂型杭州朱养心药业有限公司</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="61" t="s">
         <v>800</v>
       </c>
@@ -29737,7 +29760,7 @@
         <v>非布司他口服常释剂型帝人株式会社</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="55" t="s">
         <v>1021</v>
       </c>
@@ -29749,7 +29772,7 @@
         <v>非那雄胺口服常释剂型 1mg天方药业有限公司</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="55" t="s">
         <v>1021</v>
       </c>
@@ -29761,7 +29784,7 @@
         <v>非那雄胺口服常释剂型 1mg扬子江药业集团四川海蓉药</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="55" t="s">
         <v>1021</v>
       </c>
@@ -29773,7 +29796,7 @@
         <v>非那雄胺口服常释剂型 1mg默沙东制药</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29785,7 +29808,7 @@
         <v>非那雄胺口服常释剂型 5mg杭州康恩贝制药有限公司</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29797,7 +29820,7 @@
         <v>非那雄胺口服常释剂型 5mg湖北舒邦药业有限公司</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29809,7 +29832,7 @@
         <v>非那雄胺口服常释剂型 5mg天方药业有限公司</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29821,7 +29844,7 @@
         <v>非那雄胺口服常释剂型 5mg华润赛科药业有限责任公司</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29833,7 +29856,7 @@
         <v>非那雄胺口服常释剂型 5mg南京圣和药业股份有限公司</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29845,7 +29868,7 @@
         <v>非那雄胺口服常释剂型 5mg扬子江药业集团四川海蓉药</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29857,7 +29880,7 @@
         <v>非那雄胺口服常释剂型 5mg默沙东制药</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="55" t="s">
         <v>1022</v>
       </c>
@@ -29869,7 +29892,7 @@
         <v>非那雄胺口服常释剂型 5mg成都倍特药业有限公司</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="55" t="s">
         <v>811</v>
       </c>
@@ -29881,7 +29904,7 @@
         <v>氟西汀口服常释剂型山西仟源医药集团股份有限</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="55" t="s">
         <v>811</v>
       </c>
@@ -29893,7 +29916,7 @@
         <v>氟西汀口服常释剂型上海上药中西制药有限公司</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="55" t="s">
         <v>811</v>
       </c>
@@ -29905,7 +29928,7 @@
         <v>氟西汀口服常释剂型礼来制药</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="55" t="s">
         <v>1023</v>
       </c>
@@ -29917,8 +29940,8 @@
         <v>枸橼酸西地那非片齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" s="73" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="72" t="s">
         <v>1023</v>
       </c>
       <c r="B128" s="67" t="s">
@@ -29929,8 +29952,8 @@
         <v>枸橼酸西地那非片江苏亚邦爱普森药业有限公司</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" s="73" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="72" t="s">
         <v>1023</v>
       </c>
       <c r="B129" s="61" t="s">
@@ -29941,8 +29964,8 @@
         <v>枸橼酸西地那非片广州白云山医药集团股份有限公司白云山制药总厂</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" s="73" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="72" t="s">
         <v>1023</v>
       </c>
       <c r="B130" s="61" t="s">
@@ -29953,7 +29976,7 @@
         <v>枸橼酸西地那非片辉瑞制药</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="55" t="s">
         <v>819</v>
       </c>
@@ -29965,7 +29988,7 @@
         <v>甲钴胺口服常释剂型卫材药业</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="55" t="s">
         <v>819</v>
       </c>
@@ -29977,7 +30000,7 @@
         <v>甲钴胺口服常释剂型江西青峰药业有限公司</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="55" t="s">
         <v>819</v>
       </c>
@@ -29989,7 +30012,7 @@
         <v>甲钴胺口服常释剂型扬子江药业集团南京海陵药业有限公司</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="55" t="s">
         <v>823</v>
       </c>
@@ -30001,7 +30024,7 @@
         <v>卡培他滨口服常释剂型齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="55" t="s">
         <v>823</v>
       </c>
@@ -30013,7 +30036,7 @@
         <v>卡培他滨口服常释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
         <v>823</v>
       </c>
@@ -30025,7 +30048,7 @@
         <v>卡培他滨口服常释剂型罗氏制药</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="55" t="s">
         <v>827</v>
       </c>
@@ -30037,7 +30060,7 @@
         <v>卡托普利口服常释剂型重庆科瑞制药(集团)有限</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="55" t="s">
         <v>827</v>
       </c>
@@ -30049,7 +30072,7 @@
         <v>卡托普利口服常释剂型华中药业股份有限公司</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="55" t="s">
         <v>827</v>
       </c>
@@ -30061,7 +30084,7 @@
         <v>卡托普利口服常释剂型湖南汉森制药股份有限公司</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="55" t="s">
         <v>827</v>
       </c>
@@ -30073,7 +30096,7 @@
         <v>卡托普利口服常释剂型山西振东安特生物制药有限</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="55" t="s">
         <v>827</v>
       </c>
@@ -30085,7 +30108,7 @@
         <v>卡托普利口服常释剂型石家庄以岭药业股份有限公</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="55" t="s">
         <v>827</v>
       </c>
@@ -30097,7 +30120,7 @@
         <v>卡托普利口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="55" t="s">
         <v>827</v>
       </c>
@@ -30109,7 +30132,7 @@
         <v>卡托普利口服常释剂型山东新华制药股份有限公司</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="55" t="s">
         <v>827</v>
       </c>
@@ -30121,7 +30144,7 @@
         <v>卡托普利口服常释剂型常州制药厂有限公司</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="55" t="s">
         <v>827</v>
       </c>
@@ -30133,7 +30156,7 @@
         <v>卡托普利口服常释剂型山东罗欣药业集团股份有限</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="55" t="s">
         <v>827</v>
       </c>
@@ -30145,7 +30168,7 @@
         <v>卡托普利口服常释剂型上海旭东海普药业有限公司</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="61" t="s">
         <v>827</v>
       </c>
@@ -30157,7 +30180,7 @@
         <v>卡托普利口服常释剂型郑州泰丰制药有限公司</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="61" t="s">
         <v>827</v>
       </c>
@@ -30169,7 +30192,7 @@
         <v>卡托普利口服常释剂型开封制药(集团)有限公司</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="55" t="s">
         <v>838</v>
       </c>
@@ -30181,7 +30204,7 @@
         <v>喹硫平口服常释剂型合肥英太制药有限公司</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="55" t="s">
         <v>838</v>
       </c>
@@ -30193,7 +30216,7 @@
         <v>喹硫平口服常释剂型苏州第壹制药有限公司</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="55" t="s">
         <v>838</v>
       </c>
@@ -30205,7 +30228,7 @@
         <v>喹硫平口服常释剂型湖南洞庭药业股份有限公司</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="55" t="s">
         <v>838</v>
       </c>
@@ -30217,7 +30240,7 @@
         <v>喹硫平口服常释剂型阿斯利康制药</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="55" t="s">
         <v>843</v>
       </c>
@@ -30229,7 +30252,7 @@
         <v>拉米夫定口服常释剂型石家庄龙泽制药股份有限公</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="55" t="s">
         <v>846</v>
       </c>
@@ -30241,7 +30264,7 @@
         <v>拉米夫定口服常释剂型ViiV医疗保健</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="61" t="s">
         <v>843</v>
       </c>
@@ -30253,7 +30276,7 @@
         <v>拉米夫定口服常释剂型安徽贝克生物制药有限公司</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="61" t="s">
         <v>843</v>
       </c>
@@ -30265,7 +30288,7 @@
         <v>拉米夫定口服常释剂型石家庄龙泽制药股份有限公</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="55" t="s">
         <v>850</v>
       </c>
@@ -30277,7 +30300,7 @@
         <v>来曲唑口服常释剂型浙江海正药业股份有限公司</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="55" t="s">
         <v>850</v>
       </c>
@@ -30289,7 +30312,7 @@
         <v>来曲唑口服常释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="55" t="s">
         <v>850</v>
       </c>
@@ -30301,7 +30324,7 @@
         <v>来曲唑口服常释剂型诺华制药</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="55" t="s">
         <v>852</v>
       </c>
@@ -30313,7 +30336,7 @@
         <v>氯氮平口服常释剂型江苏恩华药业股份有限公司</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="55" t="s">
         <v>852</v>
       </c>
@@ -30325,7 +30348,7 @@
         <v>氯氮平口服常释剂型万邦德制药集团股份有限公</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="55" t="s">
         <v>852</v>
       </c>
@@ -30337,7 +30360,7 @@
         <v>氯氮平口服常释剂型常州制药厂有限公司</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="55" t="s">
         <v>857</v>
       </c>
@@ -30349,7 +30372,7 @@
         <v>美金刚口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="55" t="s">
         <v>857</v>
       </c>
@@ -30361,7 +30384,7 @@
         <v>美金刚口服常释剂型安徽华辰制药有限公司</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="55" t="s">
         <v>857</v>
       </c>
@@ -30373,7 +30396,7 @@
         <v>美金刚口服常释剂型湖南洞庭药业股份有限公司</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="55" t="s">
         <v>857</v>
       </c>
@@ -30385,7 +30408,7 @@
         <v>美金刚口服常释剂型广州白云山医药集团股份有</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="55" t="s">
         <v>857</v>
       </c>
@@ -30397,7 +30420,7 @@
         <v>美金刚口服常释剂型灵北制药</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="55" t="s">
         <v>857</v>
       </c>
@@ -30409,7 +30432,7 @@
         <v>美金刚口服常释剂型扬子江药业集团有限公司</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="55" t="s">
         <v>862</v>
       </c>
@@ -30421,7 +30444,7 @@
         <v>孟鲁司特咀嚼片石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="55" t="s">
         <v>862</v>
       </c>
@@ -30433,7 +30456,7 @@
         <v>孟鲁司特咀嚼片齐鲁制药(海南)有限公司</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="55" t="s">
         <v>862</v>
       </c>
@@ -30445,7 +30468,7 @@
         <v>孟鲁司特咀嚼片杭州民生滨江制药有限公司</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="55" t="s">
         <v>862</v>
       </c>
@@ -30457,7 +30480,7 @@
         <v>孟鲁司特咀嚼片北京福元医药股份有限公司</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="55" t="s">
         <v>862</v>
       </c>
@@ -30469,7 +30492,7 @@
         <v>孟鲁司特咀嚼片合肥英太制药有限公司</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="55" t="s">
         <v>862</v>
       </c>
@@ -30481,7 +30504,7 @@
         <v>孟鲁司特咀嚼片扬子江药业集团南京海陵药</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="55" t="s">
         <v>862</v>
       </c>
@@ -30493,7 +30516,7 @@
         <v>孟鲁司特咀嚼片鲁南贝特制药有限公司</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="55" t="s">
         <v>862</v>
       </c>
@@ -30505,7 +30528,7 @@
         <v>孟鲁司特咀嚼片默沙东制药</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="55" t="s">
         <v>869</v>
       </c>
@@ -30517,7 +30540,7 @@
         <v>孟鲁司特颗粒剂江苏正大丰海制药有限公司</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="55" t="s">
         <v>869</v>
       </c>
@@ -30529,7 +30552,7 @@
         <v>孟鲁司特颗粒剂苏州吴淞江制药有限公司</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="55" t="s">
         <v>869</v>
       </c>
@@ -30541,7 +30564,7 @@
         <v>孟鲁司特颗粒剂默沙东制药</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="55" t="s">
         <v>869</v>
       </c>
@@ -30553,7 +30576,7 @@
         <v>孟鲁司特颗粒剂长春海悦药业股份有限公司</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="55" t="s">
         <v>873</v>
       </c>
@@ -30565,7 +30588,7 @@
         <v>匹伐他汀口服常释剂型南京长澳制药有限公司</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="55" t="s">
         <v>873</v>
       </c>
@@ -30577,7 +30600,7 @@
         <v>匹伐他汀口服常释剂型深圳信立泰药业股份有限公司</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A183" s="55" t="s">
         <v>873</v>
       </c>
@@ -30589,7 +30612,7 @@
         <v>匹伐他汀口服常释剂型江苏万邦生化医药集团有限责任公司</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="55" t="s">
         <v>873</v>
       </c>
@@ -30601,7 +30624,7 @@
         <v>匹伐他汀口服常释剂型浙江京新药业股份有限公司</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="55" t="s">
         <v>873</v>
       </c>
@@ -30613,7 +30636,7 @@
         <v>匹伐他汀口服常释剂型兴和株式会社</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="55" t="s">
         <v>881</v>
       </c>
@@ -30625,7 +30648,7 @@
         <v>普芦卡必利口服常释剂型河北仁合益康药业有限公司</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="55" t="s">
         <v>881</v>
       </c>
@@ -30637,7 +30660,7 @@
         <v>普芦卡必利口服常释剂型石家庄四药有限公司</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="55" t="s">
         <v>881</v>
       </c>
@@ -30649,7 +30672,7 @@
         <v>普芦卡必利口服常释剂型江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="55" t="s">
         <v>881</v>
       </c>
@@ -30661,7 +30684,7 @@
         <v>普芦卡必利口服常释剂型比利时杨森制药有限公司</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="55" t="s">
         <v>886</v>
       </c>
@@ -30673,7 +30696,7 @@
         <v>曲美他嗪口服常释剂型江苏吴中医药集团有限公司</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="55" t="s">
         <v>886</v>
       </c>
@@ -30685,7 +30708,7 @@
         <v>曲美他嗪口服常释剂型瑞阳制药有限公司</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="55" t="s">
         <v>886</v>
       </c>
@@ -30697,7 +30720,7 @@
         <v>曲美他嗪口服常释剂型远大医药(中国)有限公司</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="55" t="s">
         <v>886</v>
       </c>
@@ -30709,7 +30732,7 @@
         <v>曲美他嗪口服常释剂型北京福元医药股份有限公司</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="55" t="s">
         <v>886</v>
       </c>
@@ -30721,7 +30744,7 @@
         <v>曲美他嗪口服常释剂型涿州东乐制药有限公司</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="61" t="s">
         <v>886</v>
       </c>
@@ -30733,7 +30756,7 @@
         <v>曲美他嗪口服常释剂型施维雅制药</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="55" t="s">
         <v>895</v>
       </c>
@@ -30745,7 +30768,7 @@
         <v>塞来昔布口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="55" t="s">
         <v>895</v>
       </c>
@@ -30757,7 +30780,7 @@
         <v>塞来昔布口服常释剂型青岛百洋制药有限公司</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="55" t="s">
         <v>895</v>
       </c>
@@ -30769,7 +30792,7 @@
         <v>塞来昔布口服常释剂型四川国为制药有限公司</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="55" t="s">
         <v>895</v>
       </c>
@@ -30781,7 +30804,7 @@
         <v>塞来昔布口服常释剂型江苏正大清江制药有限公司</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="55" t="s">
         <v>895</v>
       </c>
@@ -30793,7 +30816,7 @@
         <v>塞来昔布口服常释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="61" t="s">
         <v>895</v>
       </c>
@@ -30805,7 +30828,7 @@
         <v>塞来昔布口服常释剂型辉瑞制药</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="55" t="s">
         <v>896</v>
       </c>
@@ -30817,7 +30840,7 @@
         <v>舍曲林口服常释剂型浙江华海药业股份有限公司</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="55" t="s">
         <v>896</v>
       </c>
@@ -30829,7 +30852,7 @@
         <v>舍曲林口服常释剂型浙江京新药业股份有限公司</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="61" t="s">
         <v>896</v>
       </c>
@@ -30841,7 +30864,7 @@
         <v>舍曲林口服常释剂型辉瑞制药</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="55" t="s">
         <v>1024</v>
       </c>
@@ -30853,7 +30876,7 @@
         <v>坦洛新（坦索罗辛）缓释控释剂型浙江海力生制药有限公司</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="55" t="s">
         <v>1024</v>
       </c>
@@ -30865,7 +30888,7 @@
         <v>坦洛新（坦索罗辛）缓释控释剂型杭州康恩贝制药有限公司</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="55" t="s">
         <v>1024</v>
       </c>
@@ -30877,7 +30900,7 @@
         <v>坦洛新（坦索罗辛）缓释控释剂型江苏恒瑞医药股份有限公司</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A208" s="55" t="s">
         <v>1024</v>
       </c>
@@ -30890,7 +30913,7 @@
 上海安必生制药技术有限公</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="55" t="s">
         <v>1024</v>
       </c>
@@ -30902,7 +30925,7 @@
         <v>坦洛新（坦索罗辛）缓释控释剂型安斯泰来制药</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="55" t="s">
         <v>901</v>
       </c>
@@ -30914,7 +30937,7 @@
         <v>碳酸氢钠口服常释剂型天津力生制药股份有限公司</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="55" t="s">
         <v>901</v>
       </c>
@@ -30926,7 +30949,7 @@
         <v>碳酸氢钠口服常释剂型广州康和药业有限公司</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="55" t="s">
         <v>901</v>
       </c>
@@ -30938,7 +30961,7 @@
         <v>碳酸氢钠口服常释剂型福州海王福药制药有限公司</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="55" t="s">
         <v>901</v>
       </c>
@@ -30950,7 +30973,7 @@
         <v>碳酸氢钠口服常释剂型远大医药（中国）有限公司</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="55" t="s">
         <v>901</v>
       </c>
@@ -30962,7 +30985,7 @@
         <v>碳酸氢钠口服常释剂型湖南汉森制药股份有限公司</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="55" t="s">
         <v>901</v>
       </c>
@@ -30974,7 +30997,7 @@
         <v>碳酸氢钠口服常释剂型广东新峰药业股份有限公司</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="55" t="s">
         <v>914</v>
       </c>
@@ -30986,7 +31009,7 @@
         <v>替格瑞洛口服常释剂型上海汇伦江苏药业有限公司</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="55" t="s">
         <v>914</v>
       </c>
@@ -30998,7 +31021,7 @@
         <v>替格瑞洛口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="55" t="s">
         <v>914</v>
       </c>
@@ -31010,7 +31033,7 @@
         <v>替格瑞洛口服常释剂型深圳信立泰药业股份有限公</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="55" t="s">
         <v>914</v>
       </c>
@@ -31022,7 +31045,7 @@
         <v>替格瑞洛口服常释剂型南京正大天晴制药有限公司</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="55" t="s">
         <v>914</v>
       </c>
@@ -31034,7 +31057,7 @@
         <v>替格瑞洛口服常释剂型浙江海正药业股份有限公司</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="55" t="s">
         <v>914</v>
       </c>
@@ -31046,7 +31069,7 @@
         <v>替格瑞洛口服常释剂型扬子江药业集团广州海瑞药</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="55" t="s">
         <v>914</v>
       </c>
@@ -31058,7 +31081,7 @@
         <v>替格瑞洛口服常释剂型南京优科制药有限公司</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="55" t="s">
         <v>914</v>
       </c>
@@ -31070,11 +31093,11 @@
         <v>替格瑞洛口服常释剂型阿斯利康制药</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A224" s="74" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="73" t="s">
         <v>22</v>
       </c>
       <c r="D224" t="str">
@@ -31082,11 +31105,11 @@
         <v>托法替布口服常释剂型齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A225" s="74" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B225" s="74" t="s">
+      <c r="B225" s="73" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="str">
@@ -31094,11 +31117,11 @@
         <v>托法替布口服常释剂型南京先声东元制药有限公司</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A226" s="74" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B226" s="74" t="s">
+      <c r="B226" s="73" t="s">
         <v>42</v>
       </c>
       <c r="D226" t="str">
@@ -31106,11 +31129,11 @@
         <v>托法替布口服常释剂型湖南科伦制药有限公司</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A227" s="74" t="s">
+    <row r="227" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A227" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B227" s="80" t="s">
+      <c r="B227" s="79" t="s">
         <v>923</v>
       </c>
       <c r="D227" t="str">
@@ -31118,11 +31141,11 @@
         <v>托法替布口服常释剂型扬子江药业集团江苏紫龙药业有限公司</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228" s="74" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B228" s="74" t="s">
+      <c r="B228" s="73" t="s">
         <v>924</v>
       </c>
       <c r="D228" t="str">
@@ -31130,11 +31153,11 @@
         <v>托法替布口服常释剂型辉瑞制药</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A229" s="74" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="73" t="s">
         <v>920</v>
       </c>
-      <c r="B229" s="74" t="s">
+      <c r="B229" s="73" t="s">
         <v>650</v>
       </c>
       <c r="D229" t="str">
@@ -31142,7 +31165,7 @@
         <v>托法替布口服常释剂型正大天晴药业集团股份有限</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="55" t="s">
         <v>925</v>
       </c>
@@ -31154,7 +31177,7 @@
         <v>维格列汀口服常释剂型齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="55" t="s">
         <v>925</v>
       </c>
@@ -31166,7 +31189,7 @@
         <v>维格列汀口服常释剂型江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="55" t="s">
         <v>925</v>
       </c>
@@ -31178,7 +31201,7 @@
         <v>维格列汀口服常释剂型南京圣和药业股份有限公司</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="55" t="s">
         <v>925</v>
       </c>
@@ -31190,7 +31213,7 @@
         <v>维格列汀口服常释剂型华润赛科药业有限责任公司</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="55" t="s">
         <v>925</v>
       </c>
@@ -31202,7 +31225,7 @@
         <v>维格列汀口服常释剂型扬子江药业集团四川海蓉药</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="55" t="s">
         <v>925</v>
       </c>
@@ -31214,7 +31237,7 @@
         <v>维格列汀口服常释剂型南京优科制药有限公司</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A236" s="55" t="s">
         <v>925</v>
       </c>
@@ -31227,7 +31250,7 @@
 山东罗欣药业集团股份有限公司</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="55" t="s">
         <v>925</v>
       </c>
@@ -31239,7 +31262,7 @@
         <v>维格列汀口服常释剂型北京泰德制药股份有限公司</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="55" t="s">
         <v>925</v>
       </c>
@@ -31251,7 +31274,7 @@
         <v>维格列汀口服常释剂型诺华制药</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="55" t="s">
         <v>930</v>
       </c>
@@ -31263,7 +31286,7 @@
         <v>维生素B6口服常释剂型杭州民生药业有限公司</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="55" t="s">
         <v>930</v>
       </c>
@@ -31275,7 +31298,7 @@
         <v>维生素B6口服常释剂型湖北广济药业股份有限公司</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A241" s="55" t="s">
         <v>930</v>
       </c>
@@ -31287,7 +31310,7 @@
         <v>维生素B6口服常释剂型东北制药集团沈阳第一制药有限公司</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="55" t="s">
         <v>930</v>
       </c>
@@ -31299,7 +31322,7 @@
         <v>维生素B6口服常释剂型宜昌人福药业有限责任公司</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="55" t="s">
         <v>930</v>
       </c>
@@ -31311,7 +31334,7 @@
         <v>维生素B6口服常释剂型安徽环球药业股份有限公司</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="55" t="s">
         <v>930</v>
       </c>
@@ -31323,7 +31346,7 @@
         <v>维生素B6口服常释剂型新乡市常乐制药有限责任公</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="55" t="s">
         <v>938</v>
       </c>
@@ -31335,7 +31358,7 @@
         <v>西酞普兰口服常释剂型西南药业股份有限公司</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="55" t="s">
         <v>938</v>
       </c>
@@ -31347,7 +31370,7 @@
         <v>西酞普兰口服常释剂型四川科伦药业股份有限公司</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="55" t="s">
         <v>938</v>
       </c>
@@ -31359,7 +31382,7 @@
         <v>西酞普兰口服常释剂型灵北制药</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="55" t="s">
         <v>939</v>
       </c>
@@ -31371,7 +31394,7 @@
         <v>西替利嗪口服常释剂型成都利尔药业有限公司</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="55" t="s">
         <v>939</v>
       </c>
@@ -31383,7 +31406,7 @@
         <v>西替利嗪口服常释剂型江苏吴中医药集团有限公司</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="55" t="s">
         <v>939</v>
       </c>
@@ -31395,7 +31418,7 @@
         <v>西替利嗪口服常释剂型新华制药(高密)有限公司</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="55" t="s">
         <v>939</v>
       </c>
@@ -31407,7 +31430,7 @@
         <v>西替利嗪口服常释剂型苏州中化药品工业有限公司</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="55" t="s">
         <v>939</v>
       </c>
@@ -31419,7 +31442,7 @@
         <v>西替利嗪口服常释剂型扬子江药业集团有限公司</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="55" t="s">
         <v>939</v>
       </c>
@@ -31431,7 +31454,7 @@
         <v>西替利嗪口服常释剂型鲁南贝特制药有限公司</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="55" t="s">
         <v>939</v>
       </c>
@@ -31443,7 +31466,7 @@
         <v>西替利嗪口服常释剂型苏州东瑞制药有限公司</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="55" t="s">
         <v>939</v>
       </c>
@@ -31455,7 +31478,7 @@
         <v>西替利嗪口服常释剂型优时比制药</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="55" t="s">
         <v>948</v>
       </c>
@@ -31467,7 +31490,7 @@
         <v>缬沙坦口服常释剂型常州四药制药有限公司</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="55" t="s">
         <v>948</v>
       </c>
@@ -31479,7 +31502,7 @@
         <v>缬沙坦口服常释剂型天大药业(珠海)有限公司</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="55" t="s">
         <v>948</v>
       </c>
@@ -31491,7 +31514,7 @@
         <v>缬沙坦口服常释剂型华润赛科药业有限责任公司</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="55" t="s">
         <v>948</v>
       </c>
@@ -31503,7 +31526,7 @@
         <v>缬沙坦口服常释剂型浙江华海药业股份有限公司</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="55" t="s">
         <v>948</v>
       </c>
@@ -31515,7 +31538,7 @@
         <v>缬沙坦口服常释剂型乐普恒久远药业有限公司</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="55" t="s">
         <v>948</v>
       </c>
@@ -31527,7 +31550,7 @@
         <v>缬沙坦口服常释剂型诺华制药</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="55" t="s">
         <v>948</v>
       </c>
@@ -31539,7 +31562,7 @@
         <v>缬沙坦口服常释剂型湖南千金湘江药业股份有限</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="55" t="s">
         <v>956</v>
       </c>
@@ -31551,7 +31574,7 @@
         <v>盐酸达泊西汀片四川科伦药业股份有限公司</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="55" t="s">
         <v>956</v>
       </c>
@@ -31563,7 +31586,7 @@
         <v>盐酸达泊西汀片山东华铂凯盛生物科技有限公司</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="55" t="s">
         <v>956</v>
       </c>
@@ -31575,7 +31598,7 @@
         <v>盐酸达泊西汀片Berlin-Chemie AG</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="61" t="s">
         <v>956</v>
       </c>
@@ -31587,7 +31610,7 @@
         <v>盐酸达泊西汀片烟台鲁银药业有限公司</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="55" t="s">
         <v>962</v>
       </c>
@@ -31599,7 +31622,7 @@
         <v>依托考昔口服常释剂型成都苑东生物制药股份有限</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="55" t="s">
         <v>962</v>
       </c>
@@ -31611,7 +31634,7 @@
         <v>依托考昔口服常释剂型默沙东制药</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="55" t="s">
         <v>962</v>
       </c>
@@ -31623,7 +31646,7 @@
         <v>依托考昔口服常释剂型齐鲁制药有限公司</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="55" t="s">
         <v>965</v>
       </c>
@@ -31635,7 +31658,7 @@
         <v>乙胺丁醇口服常释剂型广东华南药业集团有限公司</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="55" t="s">
         <v>965</v>
       </c>
@@ -31647,7 +31670,7 @@
         <v>乙胺丁醇口服常释剂型沈阳红旗制药有限公司</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="55" t="s">
         <v>965</v>
       </c>
@@ -31659,7 +31682,7 @@
         <v>乙胺丁醇口服常释剂型杭州民生药业有限公司</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="55" t="s">
         <v>965</v>
       </c>
@@ -31671,7 +31694,7 @@
         <v>乙胺丁醇口服常释剂型宜昌人福药业有限责任公司</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="55" t="s">
         <v>966</v>
       </c>
@@ -31683,7 +31706,7 @@
         <v>右佐匹克隆口服常释剂型成都康弘药业集团股份有限</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="55" t="s">
         <v>966</v>
       </c>
@@ -31695,7 +31718,7 @@
         <v>右佐匹克隆口服常释剂型上海上药中西制药有限公司</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="55" t="s">
         <v>966</v>
       </c>
@@ -31707,7 +31730,7 @@
         <v>右佐匹克隆口服常释剂型江苏天士力帝益药业有限公</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="55" t="s">
         <v>972</v>
       </c>
@@ -31719,7 +31742,7 @@
         <v>左乙拉西坦口服液体剂重庆圣华曦药业股份有限公司</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A278" s="55" t="s">
         <v>972</v>
       </c>
@@ -31731,7 +31754,7 @@
         <v>左乙拉西坦口服液体剂健民集团叶开泰国药(随州)有限公司</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="55" t="s">
         <v>972</v>
       </c>
@@ -31743,7 +31766,7 @@
         <v>左乙拉西坦口服液体剂优时比制药</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="55" t="s">
         <v>977</v>
       </c>
@@ -31755,7 +31778,7 @@
         <v>左乙拉西坦注射用浓溶液重庆圣华曦药业股份有限公司</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="55" t="s">
         <v>977</v>
       </c>
@@ -31767,7 +31790,7 @@
         <v>左乙拉西坦注射用浓溶液海南普利制药股份有限公司</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="55" t="s">
         <v>977</v>
       </c>
@@ -31779,7 +31802,7 @@
         <v>左乙拉西坦注射用浓溶液优时比制药</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="55" t="s">
         <v>977</v>
       </c>
@@ -31791,7 +31814,7 @@
         <v>左乙拉西坦注射用浓溶液河北仁合益康药业有限公司</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="55" t="s">
         <v>977</v>
       </c>
@@ -31803,7 +31826,7 @@
         <v>左乙拉西坦注射用浓溶液济川药业集团有限公司</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="55" t="s">
         <v>981</v>
       </c>
@@ -31815,7 +31838,7 @@
         <v>阿莫西林颗粒剂山东鲁抗医药股份有限公司</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="55" t="s">
         <v>981</v>
       </c>
@@ -31827,7 +31850,7 @@
         <v>阿莫西林颗粒剂湖南科伦制药有限公司</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="55" t="s">
         <v>981</v>
       </c>
@@ -31839,7 +31862,7 @@
         <v>阿莫西林颗粒剂海南先声药业有限公司</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="55" t="s">
         <v>984</v>
       </c>
@@ -31851,7 +31874,7 @@
         <v>利奈唑胺口服常释剂型辉瑞制药</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="55" t="s">
         <v>984</v>
       </c>
@@ -31863,7 +31886,7 @@
         <v>利奈唑胺口服常释剂型江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="55" t="s">
         <v>984</v>
       </c>
@@ -31875,7 +31898,7 @@
         <v>利奈唑胺口服常释剂型重庆华邦制药有限公司</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="55" t="s">
         <v>986</v>
       </c>
@@ -31887,7 +31910,7 @@
         <v>莫西沙星氯化钠注射剂天津红日药业股份有限公司</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="55" t="s">
         <v>986</v>
       </c>
@@ -31899,7 +31922,7 @@
         <v>莫西沙星氯化钠注射剂海南爱科制药有限公司</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="55" t="s">
         <v>986</v>
       </c>
@@ -31911,7 +31934,7 @@
         <v>莫西沙星氯化钠注射剂拜耳医药保健有限公司</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="55" t="s">
         <v>992</v>
       </c>
@@ -31923,7 +31946,7 @@
         <v>左氧氟沙星滴眼剂中山万汉制药有限公司</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="55" t="s">
         <v>992</v>
       </c>
@@ -31935,7 +31958,7 @@
         <v>左氧氟沙星滴眼剂扬子江药业集团有限公司</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="55" t="s">
         <v>992</v>
       </c>
@@ -31947,7 +31970,7 @@
         <v>左氧氟沙星滴眼剂参天制药株式会社</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="55" t="s">
         <v>998</v>
       </c>
@@ -31959,7 +31982,7 @@
         <v>环丙沙星口服常释剂型石家庄以岭药业股份有限公</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A298" s="55" t="s">
         <v>998</v>
       </c>
@@ -31971,7 +31994,7 @@
         <v>环丙沙星口服常释剂型广州白云山医药集团股份有限公司白云山制药总厂</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="55" t="s">
         <v>998</v>
       </c>
@@ -31983,7 +32006,7 @@
         <v>环丙沙星口服常释剂型江苏晨牌药业集团股份有限公司</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="61" t="s">
         <v>998</v>
       </c>
@@ -31995,7 +32018,7 @@
         <v>环丙沙星口服常释剂型拜耳医药保健有限公司</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="55" t="s">
         <v>1001</v>
       </c>
@@ -32007,7 +32030,7 @@
         <v>头孢地尼口服常释剂型石家庄四药有限公司</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="55" t="s">
         <v>1001</v>
       </c>
@@ -32019,7 +32042,7 @@
         <v>头孢地尼口服常释剂型江苏豪森药业集团有限公司</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="55" t="s">
         <v>1001</v>
       </c>
@@ -32031,7 +32054,7 @@
         <v>头孢地尼口服常释剂型国药集团致君(深圳)制药</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="55" t="s">
         <v>1001</v>
       </c>
@@ -32043,7 +32066,7 @@
         <v>头孢地尼口服常释剂型成都倍特药业股份有限公司</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="55" t="s">
         <v>1004</v>
       </c>
@@ -32055,7 +32078,7 @@
         <v>头孢地尼口服常释剂型安斯泰来制药</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="55" t="s">
         <v>1006</v>
       </c>
@@ -32067,7 +32090,7 @@
         <v>头孢克洛口服常释剂型苏州中化药品工业有限公司</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="55" t="s">
         <v>1006</v>
       </c>
@@ -32079,7 +32102,7 @@
         <v>头孢克洛口服常释剂型广州南新制药有限公司</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="55" t="s">
         <v>1006</v>
       </c>
@@ -32091,7 +32114,7 @@
         <v>头孢克洛口服常释剂型深圳立健药业有限公司</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="55" t="s">
         <v>1006</v>
       </c>
@@ -32103,7 +32126,7 @@
         <v>头孢克洛口服常释剂型苏州西克罗制药有限公司</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="55" t="s">
         <v>1013</v>
       </c>
@@ -32115,7 +32138,7 @@
         <v>克拉霉素口服常释剂型上海现代制药股份有限公司</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="55" t="s">
         <v>1013</v>
       </c>
@@ -32127,7 +32150,7 @@
         <v>克拉霉素口服常释剂型山东新华制药股份有限公司</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="55" t="s">
         <v>1013</v>
       </c>
@@ -32139,7 +32162,7 @@
         <v>克拉霉素口服常释剂型浙江贝得药业有限公司</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="55" t="s">
         <v>1013</v>
       </c>
@@ -32151,7 +32174,7 @@
         <v>克拉霉素口服常释剂型石药集团欧意药业有限公司</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="55" t="s">
         <v>1018</v>
       </c>
@@ -32163,7 +32186,7 @@
         <v>克拉霉素口服常释剂型雅培制药</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="55" t="s">
         <v>1013</v>
       </c>

--- a/vbp.xlsx
+++ b/vbp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chencheng\PycharmProjects\datasite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39AE83C-1645-48A6-889C-0E305058B9A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FF73C-4EF5-47FF-A9E2-E0F2E8D39497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12061" uniqueCount="2345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12062" uniqueCount="2346">
   <si>
     <t>全国药品集中采购中选品种表</t>
   </si>
@@ -7998,6 +7998,10 @@
   </si>
   <si>
     <t>北京，辽宁，吉林，黑龙江，安徽，山东，河南，贵州，云南，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>0.25g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8715,23 +8719,26 @@
     </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8745,14 +8752,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8762,57 +8766,7 @@
     <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13002,10 +12956,10 @@
       <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145">
+      <c r="A2" s="146">
         <v>1</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>728</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -13028,8 +12982,8 @@
       <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="61" t="s">
         <v>730</v>
       </c>
@@ -13068,10 +13022,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145">
+      <c r="A4" s="146">
         <v>2</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="150" t="s">
         <v>736</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -13110,8 +13064,8 @@
       <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="61" t="s">
         <v>730</v>
       </c>
@@ -13134,10 +13088,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145">
+      <c r="A6" s="146">
         <v>3</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="150" t="s">
         <v>741</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -13160,8 +13114,8 @@
       <c r="N6" s="60"/>
     </row>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146"/>
-      <c r="B7" s="148"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="61" t="s">
         <v>730</v>
       </c>
@@ -13200,10 +13154,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145">
+      <c r="A8" s="146">
         <v>4</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="150" t="s">
         <v>747</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -13239,13 +13193,13 @@
         <v>750</v>
       </c>
       <c r="M8" s="57"/>
-      <c r="N8" s="149" t="s">
+      <c r="N8" s="156" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="146"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="61" t="s">
         <v>730</v>
       </c>
@@ -13263,7 +13217,7 @@
       <c r="K9" s="64"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
-      <c r="N9" s="150"/>
+      <c r="N9" s="157"/>
     </row>
     <row r="10" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
@@ -13442,10 +13396,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="145">
+      <c r="A14" s="146">
         <v>9</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="150" t="s">
         <v>772</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -13486,8 +13440,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="146"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="61" t="s">
         <v>730</v>
       </c>
@@ -13728,10 +13682,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145">
+      <c r="A21" s="146">
         <v>15</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="150" t="s">
         <v>799</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -13772,8 +13726,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
-      <c r="B22" s="148"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="61" t="s">
         <v>730</v>
       </c>
@@ -13840,10 +13794,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145">
+      <c r="A24" s="146">
         <v>17</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="150" t="s">
         <v>806</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -13870,8 +13824,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
-      <c r="B25" s="148"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="61" t="s">
         <v>730</v>
       </c>
@@ -13944,10 +13898,10 @@
       <c r="N26" s="74"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="151">
+      <c r="A27" s="152">
         <v>19</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="154" t="s">
         <v>815</v>
       </c>
       <c r="C27" s="80" t="s">
@@ -13980,8 +13934,8 @@
       <c r="N27" s="60"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="154"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="83" t="s">
         <v>730</v>
       </c>
@@ -14012,10 +13966,10 @@
       <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="145">
+      <c r="A29" s="146">
         <v>20</v>
       </c>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="150" t="s">
         <v>818</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -14056,8 +14010,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="148"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="61" t="s">
         <v>730</v>
       </c>
@@ -14204,10 +14158,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="151">
+      <c r="A34" s="152">
         <v>24</v>
       </c>
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="154" t="s">
         <v>832</v>
       </c>
       <c r="C34" s="80" t="s">
@@ -14240,8 +14194,8 @@
       <c r="N34" s="60"/>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="154"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="83" t="s">
         <v>730</v>
       </c>
@@ -14392,10 +14346,10 @@
       <c r="N38" s="74"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="145">
-        <v>28</v>
-      </c>
-      <c r="B39" s="155" t="s">
+      <c r="A39" s="146">
+        <v>28</v>
+      </c>
+      <c r="B39" s="148" t="s">
         <v>852</v>
       </c>
       <c r="C39" s="53" t="s">
@@ -14436,8 +14390,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="146"/>
-      <c r="B40" s="156"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="149"/>
       <c r="C40" s="61" t="s">
         <v>853</v>
       </c>
@@ -14598,14 +14552,12 @@
   </sheetData>
   <autoFilter ref="A1:V43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -14615,12 +14567,14 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17859,7 +17813,7 @@
       <c r="A83" s="41">
         <v>19</v>
       </c>
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="145" t="s">
         <v>2183</v>
       </c>
       <c r="C83" s="38" t="s">
@@ -17900,7 +17854,7 @@
       <c r="A84" s="41">
         <v>19</v>
       </c>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="145" t="s">
         <v>2183</v>
       </c>
       <c r="C84" s="38" t="s">
@@ -17939,7 +17893,7 @@
       <c r="A85" s="41">
         <v>19</v>
       </c>
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="145" t="s">
         <v>2183</v>
       </c>
       <c r="C85" s="38" t="s">
@@ -51930,34 +51884,34 @@
   <autoFilter ref="A2:M314" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E79:E108">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E123">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137:E148">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E175">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185:E188">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247:E254">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255:E261">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262:E265">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266:E268">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -51968,9 +51922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -60404,8 +60358,8 @@
       <c r="C209" s="89" t="s">
         <v>2129</v>
       </c>
-      <c r="D209" s="90">
-        <v>0.25</v>
+      <c r="D209" s="90" t="s">
+        <v>2345</v>
       </c>
       <c r="E209" s="88" t="s">
         <v>2158</v>

--- a/vbp.xlsx
+++ b/vbp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chencheng\PycharmProjects\datasite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FF73C-4EF5-47FF-A9E2-E0F2E8D39497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF85C03-2CA5-410C-BE50-0F54AF4E29C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">第二轮集采!$A$3:$K$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">第三轮集采!$A$2:$M$314</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'第三批集采 完整'!$A$2:$M$369</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">第四轮集采!$A$1:$M$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">第四轮集采!$A$1:$M$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第一轮集采4+7'!$A$1:$V$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">第一轮集采联盟地区!$A$3:$O$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">生产企业名称mapping!$A$2:$C$292</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12062" uniqueCount="2346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12070" uniqueCount="2348">
   <si>
     <t>全国药品集中采购中选品种表</t>
   </si>
@@ -7102,9 +7102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恩曲他滨200mg+富马酸替诺福韦二吡呋酯300mg</t>
-  </si>
-  <si>
     <t>恩曲他滨替诺福韦口服常释剂型</t>
   </si>
   <si>
@@ -7346,9 +7343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>缬沙坦80mg+氨氯地平5mg</t>
-  </si>
-  <si>
     <t>缬沙坦氨氯地平Ⅰ口服常释剂型</t>
   </si>
   <si>
@@ -7356,9 +7350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>缬沙坦80mg+氢氯噻嗪12.5mg</t>
-  </si>
-  <si>
     <t>缬沙坦氢氯噻嗪口服常释剂型</t>
   </si>
   <si>
@@ -7448,16 +7439,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玻璃酸钠滴眼剂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5ml:5mg (0.1%)</t>
   </si>
   <si>
-    <t>玻璃酸钠滴眼剂</t>
-  </si>
-  <si>
     <t>10ml:10mg (0.1%)</t>
   </si>
   <si>
@@ -8001,6 +7985,34 @@
   </si>
   <si>
     <t>0.25g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mg+5mg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mg+12.5mg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200mg+300mg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8359,7 +8371,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8728,17 +8740,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8752,11 +8764,21 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12959,7 +12981,7 @@
       <c r="A2" s="146">
         <v>1</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="148" t="s">
         <v>728</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -12983,7 +13005,7 @@
     </row>
     <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="147"/>
-      <c r="B3" s="151"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="61" t="s">
         <v>730</v>
       </c>
@@ -13025,7 +13047,7 @@
       <c r="A4" s="146">
         <v>2</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="148" t="s">
         <v>736</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -13065,7 +13087,7 @@
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="147"/>
-      <c r="B5" s="151"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="61" t="s">
         <v>730</v>
       </c>
@@ -13091,7 +13113,7 @@
       <c r="A6" s="146">
         <v>3</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="148" t="s">
         <v>741</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -13115,7 +13137,7 @@
     </row>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="147"/>
-      <c r="B7" s="151"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="61" t="s">
         <v>730</v>
       </c>
@@ -13157,7 +13179,7 @@
       <c r="A8" s="146">
         <v>4</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="148" t="s">
         <v>747</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -13193,13 +13215,13 @@
         <v>750</v>
       </c>
       <c r="M8" s="57"/>
-      <c r="N8" s="156" t="s">
+      <c r="N8" s="150" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="61" t="s">
         <v>730</v>
       </c>
@@ -13217,7 +13239,7 @@
       <c r="K9" s="64"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
-      <c r="N9" s="157"/>
+      <c r="N9" s="151"/>
     </row>
     <row r="10" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
@@ -13399,7 +13421,7 @@
       <c r="A14" s="146">
         <v>9</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="148" t="s">
         <v>772</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -13441,7 +13463,7 @@
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="147"/>
-      <c r="B15" s="151"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="61" t="s">
         <v>730</v>
       </c>
@@ -13685,7 +13707,7 @@
       <c r="A21" s="146">
         <v>15</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="148" t="s">
         <v>799</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -13727,7 +13749,7 @@
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="147"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="61" t="s">
         <v>730</v>
       </c>
@@ -13797,7 +13819,7 @@
       <c r="A24" s="146">
         <v>17</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="148" t="s">
         <v>806</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -13825,7 +13847,7 @@
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="147"/>
-      <c r="B25" s="151"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="61" t="s">
         <v>730</v>
       </c>
@@ -13969,7 +13991,7 @@
       <c r="A29" s="146">
         <v>20</v>
       </c>
-      <c r="B29" s="150" t="s">
+      <c r="B29" s="148" t="s">
         <v>818</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -14011,7 +14033,7 @@
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="147"/>
-      <c r="B30" s="151"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="61" t="s">
         <v>730</v>
       </c>
@@ -14349,7 +14371,7 @@
       <c r="A39" s="146">
         <v>28</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="156" t="s">
         <v>852</v>
       </c>
       <c r="C39" s="53" t="s">
@@ -14391,7 +14413,7 @@
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="147"/>
-      <c r="B40" s="149"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="61" t="s">
         <v>853</v>
       </c>
@@ -14552,12 +14574,14 @@
   </sheetData>
   <autoFilter ref="A1:V43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -14567,14 +14591,12 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17814,7 +17836,7 @@
         <v>19</v>
       </c>
       <c r="B83" s="145" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="C83" s="38" t="s">
         <v>12</v>
@@ -17855,7 +17877,7 @@
         <v>19</v>
       </c>
       <c r="B84" s="145" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>12</v>
@@ -17894,7 +17916,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="145" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="C85" s="38" t="s">
         <v>12</v>
@@ -22233,7 +22255,7 @@
         <v>664</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>151</v>
@@ -40097,13 +40119,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="88" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E18" s="88" t="s">
         <v>189</v>
@@ -40144,7 +40166,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="E19" s="88" t="s">
         <v>967</v>
@@ -40185,7 +40207,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="E20" s="88" t="s">
         <v>968</v>
@@ -40226,7 +40248,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="E21" s="88" t="s">
         <v>1653</v>
@@ -40267,7 +40289,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E22" s="88" t="s">
         <v>1148</v>
@@ -41209,7 +41231,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E46" s="88" t="s">
         <v>986</v>
@@ -41248,7 +41270,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E47" s="88" t="s">
         <v>987</v>
@@ -41289,7 +41311,7 @@
         <v>1637</v>
       </c>
       <c r="D48" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E48" s="88" t="s">
         <v>55</v>
@@ -41330,7 +41352,7 @@
         <v>1637</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E49" s="88" t="s">
         <v>988</v>
@@ -41371,7 +41393,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E50" s="88" t="s">
         <v>989</v>
@@ -41410,7 +41432,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="105" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E51" s="88" t="s">
         <v>990</v>
@@ -41449,7 +41471,7 @@
         <v>1637</v>
       </c>
       <c r="D52" s="105" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E52" s="104" t="s">
         <v>991</v>
@@ -41769,7 +41791,7 @@
         <v>1637</v>
       </c>
       <c r="D60" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E60" s="88" t="s">
         <v>999</v>
@@ -41796,7 +41818,7 @@
         <v>6.7968749999999994E-2</v>
       </c>
       <c r="M60" s="89" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.3">
@@ -41810,7 +41832,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E61" s="88" t="s">
         <v>1000</v>
@@ -41851,7 +41873,7 @@
         <v>1637</v>
       </c>
       <c r="D62" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E62" s="88" t="s">
         <v>55</v>
@@ -41892,7 +41914,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E63" s="88" t="s">
         <v>1001</v>
@@ -41933,7 +41955,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E64" s="88" t="s">
         <v>1002</v>
@@ -41974,7 +41996,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E65" s="88" t="s">
         <v>1003</v>
@@ -42015,7 +42037,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E66" s="88" t="s">
         <v>1004</v>
@@ -42056,7 +42078,7 @@
         <v>1637</v>
       </c>
       <c r="D67" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E67" s="88" t="s">
         <v>1005</v>
@@ -42097,7 +42119,7 @@
         <v>1637</v>
       </c>
       <c r="D68" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E68" s="88" t="s">
         <v>1006</v>
@@ -42134,7 +42156,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E69" s="88" t="s">
         <v>1007</v>
@@ -42173,7 +42195,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E70" s="88" t="s">
         <v>1008</v>
@@ -42212,7 +42234,7 @@
         <v>1637</v>
       </c>
       <c r="D71" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E71" s="88" t="s">
         <v>93</v>
@@ -42249,7 +42271,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E72" s="88" t="s">
         <v>1009</v>
@@ -42286,7 +42308,7 @@
         <v>1637</v>
       </c>
       <c r="D73" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E73" s="88" t="s">
         <v>181</v>
@@ -42323,7 +42345,7 @@
         <v>1637</v>
       </c>
       <c r="D74" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E74" s="88" t="s">
         <v>1010</v>
@@ -42362,7 +42384,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E75" s="88" t="s">
         <v>1011</v>
@@ -42401,7 +42423,7 @@
         <v>1637</v>
       </c>
       <c r="D76" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E76" s="88" t="s">
         <v>1012</v>
@@ -42440,7 +42462,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E77" s="88" t="s">
         <v>1013</v>
@@ -42479,7 +42501,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E78" s="104" t="s">
         <v>964</v>
@@ -42518,7 +42540,7 @@
         <v>17</v>
       </c>
       <c r="D79" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E79" s="88" t="s">
         <v>1014</v>
@@ -42559,7 +42581,7 @@
         <v>28</v>
       </c>
       <c r="D80" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E80" s="88" t="s">
         <v>1015</v>
@@ -42600,7 +42622,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E81" s="88" t="s">
         <v>972</v>
@@ -42641,7 +42663,7 @@
         <v>28</v>
       </c>
       <c r="D82" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E82" s="88" t="s">
         <v>1016</v>
@@ -42682,7 +42704,7 @@
         <v>28</v>
       </c>
       <c r="D83" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E83" s="88" t="s">
         <v>1017</v>
@@ -42723,7 +42745,7 @@
         <v>28</v>
       </c>
       <c r="D84" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E84" s="88" t="s">
         <v>1018</v>
@@ -42764,7 +42786,7 @@
         <v>28</v>
       </c>
       <c r="D85" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E85" s="88" t="s">
         <v>1019</v>
@@ -42803,7 +42825,7 @@
         <v>28</v>
       </c>
       <c r="D86" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E86" s="88" t="s">
         <v>1020</v>
@@ -42842,7 +42864,7 @@
         <v>28</v>
       </c>
       <c r="D87" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E87" s="88" t="s">
         <v>1021</v>
@@ -42881,7 +42903,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E88" s="88" t="s">
         <v>1022</v>
@@ -42920,7 +42942,7 @@
         <v>28</v>
       </c>
       <c r="D89" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E89" s="88" t="s">
         <v>1023</v>
@@ -42959,7 +42981,7 @@
         <v>28</v>
       </c>
       <c r="D90" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E90" s="88" t="s">
         <v>1024</v>
@@ -42998,7 +43020,7 @@
         <v>28</v>
       </c>
       <c r="D91" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E91" s="88" t="s">
         <v>212</v>
@@ -43037,7 +43059,7 @@
         <v>28</v>
       </c>
       <c r="D92" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E92" s="88" t="s">
         <v>1025</v>
@@ -43076,7 +43098,7 @@
         <v>28</v>
       </c>
       <c r="D93" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E93" s="88" t="s">
         <v>124</v>
@@ -43115,7 +43137,7 @@
         <v>28</v>
       </c>
       <c r="D94" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E94" s="88" t="s">
         <v>1026</v>
@@ -43154,7 +43176,7 @@
         <v>28</v>
       </c>
       <c r="D95" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E95" s="88" t="s">
         <v>55</v>
@@ -43195,7 +43217,7 @@
         <v>28</v>
       </c>
       <c r="D96" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E96" s="88" t="s">
         <v>56</v>
@@ -43234,7 +43256,7 @@
         <v>28</v>
       </c>
       <c r="D97" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E97" s="88" t="s">
         <v>155</v>
@@ -43271,7 +43293,7 @@
         <v>28</v>
       </c>
       <c r="D98" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E98" s="88" t="s">
         <v>39</v>
@@ -43312,7 +43334,7 @@
         <v>28</v>
       </c>
       <c r="D99" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E99" s="88" t="s">
         <v>1027</v>
@@ -43351,7 +43373,7 @@
         <v>28</v>
       </c>
       <c r="D100" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E100" s="88" t="s">
         <v>1028</v>
@@ -43388,7 +43410,7 @@
         <v>28</v>
       </c>
       <c r="D101" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E101" s="88" t="s">
         <v>1004</v>
@@ -43425,7 +43447,7 @@
         <v>28</v>
       </c>
       <c r="D102" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E102" s="88" t="s">
         <v>252</v>
@@ -43462,7 +43484,7 @@
         <v>28</v>
       </c>
       <c r="D103" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E103" s="88" t="s">
         <v>1029</v>
@@ -43501,7 +43523,7 @@
         <v>28</v>
       </c>
       <c r="D104" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E104" s="88" t="s">
         <v>1030</v>
@@ -43538,7 +43560,7 @@
         <v>28</v>
       </c>
       <c r="D105" s="105" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E105" s="104" t="s">
         <v>1031</v>
@@ -43577,7 +43599,7 @@
         <v>28</v>
       </c>
       <c r="D106" s="105" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E106" s="104" t="s">
         <v>1032</v>
@@ -43616,7 +43638,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="105" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E107" s="108" t="s">
         <v>1033</v>
@@ -43655,7 +43677,7 @@
         <v>28</v>
       </c>
       <c r="D108" s="105" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E108" s="104" t="s">
         <v>1034</v>
@@ -43848,7 +43870,7 @@
         <v>15</v>
       </c>
       <c r="B113" s="88" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="C113" s="89" t="s">
         <v>12</v>
@@ -44690,7 +44712,7 @@
         <v>12</v>
       </c>
       <c r="D134" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E134" s="88" t="s">
         <v>23</v>
@@ -44731,7 +44753,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E135" s="88" t="s">
         <v>1658</v>
@@ -44772,7 +44794,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="90" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E136" s="88" t="s">
         <v>1048</v>
@@ -45289,7 +45311,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="90" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E149" s="88" t="s">
         <v>1054</v>
@@ -45328,7 +45350,7 @@
         <v>1637</v>
       </c>
       <c r="D150" s="90" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E150" s="88" t="s">
         <v>1055</v>
@@ -45369,7 +45391,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="90" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E151" s="88" t="s">
         <v>544</v>
@@ -45410,7 +45432,7 @@
         <v>12</v>
       </c>
       <c r="D152" s="90" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E152" s="88" t="s">
         <v>961</v>
@@ -45449,7 +45471,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="90" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="E153" s="88" t="s">
         <v>1059</v>
@@ -45489,7 +45511,7 @@
         <v>1637</v>
       </c>
       <c r="D154" s="90" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="E154" s="104" t="s">
         <v>1060</v>
@@ -45529,7 +45551,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="90" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="E155" s="88" t="s">
         <v>1058</v>
@@ -46754,7 +46776,7 @@
         <v>30</v>
       </c>
       <c r="B186" s="88" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="C186" s="89" t="s">
         <v>17</v>
@@ -47909,7 +47931,7 @@
         <v>36</v>
       </c>
       <c r="B215" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C215" s="89" t="s">
         <v>12</v>
@@ -47950,7 +47972,7 @@
         <v>36</v>
       </c>
       <c r="B216" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C216" s="89" t="s">
         <v>12</v>
@@ -47991,7 +48013,7 @@
         <v>36</v>
       </c>
       <c r="B217" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C217" s="89" t="s">
         <v>12</v>
@@ -48032,7 +48054,7 @@
         <v>36</v>
       </c>
       <c r="B218" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C218" s="89" t="s">
         <v>12</v>
@@ -48073,7 +48095,7 @@
         <v>36</v>
       </c>
       <c r="B219" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C219" s="89" t="s">
         <v>12</v>
@@ -48112,7 +48134,7 @@
         <v>36</v>
       </c>
       <c r="B220" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C220" s="89" t="s">
         <v>12</v>
@@ -48153,7 +48175,7 @@
         <v>36</v>
       </c>
       <c r="B221" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C221" s="89" t="s">
         <v>12</v>
@@ -48192,7 +48214,7 @@
         <v>36</v>
       </c>
       <c r="B222" s="88" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="C222" s="89" t="s">
         <v>12</v>
@@ -51491,7 +51513,7 @@
         <v>12</v>
       </c>
       <c r="D305" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E305" s="88" t="s">
         <v>1103</v>
@@ -51532,7 +51554,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E306" s="88" t="s">
         <v>1127</v>
@@ -51573,7 +51595,7 @@
         <v>12</v>
       </c>
       <c r="D307" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E307" s="88" t="s">
         <v>1128</v>
@@ -51614,7 +51636,7 @@
         <v>12</v>
       </c>
       <c r="D308" s="90" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E308" s="88" t="s">
         <v>1129</v>
@@ -51920,11 +51942,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52022,7 +52044,7 @@
         <v>2.6</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -52063,7 +52085,7 @@
         <v>2.9143333333333334</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -52104,7 +52126,7 @@
         <v>1.2678571428571428</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -52145,7 +52167,7 @@
         <v>1.9253333333333333</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -52264,7 +52286,7 @@
         <v>2.33</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -52305,7 +52327,7 @@
         <v>2.16</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -52346,7 +52368,7 @@
         <v>1.55</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -52387,7 +52409,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -52506,7 +52528,7 @@
         <v>0.33799999999999997</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -52547,7 +52569,7 @@
         <v>0.59</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -52588,7 +52610,7 @@
         <v>0.33250000000000002</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -52629,7 +52651,7 @@
         <v>0.38</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -52709,7 +52731,7 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -52750,7 +52772,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -52830,7 +52852,7 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -52871,7 +52893,7 @@
         <v>0.32999999999999996</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -52912,7 +52934,7 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -53031,7 +53053,7 @@
         <v>28.68</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -53072,7 +53094,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -53152,7 +53174,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -53232,7 +53254,7 @@
         <v>0.19489999999999999</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -53273,7 +53295,7 @@
         <v>0.19649999999999998</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -53314,7 +53336,7 @@
         <v>0.2046</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -53355,7 +53377,7 @@
         <v>14.858000000000001</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -53396,7 +53418,7 @@
         <v>13.4</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -53437,7 +53459,7 @@
         <v>12.5</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -53478,7 +53500,7 @@
         <v>9.86</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -53597,7 +53619,7 @@
         <v>0.152</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -53638,7 +53660,7 @@
         <v>0.14550000000000002</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -53679,7 +53701,7 @@
         <v>0.1439</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -53720,7 +53742,7 @@
         <v>0.22949999999999998</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -53761,7 +53783,7 @@
         <v>20.580000000000002</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -53802,7 +53824,7 @@
         <v>13.780000000000001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -53843,7 +53865,7 @@
         <v>14.4</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -53923,7 +53945,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -53964,7 +53986,7 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -54005,7 +54027,7 @@
         <v>0.42699999999999994</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -54046,7 +54068,7 @@
         <v>1.2</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -54126,7 +54148,7 @@
         <v>0.98</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -54206,7 +54228,7 @@
         <v>11.98</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -54286,7 +54308,7 @@
         <v>12.994999999999999</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -54327,7 +54349,7 @@
         <v>3.6</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -54368,7 +54390,7 @@
         <v>3.99</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -54409,7 +54431,7 @@
         <v>17.776</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -54489,7 +54511,7 @@
         <v>1.83</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -54530,7 +54552,7 @@
         <v>1.839</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -54571,7 +54593,7 @@
         <v>1.8546666666666667</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -54612,7 +54634,7 @@
         <v>1.9510000000000001</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -54665,7 +54687,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="90" t="s">
-        <v>2069</v>
+        <v>2347</v>
       </c>
       <c r="E68" s="88" t="s">
         <v>1060</v>
@@ -54692,7 +54714,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -54700,13 +54722,13 @@
         <v>12</v>
       </c>
       <c r="B69" s="88" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C69" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>2069</v>
+        <v>2347</v>
       </c>
       <c r="E69" s="88" t="s">
         <v>14</v>
@@ -54733,7 +54755,7 @@
         <v>22.2</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -54741,19 +54763,19 @@
         <v>12</v>
       </c>
       <c r="B70" s="88" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C70" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="90" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E70" s="88" t="s">
         <v>2070</v>
       </c>
-      <c r="C70" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="90" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E70" s="88" t="s">
+      <c r="F70" s="89" t="s">
         <v>2071</v>
-      </c>
-      <c r="F70" s="89" t="s">
-        <v>2072</v>
       </c>
       <c r="G70" s="89" t="s">
         <v>12</v>
@@ -54774,7 +54796,7 @@
         <v>22</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -54788,7 +54810,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="90" t="s">
-        <v>2069</v>
+        <v>2347</v>
       </c>
       <c r="E71" s="88" t="s">
         <v>1861</v>
@@ -54821,7 +54843,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="88" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C72" s="89" t="s">
         <v>12</v>
@@ -54854,7 +54876,7 @@
         <v>0.60933333333333339</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -54862,7 +54884,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="88" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C73" s="89" t="s">
         <v>12</v>
@@ -54895,7 +54917,7 @@
         <v>0.61466666666666669</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -54903,7 +54925,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="88" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C74" s="89" t="s">
         <v>12</v>
@@ -54936,7 +54958,7 @@
         <v>0.81</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -54944,7 +54966,7 @@
         <v>13</v>
       </c>
       <c r="B75" s="88" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C75" s="89" t="s">
         <v>12</v>
@@ -54983,7 +55005,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="88" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C76" s="89" t="s">
         <v>12</v>
@@ -55016,7 +55038,7 @@
         <v>0.13041666666666665</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -55024,7 +55046,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="88" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C77" s="89" t="s">
         <v>12</v>
@@ -55057,7 +55079,7 @@
         <v>0.12</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -55065,7 +55087,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C78" s="89" t="s">
         <v>12</v>
@@ -55104,7 +55126,7 @@
         <v>14</v>
       </c>
       <c r="B79" s="88" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C79" s="89" t="s">
         <v>12</v>
@@ -55143,7 +55165,7 @@
         <v>15</v>
       </c>
       <c r="B80" s="88" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C80" s="89" t="s">
         <v>12</v>
@@ -55176,7 +55198,7 @@
         <v>1.7663333333333333</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -55184,7 +55206,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="88" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C81" s="89" t="s">
         <v>12</v>
@@ -55217,7 +55239,7 @@
         <v>1.8128571428571427</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -55225,7 +55247,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="88" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C82" s="89" t="s">
         <v>12</v>
@@ -55264,7 +55286,7 @@
         <v>16</v>
       </c>
       <c r="B83" s="88" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C83" s="89" t="s">
         <v>17</v>
@@ -55297,7 +55319,7 @@
         <v>3.3899999999999997</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -55305,7 +55327,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="88" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C84" s="89" t="s">
         <v>17</v>
@@ -55338,7 +55360,7 @@
         <v>3.3899999999999997</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -55346,7 +55368,7 @@
         <v>16</v>
       </c>
       <c r="B85" s="88" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C85" s="89" t="s">
         <v>17</v>
@@ -55379,7 +55401,7 @@
         <v>1.2085000000000001</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -55387,7 +55409,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C86" s="89" t="s">
         <v>17</v>
@@ -55426,7 +55448,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="88" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C87" s="89" t="s">
         <v>12</v>
@@ -55459,7 +55481,7 @@
         <v>0.27599999999999997</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -55467,7 +55489,7 @@
         <v>17</v>
       </c>
       <c r="B88" s="88" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C88" s="89" t="s">
         <v>12</v>
@@ -55500,7 +55522,7 @@
         <v>0.2911111111111111</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -55508,7 +55530,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="88" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C89" s="89" t="s">
         <v>12</v>
@@ -55541,7 +55563,7 @@
         <v>0.29444444444444445</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -55549,7 +55571,7 @@
         <v>17</v>
       </c>
       <c r="B90" s="88" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C90" s="89" t="s">
         <v>12</v>
@@ -55588,7 +55610,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="88" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C91" s="89" t="s">
         <v>12</v>
@@ -55621,7 +55643,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -55629,7 +55651,7 @@
         <v>18</v>
       </c>
       <c r="B92" s="88" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C92" s="89" t="s">
         <v>12</v>
@@ -55662,7 +55684,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -55670,7 +55692,7 @@
         <v>18</v>
       </c>
       <c r="B93" s="88" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C93" s="89" t="s">
         <v>12</v>
@@ -55709,7 +55731,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C94" s="89" t="s">
         <v>12</v>
@@ -55742,7 +55764,7 @@
         <v>0.49500000000000005</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -55750,7 +55772,7 @@
         <v>19</v>
       </c>
       <c r="B95" s="88" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C95" s="89" t="s">
         <v>12</v>
@@ -55783,7 +55805,7 @@
         <v>0.60250000000000004</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -55791,7 +55813,7 @@
         <v>19</v>
       </c>
       <c r="B96" s="88" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C96" s="89" t="s">
         <v>12</v>
@@ -55800,10 +55822,10 @@
         <v>933</v>
       </c>
       <c r="E96" s="88" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F96" s="89" t="s">
         <v>2087</v>
-      </c>
-      <c r="F96" s="89" t="s">
-        <v>2088</v>
       </c>
       <c r="G96" s="89" t="s">
         <v>12</v>
@@ -55824,7 +55846,7 @@
         <v>0.52555555555555555</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -55832,7 +55854,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="88" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C97" s="89" t="s">
         <v>12</v>
@@ -55871,7 +55893,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="88" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C98" s="89" t="s">
         <v>17</v>
@@ -55904,7 +55926,7 @@
         <v>0.97933333333333328</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -55912,7 +55934,7 @@
         <v>20</v>
       </c>
       <c r="B99" s="88" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C99" s="89" t="s">
         <v>17</v>
@@ -55945,7 +55967,7 @@
         <v>0.6</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -55953,7 +55975,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="88" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C100" s="89" t="s">
         <v>17</v>
@@ -55992,7 +56014,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="88" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C101" s="89" t="s">
         <v>17</v>
@@ -56025,7 +56047,7 @@
         <v>2.95</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -56033,7 +56055,7 @@
         <v>21</v>
       </c>
       <c r="B102" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C102" s="89" t="s">
         <v>17</v>
@@ -56066,7 +56088,7 @@
         <v>5.5</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -56074,7 +56096,7 @@
         <v>21</v>
       </c>
       <c r="B103" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C103" s="89" t="s">
         <v>17</v>
@@ -56107,7 +56129,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -56115,7 +56137,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C104" s="89" t="s">
         <v>17</v>
@@ -56154,7 +56176,7 @@
         <v>21</v>
       </c>
       <c r="B105" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C105" s="89" t="s">
         <v>17</v>
@@ -56193,7 +56215,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C106" s="89" t="s">
         <v>17</v>
@@ -56232,7 +56254,7 @@
         <v>21</v>
       </c>
       <c r="B107" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C107" s="89" t="s">
         <v>17</v>
@@ -56265,7 +56287,7 @@
         <v>2.75</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -56273,7 +56295,7 @@
         <v>21</v>
       </c>
       <c r="B108" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C108" s="89" t="s">
         <v>17</v>
@@ -56306,7 +56328,7 @@
         <v>5.64</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -56314,7 +56336,7 @@
         <v>21</v>
       </c>
       <c r="B109" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C109" s="89" t="s">
         <v>17</v>
@@ -56347,7 +56369,7 @@
         <v>3.5</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -56355,7 +56377,7 @@
         <v>21</v>
       </c>
       <c r="B110" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C110" s="89" t="s">
         <v>17</v>
@@ -56394,7 +56416,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C111" s="89" t="s">
         <v>17</v>
@@ -56427,7 +56449,7 @@
         <v>4.92</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -56435,7 +56457,7 @@
         <v>21</v>
       </c>
       <c r="B112" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C112" s="89" t="s">
         <v>17</v>
@@ -56468,7 +56490,7 @@
         <v>5.65</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -56476,7 +56498,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C113" s="89" t="s">
         <v>17</v>
@@ -56509,7 +56531,7 @@
         <v>5.33</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -56517,7 +56539,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C114" s="89" t="s">
         <v>17</v>
@@ -56556,7 +56578,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C115" s="89" t="s">
         <v>17</v>
@@ -56565,10 +56587,10 @@
         <v>939</v>
       </c>
       <c r="E115" s="88" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F115" s="89" t="s">
         <v>2093</v>
-      </c>
-      <c r="F115" s="89" t="s">
-        <v>2094</v>
       </c>
       <c r="G115" s="89" t="s">
         <v>12</v>
@@ -56589,7 +56611,7 @@
         <v>2.98</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -56597,7 +56619,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="88" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C116" s="89" t="s">
         <v>17</v>
@@ -56636,7 +56658,7 @@
         <v>22</v>
       </c>
       <c r="B117" s="88" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C117" s="89" t="s">
         <v>12</v>
@@ -56669,7 +56691,7 @@
         <v>0.82714285714285718</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -56677,7 +56699,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="88" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C118" s="89" t="s">
         <v>12</v>
@@ -56710,7 +56732,7 @@
         <v>1.1257142857142857</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -56718,7 +56740,7 @@
         <v>22</v>
       </c>
       <c r="B119" s="88" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C119" s="89" t="s">
         <v>12</v>
@@ -56727,10 +56749,10 @@
         <v>939</v>
       </c>
       <c r="E119" s="135" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F119" s="89" t="s">
         <v>2097</v>
-      </c>
-      <c r="F119" s="89" t="s">
-        <v>2098</v>
       </c>
       <c r="G119" s="89" t="s">
         <v>12</v>
@@ -56751,7 +56773,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -56759,7 +56781,7 @@
         <v>22</v>
       </c>
       <c r="B120" s="88" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C120" s="89" t="s">
         <v>12</v>
@@ -56798,7 +56820,7 @@
         <v>23</v>
       </c>
       <c r="B121" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C121" s="89" t="s">
         <v>12</v>
@@ -56831,7 +56853,7 @@
         <v>2.56</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -56839,7 +56861,7 @@
         <v>23</v>
       </c>
       <c r="B122" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C122" s="89" t="s">
         <v>12</v>
@@ -56872,7 +56894,7 @@
         <v>3.9</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -56880,7 +56902,7 @@
         <v>23</v>
       </c>
       <c r="B123" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C123" s="89" t="s">
         <v>12</v>
@@ -56913,7 +56935,7 @@
         <v>2.77</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -56921,7 +56943,7 @@
         <v>23</v>
       </c>
       <c r="B124" s="116" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C124" s="102" t="s">
         <v>12</v>
@@ -56960,7 +56982,7 @@
         <v>23</v>
       </c>
       <c r="B125" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C125" s="89" t="s">
         <v>12</v>
@@ -56993,7 +57015,7 @@
         <v>2.68</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -57001,7 +57023,7 @@
         <v>23</v>
       </c>
       <c r="B126" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C126" s="89" t="s">
         <v>12</v>
@@ -57034,7 +57056,7 @@
         <v>2.84</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -57042,7 +57064,7 @@
         <v>23</v>
       </c>
       <c r="B127" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C127" s="89" t="s">
         <v>12</v>
@@ -57075,7 +57097,7 @@
         <v>4.9399999999999995</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -57083,7 +57105,7 @@
         <v>23</v>
       </c>
       <c r="B128" s="88" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C128" s="89" t="s">
         <v>12</v>
@@ -57122,7 +57144,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="88" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C129" s="89" t="s">
         <v>12</v>
@@ -57155,7 +57177,7 @@
         <v>0.7526666666666666</v>
       </c>
       <c r="M129" s="11" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -57163,7 +57185,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="88" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C130" s="89" t="s">
         <v>12</v>
@@ -57196,7 +57218,7 @@
         <v>0.72</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -57204,7 +57226,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="88" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C131" s="89" t="s">
         <v>12</v>
@@ -57243,13 +57265,13 @@
         <v>25</v>
       </c>
       <c r="B132" s="88" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C132" s="89" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="90" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E132" s="88" t="s">
         <v>23</v>
@@ -57276,7 +57298,7 @@
         <v>780</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -57284,7 +57306,7 @@
         <v>25</v>
       </c>
       <c r="B133" s="88" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C133" s="89" t="s">
         <v>17</v>
@@ -57317,7 +57339,7 @@
         <v>600</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -57325,7 +57347,7 @@
         <v>25</v>
       </c>
       <c r="B134" s="88" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C134" s="89" t="s">
         <v>17</v>
@@ -57358,7 +57380,7 @@
         <v>346</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -57366,13 +57388,13 @@
         <v>25</v>
       </c>
       <c r="B135" s="88" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C135" s="89" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="90" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E135" s="88" t="s">
         <v>55</v>
@@ -57399,7 +57421,7 @@
         <v>980</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -57407,13 +57429,13 @@
         <v>25</v>
       </c>
       <c r="B136" s="88" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C136" s="89" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="90" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E136" s="88" t="s">
         <v>1885</v>
@@ -57446,13 +57468,13 @@
         <v>26</v>
       </c>
       <c r="B137" s="88" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C137" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="90" t="s">
         <v>2106</v>
-      </c>
-      <c r="C137" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="90" t="s">
-        <v>2107</v>
       </c>
       <c r="E137" s="88" t="s">
         <v>1886</v>
@@ -57479,7 +57501,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -57487,13 +57509,13 @@
         <v>26</v>
       </c>
       <c r="B138" s="88" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C138" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="90" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E138" s="88" t="s">
         <v>183</v>
@@ -57520,7 +57542,7 @@
         <v>2.9530000000000003</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -57528,13 +57550,13 @@
         <v>26</v>
       </c>
       <c r="B139" s="88" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C139" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="90" t="s">
         <v>2106</v>
-      </c>
-      <c r="C139" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="90" t="s">
-        <v>2107</v>
       </c>
       <c r="E139" s="88" t="s">
         <v>218</v>
@@ -57561,7 +57583,7 @@
         <v>1.8</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -57569,19 +57591,19 @@
         <v>26</v>
       </c>
       <c r="B140" s="88" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C140" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="90" t="s">
         <v>2106</v>
       </c>
-      <c r="C140" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="90" t="s">
-        <v>2107</v>
-      </c>
       <c r="E140" s="88" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F140" s="89" t="s">
         <v>2109</v>
-      </c>
-      <c r="F140" s="89" t="s">
-        <v>2110</v>
       </c>
       <c r="G140" s="89" t="s">
         <v>12</v>
@@ -57602,7 +57624,7 @@
         <v>1.9159999999999999</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -57610,13 +57632,13 @@
         <v>26</v>
       </c>
       <c r="B141" s="88" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C141" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="90" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E141" s="88" t="s">
         <v>973</v>
@@ -57649,13 +57671,13 @@
         <v>27</v>
       </c>
       <c r="B142" s="88" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C142" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="90" t="s">
         <v>2111</v>
-      </c>
-      <c r="C142" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="90" t="s">
-        <v>2112</v>
       </c>
       <c r="E142" s="88" t="s">
         <v>218</v>
@@ -57682,7 +57704,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -57690,13 +57712,13 @@
         <v>27</v>
       </c>
       <c r="B143" s="88" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C143" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="90" t="s">
         <v>2111</v>
-      </c>
-      <c r="C143" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="90" t="s">
-        <v>2112</v>
       </c>
       <c r="E143" s="88" t="s">
         <v>502</v>
@@ -57723,7 +57745,7 @@
         <v>0.38</v>
       </c>
       <c r="M143" s="11" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -57731,13 +57753,13 @@
         <v>27</v>
       </c>
       <c r="B144" s="88" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C144" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="90" t="s">
         <v>2111</v>
-      </c>
-      <c r="C144" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="90" t="s">
-        <v>2112</v>
       </c>
       <c r="E144" s="88" t="s">
         <v>55</v>
@@ -57764,7 +57786,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -57772,13 +57794,13 @@
         <v>27</v>
       </c>
       <c r="B145" s="88" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C145" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="90" t="s">
         <v>2111</v>
-      </c>
-      <c r="C145" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="90" t="s">
-        <v>2112</v>
       </c>
       <c r="E145" s="88" t="s">
         <v>973</v>
@@ -57811,13 +57833,13 @@
         <v>28</v>
       </c>
       <c r="B146" s="88" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C146" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="90" t="s">
         <v>2113</v>
-      </c>
-      <c r="C146" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="90" t="s">
-        <v>2114</v>
       </c>
       <c r="E146" s="88" t="s">
         <v>1887</v>
@@ -57844,7 +57866,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -57852,13 +57874,13 @@
         <v>28</v>
       </c>
       <c r="B147" s="88" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C147" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="90" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E147" s="88" t="s">
         <v>1882</v>
@@ -57885,7 +57907,7 @@
         <v>2.3624999999999998</v>
       </c>
       <c r="M147" s="11" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -57893,13 +57915,13 @@
         <v>28</v>
       </c>
       <c r="B148" s="88" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C148" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="90" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E148" s="88" t="s">
         <v>1881</v>
@@ -57926,7 +57948,7 @@
         <v>2.4087499999999999</v>
       </c>
       <c r="M148" s="11" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -57934,13 +57956,13 @@
         <v>28</v>
       </c>
       <c r="B149" s="88" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C149" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="90" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E149" s="88" t="s">
         <v>502</v>
@@ -57967,7 +57989,7 @@
         <v>0.32</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -57975,13 +57997,13 @@
         <v>28</v>
       </c>
       <c r="B150" s="88" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C150" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="90" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E150" s="94" t="s">
         <v>1043</v>
@@ -58014,13 +58036,13 @@
         <v>29</v>
       </c>
       <c r="B151" s="88" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C151" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="90" t="s">
         <v>2116</v>
-      </c>
-      <c r="C151" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="90" t="s">
-        <v>2117</v>
       </c>
       <c r="E151" s="94" t="s">
         <v>1888</v>
@@ -58047,7 +58069,7 @@
         <v>0.67999999999999994</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -58055,13 +58077,13 @@
         <v>29</v>
       </c>
       <c r="B152" s="88" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C152" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E152" s="88" t="s">
         <v>1889</v>
@@ -58088,7 +58110,7 @@
         <v>0.73583333333333334</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -58096,13 +58118,13 @@
         <v>29</v>
       </c>
       <c r="B153" s="88" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C153" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E153" s="88" t="s">
         <v>1890</v>
@@ -58129,7 +58151,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -58137,13 +58159,13 @@
         <v>29</v>
       </c>
       <c r="B154" s="88" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C154" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E154" s="88" t="s">
         <v>1072</v>
@@ -58170,7 +58192,7 @@
         <v>0.75</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -58178,16 +58200,16 @@
         <v>29</v>
       </c>
       <c r="B155" s="88" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C155" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="90" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E155" s="88" t="s">
         <v>2118</v>
-      </c>
-      <c r="C155" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="90" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E155" s="88" t="s">
-        <v>2119</v>
       </c>
       <c r="F155" s="89" t="s">
         <v>2005</v>
@@ -58217,7 +58239,7 @@
         <v>30</v>
       </c>
       <c r="B156" s="88" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C156" s="89" t="s">
         <v>25</v>
@@ -58250,7 +58272,7 @@
         <v>0.23933333333333331</v>
       </c>
       <c r="M156" s="11" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -58258,7 +58280,7 @@
         <v>30</v>
       </c>
       <c r="B157" s="88" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C157" s="89" t="s">
         <v>25</v>
@@ -58291,7 +58313,7 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -58299,7 +58321,7 @@
         <v>30</v>
       </c>
       <c r="B158" s="88" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C158" s="89" t="s">
         <v>25</v>
@@ -58338,7 +58360,7 @@
         <v>31</v>
       </c>
       <c r="B159" s="88" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C159" s="89" t="s">
         <v>25</v>
@@ -58371,7 +58393,7 @@
         <v>26.6</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -58379,7 +58401,7 @@
         <v>31</v>
       </c>
       <c r="B160" s="88" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C160" s="89" t="s">
         <v>25</v>
@@ -58412,7 +58434,7 @@
         <v>22.816666666666666</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -58420,7 +58442,7 @@
         <v>31</v>
       </c>
       <c r="B161" s="88" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C161" s="89" t="s">
         <v>25</v>
@@ -58459,7 +58481,7 @@
         <v>32</v>
       </c>
       <c r="B162" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C162" s="89" t="s">
         <v>12</v>
@@ -58468,7 +58490,7 @@
         <v>951</v>
       </c>
       <c r="E162" s="88" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F162" s="89" t="s">
         <v>1554</v>
@@ -58492,7 +58514,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -58500,7 +58522,7 @@
         <v>32</v>
       </c>
       <c r="B163" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C163" s="89" t="s">
         <v>12</v>
@@ -58539,7 +58561,7 @@
         <v>32</v>
       </c>
       <c r="B164" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C164" s="89" t="s">
         <v>12</v>
@@ -58578,7 +58600,7 @@
         <v>32</v>
       </c>
       <c r="B165" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C165" s="89" t="s">
         <v>12</v>
@@ -58611,7 +58633,7 @@
         <v>1.1028571428571428</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -58619,7 +58641,7 @@
         <v>32</v>
       </c>
       <c r="B166" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C166" s="89" t="s">
         <v>12</v>
@@ -58652,7 +58674,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -58660,7 +58682,7 @@
         <v>32</v>
       </c>
       <c r="B167" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C167" s="89" t="s">
         <v>12</v>
@@ -58699,7 +58721,7 @@
         <v>32</v>
       </c>
       <c r="B168" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C168" s="89" t="s">
         <v>12</v>
@@ -58708,7 +58730,7 @@
         <v>951</v>
       </c>
       <c r="E168" s="88" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F168" s="89" t="s">
         <v>1371</v>
@@ -58732,7 +58754,7 @@
         <v>0.92</v>
       </c>
       <c r="M168" s="11" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -58740,7 +58762,7 @@
         <v>32</v>
       </c>
       <c r="B169" s="88" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="C169" s="89" t="s">
         <v>12</v>
@@ -58779,7 +58801,7 @@
         <v>33</v>
       </c>
       <c r="B170" s="88" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C170" s="89" t="s">
         <v>25</v>
@@ -58812,7 +58834,7 @@
         <v>0.59906250000000005</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -58820,7 +58842,7 @@
         <v>33</v>
       </c>
       <c r="B171" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C171" s="89" t="s">
         <v>25</v>
@@ -58853,7 +58875,7 @@
         <v>0.48071428571428576</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -58861,7 +58883,7 @@
         <v>33</v>
       </c>
       <c r="B172" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C172" s="89" t="s">
         <v>25</v>
@@ -58900,7 +58922,7 @@
         <v>33</v>
       </c>
       <c r="B173" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C173" s="89" t="s">
         <v>25</v>
@@ -58933,7 +58955,7 @@
         <v>0.47714285714285715</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -58941,7 +58963,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C174" s="89" t="s">
         <v>25</v>
@@ -58974,7 +58996,7 @@
         <v>0.46035714285714285</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -58982,7 +59004,7 @@
         <v>33</v>
       </c>
       <c r="B175" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C175" s="89" t="s">
         <v>25</v>
@@ -59015,7 +59037,7 @@
         <v>0.47785714285714287</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -59023,7 +59045,7 @@
         <v>33</v>
       </c>
       <c r="B176" s="88" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C176" s="89" t="s">
         <v>25</v>
@@ -59063,10 +59085,10 @@
         <v>34</v>
       </c>
       <c r="B177" s="88" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C177" s="89" t="s">
         <v>2128</v>
-      </c>
-      <c r="C177" s="89" t="s">
-        <v>2129</v>
       </c>
       <c r="D177" s="90" t="s">
         <v>929</v>
@@ -59084,7 +59106,7 @@
         <v>25</v>
       </c>
       <c r="I177" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J177" s="126">
         <v>477.84089999999998</v>
@@ -59096,7 +59118,7 @@
         <v>179</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -59104,10 +59126,10 @@
         <v>34</v>
       </c>
       <c r="B178" s="88" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C178" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D178" s="90" t="s">
         <v>935</v>
@@ -59125,7 +59147,7 @@
         <v>25</v>
       </c>
       <c r="I178" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J178" s="126">
         <v>139.37909999999999</v>
@@ -59137,7 +59159,7 @@
         <v>48.666000000000004</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -59145,10 +59167,10 @@
         <v>34</v>
       </c>
       <c r="B179" s="88" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C179" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D179" s="90" t="s">
         <v>929</v>
@@ -59160,7 +59182,7 @@
         <v>339</v>
       </c>
       <c r="G179" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H179" s="89" t="s">
         <v>28</v>
@@ -59184,13 +59206,13 @@
         <v>35</v>
       </c>
       <c r="B180" s="88" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C180" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="90" t="s">
         <v>2131</v>
-      </c>
-      <c r="C180" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="90" t="s">
-        <v>2132</v>
       </c>
       <c r="E180" s="88" t="s">
         <v>1894</v>
@@ -59217,7 +59239,7 @@
         <v>2.35</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -59225,13 +59247,13 @@
         <v>35</v>
       </c>
       <c r="B181" s="88" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C181" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="90" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E181" s="88" t="s">
         <v>1895</v>
@@ -59258,7 +59280,7 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -59266,13 +59288,13 @@
         <v>35</v>
       </c>
       <c r="B182" s="88" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C182" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="90" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E182" s="94" t="s">
         <v>1077</v>
@@ -59299,7 +59321,7 @@
         <v>2.2800000000000002</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -59307,19 +59329,19 @@
         <v>35</v>
       </c>
       <c r="B183" s="88" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C183" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="90" t="s">
         <v>2131</v>
       </c>
-      <c r="C183" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="90" t="s">
-        <v>2132</v>
-      </c>
       <c r="E183" s="94" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F183" s="89" t="s">
         <v>2134</v>
-      </c>
-      <c r="F183" s="89" t="s">
-        <v>2135</v>
       </c>
       <c r="G183" s="89" t="s">
         <v>2022</v>
@@ -59334,13 +59356,13 @@
         <v>4.72</v>
       </c>
       <c r="K183" s="127" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L183" s="128">
         <v>2.2879999999999998</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -59348,13 +59370,13 @@
         <v>35</v>
       </c>
       <c r="B184" s="88" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C184" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="90" t="s">
         <v>2131</v>
-      </c>
-      <c r="C184" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="90" t="s">
-        <v>2132</v>
       </c>
       <c r="E184" s="94" t="s">
         <v>1896</v>
@@ -59363,7 +59385,7 @@
         <v>260</v>
       </c>
       <c r="G184" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H184" s="89" t="s">
         <v>28</v>
@@ -59387,13 +59409,13 @@
         <v>36</v>
       </c>
       <c r="B185" s="88" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C185" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="90" t="s">
-        <v>2138</v>
+        <v>2345</v>
       </c>
       <c r="E185" s="88" t="s">
         <v>183</v>
@@ -59420,7 +59442,7 @@
         <v>1.3885714285714286</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -59428,13 +59450,13 @@
         <v>36</v>
       </c>
       <c r="B186" s="88" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C186" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="90" t="s">
-        <v>2138</v>
+        <v>2345</v>
       </c>
       <c r="E186" s="94" t="s">
         <v>1859</v>
@@ -59461,7 +59483,7 @@
         <v>2.7626666666666666</v>
       </c>
       <c r="M186" s="11" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -59469,13 +59491,13 @@
         <v>36</v>
       </c>
       <c r="B187" s="88" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C187" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="90" t="s">
-        <v>2138</v>
+        <v>2345</v>
       </c>
       <c r="E187" s="88" t="s">
         <v>554</v>
@@ -59508,13 +59530,13 @@
         <v>36</v>
       </c>
       <c r="B188" s="88" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C188" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="90" t="s">
-        <v>2138</v>
+        <v>2345</v>
       </c>
       <c r="E188" s="88" t="s">
         <v>1061</v>
@@ -59523,7 +59545,7 @@
         <v>456</v>
       </c>
       <c r="G188" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H188" s="89" t="s">
         <v>28</v>
@@ -59547,13 +59569,13 @@
         <v>37</v>
       </c>
       <c r="B189" s="88" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="C189" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="90" t="s">
-        <v>2141</v>
+        <v>2346</v>
       </c>
       <c r="E189" s="88" t="s">
         <v>202</v>
@@ -59580,7 +59602,7 @@
         <v>1.8</v>
       </c>
       <c r="M189" s="11" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -59588,13 +59610,13 @@
         <v>37</v>
       </c>
       <c r="B190" s="88" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C190" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="90" t="s">
-        <v>2141</v>
+        <v>2346</v>
       </c>
       <c r="E190" s="88" t="s">
         <v>554</v>
@@ -59621,7 +59643,7 @@
         <v>1.93</v>
       </c>
       <c r="M190" s="11" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -59629,13 +59651,13 @@
         <v>37</v>
       </c>
       <c r="B191" s="88" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C191" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="90" t="s">
-        <v>2141</v>
+        <v>2346</v>
       </c>
       <c r="E191" s="88" t="s">
         <v>1061</v>
@@ -59644,7 +59666,7 @@
         <v>456</v>
       </c>
       <c r="G191" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H191" s="89" t="s">
         <v>28</v>
@@ -59668,10 +59690,10 @@
         <v>38</v>
       </c>
       <c r="B192" s="88" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="C192" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D192" s="90" t="s">
         <v>941</v>
@@ -59701,7 +59723,7 @@
         <v>11.988</v>
       </c>
       <c r="M192" s="11" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -59709,10 +59731,10 @@
         <v>38</v>
       </c>
       <c r="B193" s="88" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C193" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D193" s="90" t="s">
         <v>941</v>
@@ -59742,7 +59764,7 @@
         <v>29.380000000000003</v>
       </c>
       <c r="M193" s="11" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -59750,10 +59772,10 @@
         <v>38</v>
       </c>
       <c r="B194" s="139" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="C194" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D194" s="140" t="s">
         <v>937</v>
@@ -59762,7 +59784,7 @@
         <v>1911</v>
       </c>
       <c r="F194" s="110" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="G194" s="89" t="s">
         <v>25</v>
@@ -59777,13 +59799,13 @@
         <v>315.69299999999998</v>
       </c>
       <c r="K194" s="127" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L194" s="128">
         <v>34.799999999999997</v>
       </c>
       <c r="M194" s="11" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -59791,10 +59813,10 @@
         <v>38</v>
       </c>
       <c r="B195" s="88" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C195" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D195" s="90" t="s">
         <v>937</v>
@@ -59806,7 +59828,7 @@
         <v>295</v>
       </c>
       <c r="G195" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H195" s="89" t="s">
         <v>28</v>
@@ -59830,7 +59852,7 @@
         <v>39</v>
       </c>
       <c r="B196" s="88" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="C196" s="89" t="s">
         <v>25</v>
@@ -59842,7 +59864,7 @@
         <v>1268</v>
       </c>
       <c r="F196" s="89" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="G196" s="89" t="s">
         <v>2022</v>
@@ -59869,7 +59891,7 @@
         <v>39</v>
       </c>
       <c r="B197" s="88" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C197" s="89" t="s">
         <v>25</v>
@@ -59902,7 +59924,7 @@
         <v>0.35333333333333333</v>
       </c>
       <c r="M197" s="11" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -59910,7 +59932,7 @@
         <v>39</v>
       </c>
       <c r="B198" s="88" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C198" s="89" t="s">
         <v>25</v>
@@ -59943,7 +59965,7 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="M198" s="11" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -59951,7 +59973,7 @@
         <v>39</v>
       </c>
       <c r="B199" s="88" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C199" s="89" t="s">
         <v>25</v>
@@ -59984,7 +60006,7 @@
         <v>0.40433333333333338</v>
       </c>
       <c r="M199" s="11" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -59992,19 +60014,19 @@
         <v>40</v>
       </c>
       <c r="B200" s="88" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C200" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D200" s="90" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="E200" s="88" t="s">
         <v>1900</v>
       </c>
       <c r="F200" s="89" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="G200" s="89" t="s">
         <v>2022</v>
@@ -60031,13 +60053,13 @@
         <v>40</v>
       </c>
       <c r="B201" s="88" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C201" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="E201" s="88" t="s">
         <v>1901</v>
@@ -60070,13 +60092,13 @@
         <v>40</v>
       </c>
       <c r="B202" s="88" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C202" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D202" s="90" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="E202" s="94" t="s">
         <v>23</v>
@@ -60091,7 +60113,7 @@
         <v>25</v>
       </c>
       <c r="I202" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J202" s="126">
         <v>3.1</v>
@@ -60103,7 +60125,7 @@
         <v>0.46</v>
       </c>
       <c r="M202" s="11" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -60111,10 +60133,10 @@
         <v>40</v>
       </c>
       <c r="B203" s="88" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C203" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D203" s="90" t="s">
         <v>2046</v>
@@ -60132,7 +60154,7 @@
         <v>25</v>
       </c>
       <c r="I203" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J203" s="126">
         <v>5.27</v>
@@ -60144,7 +60166,7 @@
         <v>0.86071428571428577</v>
       </c>
       <c r="M203" s="11" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -60152,10 +60174,10 @@
         <v>40</v>
       </c>
       <c r="B204" s="88" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C204" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D204" s="90" t="s">
         <v>2046</v>
@@ -60167,7 +60189,7 @@
         <v>456</v>
       </c>
       <c r="G204" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H204" s="89" t="s">
         <v>28</v>
@@ -60191,7 +60213,7 @@
         <v>41</v>
       </c>
       <c r="B205" s="88" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="C205" s="89" t="s">
         <v>2022</v>
@@ -60212,7 +60234,7 @@
         <v>25</v>
       </c>
       <c r="I205" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J205" s="126">
         <v>3.05</v>
@@ -60224,7 +60246,7 @@
         <v>0.8640000000000001</v>
       </c>
       <c r="M205" s="11" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -60232,7 +60254,7 @@
         <v>41</v>
       </c>
       <c r="B206" s="88" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C206" s="89" t="s">
         <v>2022</v>
@@ -60253,7 +60275,7 @@
         <v>25</v>
       </c>
       <c r="I206" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J206" s="126">
         <v>3.05</v>
@@ -60265,7 +60287,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="M206" s="11" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -60273,7 +60295,7 @@
         <v>41</v>
       </c>
       <c r="B207" s="88" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C207" s="89" t="s">
         <v>2022</v>
@@ -60312,19 +60334,19 @@
         <v>42</v>
       </c>
       <c r="B208" s="88" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C208" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D208" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E208" s="88" t="s">
         <v>1904</v>
       </c>
       <c r="F208" s="89" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="G208" s="89" t="s">
         <v>2022</v>
@@ -60345,7 +60367,7 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="M208" s="11" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -60353,19 +60375,19 @@
         <v>42</v>
       </c>
       <c r="B209" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C209" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D209" s="90" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="E209" s="88" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="F209" s="110" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="G209" s="89" t="s">
         <v>2022</v>
@@ -60380,13 +60402,13 @@
         <v>4.0392000000000001</v>
       </c>
       <c r="K209" s="127" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L209" s="128">
         <v>0.46266666666666667</v>
       </c>
       <c r="M209" s="11" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -60394,19 +60416,19 @@
         <v>42</v>
       </c>
       <c r="B210" s="88" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C210" s="89" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D210" s="90" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E210" s="88" t="s">
         <v>2157</v>
       </c>
-      <c r="C210" s="89" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D210" s="90" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E210" s="88" t="s">
-        <v>2160</v>
-      </c>
       <c r="F210" s="110" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="G210" s="89" t="s">
         <v>2022</v>
@@ -60421,13 +60443,13 @@
         <v>6.8666999999999998</v>
       </c>
       <c r="K210" s="127" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L210" s="128">
         <v>0.76</v>
       </c>
       <c r="M210" s="11" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -60435,19 +60457,19 @@
         <v>42</v>
       </c>
       <c r="B211" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C211" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D211" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E211" s="88" t="s">
         <v>1905</v>
       </c>
       <c r="F211" s="110" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="G211" s="89" t="s">
         <v>2022</v>
@@ -60462,7 +60484,7 @@
         <v>6.8666999999999998</v>
       </c>
       <c r="K211" s="127" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="L211" s="129">
         <v>3.3999000000000001</v>
@@ -60474,19 +60496,19 @@
         <v>42</v>
       </c>
       <c r="B212" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C212" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D212" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E212" s="88" t="s">
         <v>1906</v>
       </c>
       <c r="F212" s="110" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="G212" s="89" t="s">
         <v>2022</v>
@@ -60507,7 +60529,7 @@
         <v>2.4314285714285715</v>
       </c>
       <c r="M212" s="11" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -60515,19 +60537,19 @@
         <v>42</v>
       </c>
       <c r="B213" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C213" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D213" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E213" s="88" t="s">
         <v>1859</v>
       </c>
       <c r="F213" s="110" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="G213" s="89" t="s">
         <v>2022</v>
@@ -60548,7 +60570,7 @@
         <v>2.608571428571429</v>
       </c>
       <c r="M213" s="11" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -60556,19 +60578,19 @@
         <v>42</v>
       </c>
       <c r="B214" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C214" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D214" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E214" s="88" t="s">
         <v>196</v>
       </c>
       <c r="F214" s="110" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="G214" s="89" t="s">
         <v>2022</v>
@@ -60589,7 +60611,7 @@
         <v>0.51714285714285713</v>
       </c>
       <c r="M214" s="11" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -60597,13 +60619,13 @@
         <v>42</v>
       </c>
       <c r="B215" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C215" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D215" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E215" s="88" t="s">
         <v>975</v>
@@ -60630,7 +60652,7 @@
         <v>2.6749999999999998</v>
       </c>
       <c r="M215" s="11" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -60638,13 +60660,13 @@
         <v>42</v>
       </c>
       <c r="B216" s="88" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C216" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D216" s="90" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E216" s="88" t="s">
         <v>1907</v>
@@ -60653,7 +60675,7 @@
         <v>296</v>
       </c>
       <c r="G216" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="H216" s="89" t="s">
         <v>28</v>
@@ -60677,13 +60699,13 @@
         <v>43</v>
       </c>
       <c r="B217" s="88" t="s">
-        <v>2166</v>
+        <v>2341</v>
       </c>
       <c r="C217" s="89" t="s">
         <v>2022</v>
       </c>
       <c r="D217" s="90" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="E217" s="88" t="s">
         <v>1908</v>
@@ -60698,7 +60720,7 @@
         <v>25</v>
       </c>
       <c r="I217" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J217" s="126">
         <v>23.48</v>
@@ -60710,7 +60732,7 @@
         <v>5.8</v>
       </c>
       <c r="M217" s="11" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -60718,13 +60740,13 @@
         <v>43</v>
       </c>
       <c r="B218" s="88" t="s">
-        <v>2168</v>
+        <v>2342</v>
       </c>
       <c r="C218" s="89" t="s">
         <v>2022</v>
       </c>
       <c r="D218" s="90" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="E218" s="88" t="s">
         <v>1121</v>
@@ -60739,7 +60761,7 @@
         <v>25</v>
       </c>
       <c r="I218" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J218" s="126">
         <v>39.915999999999997</v>
@@ -60751,68 +60773,66 @@
         <v>13.38</v>
       </c>
       <c r="M218" s="11" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" s="88">
-        <v>44</v>
-      </c>
-      <c r="B219" s="88" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C219" s="89" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D219" s="90" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E219" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="F219" s="89" t="s">
-        <v>376</v>
-      </c>
-      <c r="G219" s="89" t="s">
-        <v>2022</v>
-      </c>
-      <c r="H219" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="I219" s="89" t="s">
-        <v>2129</v>
-      </c>
-      <c r="J219" s="126">
-        <v>4.8</v>
-      </c>
-      <c r="K219" s="127" t="s">
-        <v>2136</v>
-      </c>
-      <c r="L219" s="128">
-        <v>2.1</v>
-      </c>
-      <c r="M219" s="11" t="s">
-        <v>2340</v>
-      </c>
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="101">
+        <v>43</v>
+      </c>
+      <c r="B219" s="101" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C219" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="159" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E219" s="101" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F219" s="158" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G219" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H219" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="I219" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="J219" s="160">
+        <v>23.48</v>
+      </c>
+      <c r="K219" s="113">
+        <v>26.08</v>
+      </c>
+      <c r="L219" s="161">
+        <v>19.96</v>
+      </c>
+      <c r="M219" s="158"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="88">
         <v>44</v>
       </c>
       <c r="B220" s="88" t="s">
-        <v>2168</v>
+        <v>2343</v>
       </c>
       <c r="C220" s="89" t="s">
         <v>2022</v>
       </c>
       <c r="D220" s="90" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="E220" s="88" t="s">
-        <v>1909</v>
+        <v>107</v>
       </c>
       <c r="F220" s="89" t="s">
-        <v>1980</v>
+        <v>376</v>
       </c>
       <c r="G220" s="89" t="s">
         <v>2022</v>
@@ -60821,19 +60841,19 @@
         <v>25</v>
       </c>
       <c r="I220" s="89" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J220" s="126">
         <v>4.8</v>
       </c>
-      <c r="K220" s="127">
-        <v>6.8</v>
+      <c r="K220" s="127" t="s">
+        <v>2135</v>
       </c>
       <c r="L220" s="128">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M220" s="11" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -60841,87 +60861,87 @@
         <v>44</v>
       </c>
       <c r="B221" s="88" t="s">
-        <v>2166</v>
+        <v>2343</v>
       </c>
       <c r="C221" s="89" t="s">
         <v>2022</v>
       </c>
       <c r="D221" s="90" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="E221" s="88" t="s">
-        <v>1122</v>
+        <v>1909</v>
       </c>
       <c r="F221" s="89" t="s">
-        <v>1596</v>
+        <v>1980</v>
       </c>
       <c r="G221" s="89" t="s">
-        <v>2129</v>
+        <v>2022</v>
       </c>
       <c r="H221" s="89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I221" s="89" t="s">
-        <v>25</v>
+        <v>2128</v>
       </c>
       <c r="J221" s="126">
         <v>4.8</v>
       </c>
       <c r="K221" s="127">
-        <v>5.13</v>
-      </c>
-      <c r="L221" s="129">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="M221" s="89"/>
+        <v>6.8</v>
+      </c>
+      <c r="L221" s="128">
+        <v>2.15</v>
+      </c>
+      <c r="M221" s="11" t="s">
+        <v>2336</v>
+      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="88">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B222" s="88" t="s">
-        <v>2171</v>
+        <v>2344</v>
       </c>
       <c r="C222" s="89" t="s">
         <v>2022</v>
       </c>
       <c r="D222" s="90" t="s">
-        <v>2046</v>
+        <v>2165</v>
       </c>
       <c r="E222" s="88" t="s">
-        <v>1910</v>
+        <v>1122</v>
       </c>
       <c r="F222" s="89" t="s">
-        <v>1981</v>
+        <v>1596</v>
       </c>
       <c r="G222" s="89" t="s">
-        <v>2022</v>
+        <v>2128</v>
       </c>
       <c r="H222" s="89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I222" s="89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J222" s="126">
-        <v>2500</v>
+        <v>4.8</v>
       </c>
       <c r="K222" s="127">
-        <v>2283</v>
-      </c>
-      <c r="L222" s="128">
-        <v>777.5</v>
-      </c>
-      <c r="M222" s="11" t="s">
-        <v>2342</v>
-      </c>
+        <v>5.13</v>
+      </c>
+      <c r="L222" s="129">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M222" s="89"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="88">
         <v>45</v>
       </c>
       <c r="B223" s="88" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="C223" s="89" t="s">
         <v>2022</v>
@@ -60930,10 +60950,10 @@
         <v>2046</v>
       </c>
       <c r="E223" s="88" t="s">
-        <v>992</v>
+        <v>1910</v>
       </c>
       <c r="F223" s="89" t="s">
-        <v>1425</v>
+        <v>1981</v>
       </c>
       <c r="G223" s="89" t="s">
         <v>2022</v>
@@ -60948,13 +60968,13 @@
         <v>2500</v>
       </c>
       <c r="K223" s="127">
-        <v>2547.5</v>
+        <v>2283</v>
       </c>
       <c r="L223" s="128">
-        <v>548.88</v>
+        <v>777.5</v>
       </c>
       <c r="M223" s="11" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -60962,7 +60982,7 @@
         <v>45</v>
       </c>
       <c r="B224" s="88" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="C224" s="89" t="s">
         <v>2022</v>
@@ -60971,10 +60991,10 @@
         <v>2046</v>
       </c>
       <c r="E224" s="88" t="s">
-        <v>23</v>
+        <v>992</v>
       </c>
       <c r="F224" s="89" t="s">
-        <v>267</v>
+        <v>1425</v>
       </c>
       <c r="G224" s="89" t="s">
         <v>2022</v>
@@ -60989,13 +61009,13 @@
         <v>2500</v>
       </c>
       <c r="K224" s="127">
-        <v>2566.66</v>
+        <v>2547.5</v>
       </c>
       <c r="L224" s="128">
-        <v>486</v>
+        <v>548.88</v>
       </c>
       <c r="M224" s="11" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -61003,7 +61023,7 @@
         <v>45</v>
       </c>
       <c r="B225" s="88" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="C225" s="89" t="s">
         <v>2022</v>
@@ -61011,34 +61031,75 @@
       <c r="D225" s="90" t="s">
         <v>2046</v>
       </c>
-      <c r="E225" s="11" t="s">
-        <v>220</v>
+      <c r="E225" s="88" t="s">
+        <v>23</v>
       </c>
       <c r="F225" s="89" t="s">
-        <v>397</v>
+        <v>267</v>
       </c>
       <c r="G225" s="89" t="s">
-        <v>2129</v>
+        <v>2022</v>
       </c>
       <c r="H225" s="89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I225" s="89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J225" s="126">
         <v>2500</v>
       </c>
-      <c r="K225" s="127" t="s">
-        <v>2136</v>
-      </c>
-      <c r="L225" s="129">
+      <c r="K225" s="127">
+        <v>2566.66</v>
+      </c>
+      <c r="L225" s="128">
+        <v>486</v>
+      </c>
+      <c r="M225" s="11" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" s="88">
+        <v>45</v>
+      </c>
+      <c r="B226" s="88" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C226" s="89" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D226" s="90" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F226" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="G226" s="89" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H226" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I226" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J226" s="126">
+        <v>2500</v>
+      </c>
+      <c r="K226" s="127" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L226" s="129">
         <v>1039.8813</v>
       </c>
-      <c r="M225" s="89"/>
+      <c r="M226" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M225" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:M226" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/vbp.xlsx
+++ b/vbp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chencheng\PycharmProjects\datasite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF85C03-2CA5-410C-BE50-0F54AF4E29C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C6A66A-08E3-40B4-867B-EB5F5BF9850A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7525,494 +7525,495 @@
     <t>河北，辽宁，黑龙江，江苏，河南，广西，海南，四川， 贵州，西藏</t>
   </si>
   <si>
+    <t>北京，天津，内蒙古，上海，福建，湖北，广东，重庆， 陕西，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>山东，广西，宁夏</t>
+  </si>
+  <si>
+    <t>吉林，河南，重庆</t>
+  </si>
+  <si>
+    <t>天津，上海，青海</t>
+  </si>
+  <si>
+    <t>辽宁，黑龙江，浙江</t>
+  </si>
+  <si>
+    <t>北京，山西，广东</t>
+  </si>
+  <si>
+    <t>河北，湖北，云南，甘肃</t>
+  </si>
+  <si>
+    <t>江西，湖南，海南</t>
+  </si>
+  <si>
+    <t>内蒙古，安徽，陕西</t>
+  </si>
+  <si>
+    <t>江苏，四川，贵州</t>
+  </si>
+  <si>
+    <t>福建，西藏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，河北，山西，内蒙古，吉林，黑龙江，江苏，福建，山东，广西，贵州，云南，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>辽宁，上海，浙江，安徽，江西，河南，湖北，湖南，广东，海南，重庆，四川，西藏，陕西，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>内蒙古，湖南，贵州，云南，西藏，陕西，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，浙江，福建，江西，河南，湖北，广东，四川，青海</t>
+  </si>
+  <si>
+    <t>北京，河北，山西，上海，山东，海南，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>辽宁，吉林，黑龙江，江苏，安徽，广西，重庆</t>
+  </si>
+  <si>
+    <t>江西，湖北，广东，海南，重庆，云南，陕西</t>
+  </si>
+  <si>
+    <t>河北，吉林，安徽，山东，湖南，贵州，甘肃</t>
+  </si>
+  <si>
+    <t>天津，黑龙江，江苏，河南，四川，西藏，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，山西，内蒙古，辽宁，上海，浙江，福建，广西，宁夏</t>
+  </si>
+  <si>
+    <t>辽宁，江苏，安徽，江西，广西，西藏，宁夏</t>
+  </si>
+  <si>
+    <t>河北，上海，浙江，广东，贵州，云南，青海</t>
+  </si>
+  <si>
+    <t>吉林，黑龙江，山东，湖南，重庆，四川，陕西，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，山西，内蒙古，福建，河南，湖北，海南，甘肃</t>
+  </si>
+  <si>
+    <t>北京，天津，黑龙江，江苏，浙江，湖南，贵州，西藏，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>福建，江西，山东，河南，广东，广西，重庆，四川，云南，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>河北，山西，内蒙古，辽宁，吉林，上海，安徽，湖北，海南，甘肃</t>
+  </si>
+  <si>
+    <t>江西，河南，湖北，广东，海南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，山西，辽宁，浙江，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>内蒙古，上海，江苏，福建，四川，贵州，甘肃</t>
+  </si>
+  <si>
+    <t>河北，吉林，黑龙江，山东，湖南，青海</t>
+  </si>
+  <si>
+    <t>北京，安徽，广西，重庆，云南，西藏</t>
+  </si>
+  <si>
+    <t>北京，山西，吉林，上海，江苏，山东</t>
+  </si>
+  <si>
+    <t>河北，安徽，江西，广西，四川，西藏</t>
+  </si>
+  <si>
+    <t>天津，辽宁，浙江，河南，陕西，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>内蒙古，黑龙江，湖北，重庆，云南，宁夏</t>
+  </si>
+  <si>
+    <t>福建，湖南，广东，海南，贵州，甘肃</t>
+  </si>
+  <si>
+    <t>辽宁，吉林，江苏，河南，广东，广西，四川，云南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>山西，黑龙江，上海，浙江，山东，陕西，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>天津，河北，内蒙古，江西，重庆，西藏，青海</t>
+  </si>
+  <si>
+    <t>北京，安徽，福建，湖北，湖南，海南，贵州</t>
+  </si>
+  <si>
+    <t>天津，河北，山西，内蒙古，上海，江苏，安徽，湖南，广东，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>辽宁，黑龙江，浙江，广西，重庆，贵州，云南，西藏，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>北京，吉林，福建，江西，山东，河南，湖北，海南，四川，青海</t>
+  </si>
+  <si>
+    <t>天津，上海，安徽，江西，河南，湖南，广东，广西，贵州，甘肃，青海</t>
+  </si>
+  <si>
+    <t>北京，河北，内蒙古，吉林，浙江，海南，四川，云南，陕西，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>山西，辽宁，黑龙江，江苏，福建，山东，湖北，重庆，西藏，宁夏</t>
+  </si>
+  <si>
+    <t>北京，天津，山西，内蒙古，辽宁，山东，湖南，广西，重庆，四川，贵州，云南，西藏，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>河北，吉林，黑龙江，上海，江苏，浙江，安徽，福建，江西，河南，湖北，广东，海南，陕西，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，河北，内蒙古，辽宁，江苏，浙江，山东，河南，海南，贵州，西藏，陕西，甘肃，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，山西，吉林，黑龙江，上海，安徽，福建，江西，湖北，湖南，广东，广西，重庆，四川，云南，青海</t>
+  </si>
+  <si>
+    <t>北京，内蒙古，吉林，浙江，安徽，江西，河南，广东，广西，重庆，青海</t>
+  </si>
+  <si>
+    <t>天津，河北，江苏，福建，湖北，海南，四川，陕西，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>山西，辽宁，黑龙江，上海，山东，湖南，贵州，云南，西藏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，山西，辽宁，黑龙江，上海，山东，广西，四川，西藏，陕西，甘肃</t>
+  </si>
+  <si>
+    <t>河北，吉林，江苏，安徽，江西，河南，广东，海南，重庆，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，内蒙古，浙江，福建，湖北，湖南，贵州，云南，青海，宁夏</t>
+  </si>
+  <si>
+    <t>辽宁，黑龙江，上海，浙江，福建，江西，山东，河南，湖北，广西，海南，重庆，西藏，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，河北，山西，内蒙古，吉林，江苏，安徽，湖南，广东，四川，贵州，云南，陕西，甘肃，青海</t>
+  </si>
+  <si>
+    <t>山西，黑龙江，上海，河南，湖北，湖南，重庆，四川，贵州，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>河北，辽宁，浙江，福建，江西，山东，西藏，甘肃，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，内蒙古，吉林，江苏，安徽，广东，广西，海南，云南</t>
+  </si>
+  <si>
+    <t>北京，天津，山西，辽宁，黑龙江，浙江，安徽，福建，江西，山东，河南，湖南，广东，海南，青海，宁夏</t>
+  </si>
+  <si>
+    <t>河北，内蒙古，吉林，上海，江苏，湖北，广西，重庆，四川，贵州，云南，西藏，陕西，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>内蒙古，江苏，陕西</t>
+  </si>
+  <si>
+    <t>山西，吉林，湖北</t>
+  </si>
+  <si>
+    <t>江西，海南，云南</t>
+  </si>
+  <si>
+    <t>北京，广东，贵州</t>
+  </si>
+  <si>
+    <t>湖南，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>河北，黑龙江，山东</t>
+  </si>
+  <si>
+    <t>上海，福建，甘肃</t>
+  </si>
+  <si>
+    <t>天津，安徽，西藏</t>
+  </si>
+  <si>
+    <t>辽宁，四川，青海</t>
+  </si>
+  <si>
+    <t>浙江，河南，广西，重庆</t>
+  </si>
+  <si>
+    <t>北京，山西，内蒙古，江西，河南，湖北，广西，陕西，青海，宁夏</t>
+  </si>
+  <si>
+    <t>天津，上海，福建，湖南，海南，重庆，四川，贵州，西藏，甘肃</t>
+  </si>
+  <si>
+    <t>河北，辽宁，吉林，黑龙江，江苏，浙江，安徽，山东，广东，云南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>吉林，江苏，河南，广西，四川，云南</t>
+  </si>
+  <si>
+    <t>辽宁，安徽，重庆，甘肃，宁夏</t>
+  </si>
+  <si>
+    <t>湖北，湖南，贵州，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，黑龙江，山东，海南，陕西</t>
+  </si>
+  <si>
+    <t>河北，山西，内蒙古，浙江，江西</t>
+  </si>
+  <si>
+    <t>天津，上海，福建，广东，西藏</t>
+  </si>
+  <si>
+    <t>河北，山西，辽宁，上海，福建，河南，湖北，广西，海南，重庆，四川，云南，西藏，青海，宁夏</t>
+  </si>
+  <si>
+    <t>北京，天津，内蒙古，吉林，黑龙江，江苏，浙江，安徽，江西，山东，湖南，广东，贵州，陕西，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>内蒙古，上海，山东，湖南，广东，四川，云南，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>河北，山西，辽宁，浙江，江西，海南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，吉林，江苏，福建，广西，西藏，甘肃</t>
+  </si>
+  <si>
+    <t>黑龙江，安徽，河南，湖北，重庆，贵州，青海</t>
+  </si>
+  <si>
+    <t>河北，辽宁，上海，河南，云南，甘肃，青海</t>
+  </si>
+  <si>
+    <t>内蒙古，吉林，浙江，安徽，江西，山东，广西</t>
+  </si>
+  <si>
+    <t>北京，天津，江苏，湖南，广东，重庆，贵州，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>山西，黑龙江，福建，湖北，海南，四川，西藏，陕西</t>
+  </si>
+  <si>
+    <t>上海，安徽，福建，湖北，广西，四川，西藏，陕西，甘肃，青海</t>
+  </si>
+  <si>
+    <t>天津，山西，辽宁，浙江，江西，山东，河南，广东，海南，贵州，宁夏</t>
+  </si>
+  <si>
+    <t>北京，河北，内蒙古，吉林，黑龙江，江苏，湖南，重庆，云南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>黑龙江，安徽，山东，广西，四川，贵州，西藏，甘肃</t>
+  </si>
+  <si>
+    <t>山西，福建，江西，湖北，重庆，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，河北，吉林，浙江，海南，云南，陕西</t>
+  </si>
+  <si>
+    <t>天津，内蒙古，辽宁，上海，江苏，河南，湖南，广东，青海</t>
+  </si>
+  <si>
+    <t>天津，上海，福建，河南，广东，陕西，甘肃，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>山西，内蒙古，浙江，安徽，湖北，湖南，宁夏</t>
+  </si>
+  <si>
+    <t>北京，河北，黑龙江，江苏，重庆，贵州，云南，西藏</t>
+  </si>
+  <si>
+    <t>辽宁，吉林，江西，山东，广西，海南，四川</t>
+  </si>
+  <si>
+    <t>天津，山西，内蒙古，上海，浙江，福建，江西，山东，湖南，海南，重庆，四川，贵州，青海，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，河北，辽宁，吉林，黑龙江，江苏，安徽，河南，湖北，广东，广西，云南，西藏，陕西，甘肃</t>
+  </si>
+  <si>
+    <t>天津，河北，内蒙古，辽宁，黑龙江，上海，安徽，河南，湖北，湖南，贵州，西藏，甘肃，青海，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，山西，吉林，江苏，浙江，福建，江西，山东，广东，广西，海南，重庆，四川，云南，陕西，宁夏</t>
+  </si>
+  <si>
+    <t>天津，江苏，福建，湖北，广西，重庆，贵州</t>
+  </si>
+  <si>
+    <t>河北，内蒙古，吉林，上海，浙江，陕西，青海</t>
+  </si>
+  <si>
+    <t>山西，辽宁，河南，湖南，广东，海南，云南，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，黑龙江，安徽，江西，山东，四川，西藏，甘肃</t>
+  </si>
+  <si>
+    <t>天津，黑龙江，山东，四川，云南，陕西</t>
+  </si>
+  <si>
+    <t>河北，江苏，河南，广西，重庆，甘肃</t>
+  </si>
+  <si>
+    <t>内蒙古，吉林，上海，安徽，海南，青海</t>
+  </si>
+  <si>
+    <t>北京，浙江，福建，江西，湖南，贵州，宁夏</t>
+  </si>
+  <si>
+    <t>山西，辽宁，湖北，广东，西藏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，山西，辽宁，上海，江苏，浙江，安徽，江西，湖北，重庆，贵州，云南，西藏，甘肃，青海</t>
+  </si>
+  <si>
+    <t>北京，河北，内蒙古，吉林，黑龙江，福建，山东，河南，湖南，广东，广西，海南，四川，陕西，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>吉林，浙江，重庆，贵州，陕西，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，内蒙古，辽宁，安徽，湖北，广东，广西，四川，宁夏</t>
+  </si>
+  <si>
+    <t>北京，河北，山西，江苏，湖南，云南，西藏，青海</t>
+  </si>
+  <si>
+    <t>黑龙江，上海，福建，江西，山东，河南，海南</t>
+  </si>
+  <si>
+    <t>北京，内蒙古，辽宁，吉林，黑龙江，江苏，江西，山东，河南，湖北，湖南，广东，广西，贵州，云南，陕西</t>
+  </si>
+  <si>
+    <t>天津，河北，山西，上海，浙江，安徽，福建，海南，重庆，四川，西藏，甘肃，青海，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>河北，山西，内蒙古，辽宁，江苏，浙江，安徽，福建，江西，河南，海南，重庆，四川，青海，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，吉林，黑龙江，上海，山东，湖北，湖南，广东，广西，贵州，云南，西藏，陕西，甘肃</t>
+  </si>
+  <si>
+    <t>北京，山西，黑龙江，浙江，福建，广东，重庆，四川，陕西，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>河北，内蒙古，辽宁，上海，安徽，河南，湖南，广西，西藏，青海</t>
+  </si>
+  <si>
+    <t>天津，吉林，江苏，江西，山东，湖北，海南，贵州，云南，宁夏</t>
+  </si>
+  <si>
+    <t>安徽，福建，山东，河南，湖南，海南，重庆，贵州，陕西，甘肃，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>北京，天津，河北，内蒙古，黑龙江，上海，江苏，广东，四川，青海</t>
+  </si>
+  <si>
+    <t>山西，辽宁，吉林，浙江，江西，湖北，广西，云南，西藏，宁夏</t>
+  </si>
+  <si>
+    <t>北京，天津，河北，山西，辽宁，吉林，黑龙江，上海，江苏，浙江，江西，湖北，广西，甘肃，宁夏，新疆（含 兵团）</t>
+  </si>
+  <si>
+    <t>内蒙古，安徽，福建，山东，河南，湖南，广东，海南，重庆，四川，贵州，云南，西藏，陕西，青海</t>
+  </si>
+  <si>
+    <t>北京，天津，山西，内蒙古，辽宁，吉林，黑龙江，上海，江苏，山东，河南，湖南，广东，广西，海南，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>河北，浙江，安徽，福建，江西，湖北，重庆，四川，贵州，云南，西藏，陕西，甘肃，青海，宁夏</t>
+  </si>
+  <si>
+    <t>河北，黑龙江，云南，陕西</t>
+  </si>
+  <si>
+    <t>北京，上海，江西，海南</t>
+  </si>
+  <si>
+    <t>江苏，广西，重庆，西藏，甘肃</t>
+  </si>
+  <si>
+    <t>安徽，山东，贵州，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>辽宁，湖北，四川，宁夏</t>
+  </si>
+  <si>
+    <t>山西，吉林，浙江，福建，湖南，广东</t>
+  </si>
+  <si>
+    <t>天津，内蒙古，河南，青海</t>
+  </si>
+  <si>
+    <t>北京，天津，山西，内蒙古，辽宁，黑龙江，上海，河南，湖南，广东，四川，陕西，甘肃，青海，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>河北，吉林，江苏，浙江，安徽，福建，江西，山东，湖北，广西，海南，重庆，贵州，云南，西藏</t>
+  </si>
+  <si>
+    <t>北京，天津，河北，山西，黑龙江，上海，福建，江西，山东，广东，广西，贵州，陕西，甘肃，青海，宁夏</t>
+  </si>
+  <si>
+    <t>内蒙古，辽宁，吉林，江苏，浙江，安徽，河南，湖北，湖南，海南，重庆，四川，云南，西藏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>天津，山西，江西，广东，海南，重庆，四川，西藏，陕西，甘肃</t>
+  </si>
+  <si>
+    <t>河北，内蒙古，上海，江苏，浙江，福建，湖北，湖南，广西，青海</t>
+  </si>
+  <si>
+    <t>北京，辽宁，吉林，黑龙江，安徽，山东，河南，贵州，云南，宁夏，新疆（含兵团）</t>
+  </si>
+  <si>
+    <t>0.25g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃酸钠滴眼剂 0.3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mg+5mg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mg+12.5mg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200mg+300mg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>山西，吉林，浙江，安徽，江西，山东，湖南，云南，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，内蒙古，上海，福建，湖北，广东，重庆， 陕西，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>山东，广西，宁夏</t>
-  </si>
-  <si>
-    <t>吉林，河南，重庆</t>
-  </si>
-  <si>
-    <t>天津，上海，青海</t>
-  </si>
-  <si>
-    <t>辽宁，黑龙江，浙江</t>
-  </si>
-  <si>
-    <t>北京，山西，广东</t>
-  </si>
-  <si>
-    <t>河北，湖北，云南，甘肃</t>
-  </si>
-  <si>
-    <t>江西，湖南，海南</t>
-  </si>
-  <si>
-    <t>内蒙古，安徽，陕西</t>
-  </si>
-  <si>
-    <t>江苏，四川，贵州</t>
-  </si>
-  <si>
-    <t>福建，西藏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，河北，山西，内蒙古，吉林，黑龙江，江苏，福建，山东，广西，贵州，云南，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>辽宁，上海，浙江，安徽，江西，河南，湖北，湖南，广东，海南，重庆，四川，西藏，陕西，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>内蒙古，湖南，贵州，云南，西藏，陕西，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，浙江，福建，江西，河南，湖北，广东，四川，青海</t>
-  </si>
-  <si>
-    <t>北京，河北，山西，上海，山东，海南，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>辽宁，吉林，黑龙江，江苏，安徽，广西，重庆</t>
-  </si>
-  <si>
-    <t>江西，湖北，广东，海南，重庆，云南，陕西</t>
-  </si>
-  <si>
-    <t>河北，吉林，安徽，山东，湖南，贵州，甘肃</t>
-  </si>
-  <si>
-    <t>天津，黑龙江，江苏，河南，四川，西藏，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，山西，内蒙古，辽宁，上海，浙江，福建，广西，宁夏</t>
-  </si>
-  <si>
-    <t>辽宁，江苏，安徽，江西，广西，西藏，宁夏</t>
-  </si>
-  <si>
-    <t>河北，上海，浙江，广东，贵州，云南，青海</t>
-  </si>
-  <si>
-    <t>吉林，黑龙江，山东，湖南，重庆，四川，陕西，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，山西，内蒙古，福建，河南，湖北，海南，甘肃</t>
-  </si>
-  <si>
-    <t>北京，天津，黑龙江，江苏，浙江，湖南，贵州，西藏，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>福建，江西，山东，河南，广东，广西，重庆，四川，云南，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>河北，山西，内蒙古，辽宁，吉林，上海，安徽，湖北，海南，甘肃</t>
-  </si>
-  <si>
-    <t>江西，河南，湖北，广东，海南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，山西，辽宁，浙江，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>内蒙古，上海，江苏，福建，四川，贵州，甘肃</t>
-  </si>
-  <si>
-    <t>河北，吉林，黑龙江，山东，湖南，青海</t>
-  </si>
-  <si>
-    <t>北京，安徽，广西，重庆，云南，西藏</t>
-  </si>
-  <si>
-    <t>北京，山西，吉林，上海，江苏，山东</t>
-  </si>
-  <si>
-    <t>河北，安徽，江西，广西，四川，西藏</t>
-  </si>
-  <si>
-    <t>天津，辽宁，浙江，河南，陕西，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>内蒙古，黑龙江，湖北，重庆，云南，宁夏</t>
-  </si>
-  <si>
-    <t>福建，湖南，广东，海南，贵州，甘肃</t>
-  </si>
-  <si>
-    <t>辽宁，吉林，江苏，河南，广东，广西，四川，云南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>山西，黑龙江，上海，浙江，山东，陕西，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>天津，河北，内蒙古，江西，重庆，西藏，青海</t>
-  </si>
-  <si>
-    <t>北京，安徽，福建，湖北，湖南，海南，贵州</t>
-  </si>
-  <si>
-    <t>天津，河北，山西，内蒙古，上海，江苏，安徽，湖南，广东，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>辽宁，黑龙江，浙江，广西，重庆，贵州，云南，西藏，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>北京，吉林，福建，江西，山东，河南，湖北，海南，四川，青海</t>
-  </si>
-  <si>
-    <t>天津，上海，安徽，江西，河南，湖南，广东，广西，贵州，甘肃，青海</t>
-  </si>
-  <si>
-    <t>北京，河北，内蒙古，吉林，浙江，海南，四川，云南，陕西，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>山西，辽宁，黑龙江，江苏，福建，山东，湖北，重庆，西藏，宁夏</t>
-  </si>
-  <si>
-    <t>北京，天津，山西，内蒙古，辽宁，山东，湖南，广西，重庆，四川，贵州，云南，西藏，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>河北，吉林，黑龙江，上海，江苏，浙江，安徽，福建，江西，河南，湖北，广东，海南，陕西，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，河北，内蒙古，辽宁，江苏，浙江，山东，河南，海南，贵州，西藏，陕西，甘肃，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，山西，吉林，黑龙江，上海，安徽，福建，江西，湖北，湖南，广东，广西，重庆，四川，云南，青海</t>
-  </si>
-  <si>
-    <t>北京，内蒙古，吉林，浙江，安徽，江西，河南，广东，广西，重庆，青海</t>
-  </si>
-  <si>
-    <t>天津，河北，江苏，福建，湖北，海南，四川，陕西，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>山西，辽宁，黑龙江，上海，山东，湖南，贵州，云南，西藏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，山西，辽宁，黑龙江，上海，山东，广西，四川，西藏，陕西，甘肃</t>
-  </si>
-  <si>
-    <t>河北，吉林，江苏，安徽，江西，河南，广东，海南，重庆，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，内蒙古，浙江，福建，湖北，湖南，贵州，云南，青海，宁夏</t>
-  </si>
-  <si>
-    <t>辽宁，黑龙江，上海，浙江，福建，江西，山东，河南，湖北，广西，海南，重庆，西藏，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，河北，山西，内蒙古，吉林，江苏，安徽，湖南，广东，四川，贵州，云南，陕西，甘肃，青海</t>
-  </si>
-  <si>
-    <t>山西，黑龙江，上海，河南，湖北，湖南，重庆，四川，贵州，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>河北，辽宁，浙江，福建，江西，山东，西藏，甘肃，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，内蒙古，吉林，江苏，安徽，广东，广西，海南，云南</t>
-  </si>
-  <si>
-    <t>北京，天津，山西，辽宁，黑龙江，浙江，安徽，福建，江西，山东，河南，湖南，广东，海南，青海，宁夏</t>
-  </si>
-  <si>
-    <t>河北，内蒙古，吉林，上海，江苏，湖北，广西，重庆，四川，贵州，云南，西藏，陕西，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>内蒙古，江苏，陕西</t>
-  </si>
-  <si>
-    <t>山西，吉林，湖北</t>
-  </si>
-  <si>
-    <t>江西，海南，云南</t>
-  </si>
-  <si>
-    <t>北京，广东，贵州</t>
-  </si>
-  <si>
-    <t>湖南，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>河北，黑龙江，山东</t>
-  </si>
-  <si>
-    <t>上海，福建，甘肃</t>
-  </si>
-  <si>
-    <t>天津，安徽，西藏</t>
-  </si>
-  <si>
-    <t>辽宁，四川，青海</t>
-  </si>
-  <si>
-    <t>浙江，河南，广西，重庆</t>
-  </si>
-  <si>
-    <t>北京，山西，内蒙古，江西，河南，湖北，广西，陕西，青海，宁夏</t>
-  </si>
-  <si>
-    <t>天津，上海，福建，湖南，海南，重庆，四川，贵州，西藏，甘肃</t>
-  </si>
-  <si>
-    <t>河北，辽宁，吉林，黑龙江，江苏，浙江，安徽，山东，广东，云南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>吉林，江苏，河南，广西，四川，云南</t>
-  </si>
-  <si>
-    <t>辽宁，安徽，重庆，甘肃，宁夏</t>
-  </si>
-  <si>
-    <t>湖北，湖南，贵州，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，黑龙江，山东，海南，陕西</t>
-  </si>
-  <si>
-    <t>河北，山西，内蒙古，浙江，江西</t>
-  </si>
-  <si>
-    <t>天津，上海，福建，广东，西藏</t>
-  </si>
-  <si>
-    <t>河北，山西，辽宁，上海，福建，河南，湖北，广西，海南，重庆，四川，云南，西藏，青海，宁夏</t>
-  </si>
-  <si>
-    <t>北京，天津，内蒙古，吉林，黑龙江，江苏，浙江，安徽，江西，山东，湖南，广东，贵州，陕西，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>内蒙古，上海，山东，湖南，广东，四川，云南，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>河北，山西，辽宁，浙江，江西，海南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，吉林，江苏，福建，广西，西藏，甘肃</t>
-  </si>
-  <si>
-    <t>黑龙江，安徽，河南，湖北，重庆，贵州，青海</t>
-  </si>
-  <si>
-    <t>河北，辽宁，上海，河南，云南，甘肃，青海</t>
-  </si>
-  <si>
-    <t>内蒙古，吉林，浙江，安徽，江西，山东，广西</t>
-  </si>
-  <si>
-    <t>北京，天津，江苏，湖南，广东，重庆，贵州，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>山西，黑龙江，福建，湖北，海南，四川，西藏，陕西</t>
-  </si>
-  <si>
-    <t>上海，安徽，福建，湖北，广西，四川，西藏，陕西，甘肃，青海</t>
-  </si>
-  <si>
-    <t>天津，山西，辽宁，浙江，江西，山东，河南，广东，海南，贵州，宁夏</t>
-  </si>
-  <si>
-    <t>北京，河北，内蒙古，吉林，黑龙江，江苏，湖南，重庆，云南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>黑龙江，安徽，山东，广西，四川，贵州，西藏，甘肃</t>
-  </si>
-  <si>
-    <t>山西，福建，江西，湖北，重庆，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，河北，吉林，浙江，海南，云南，陕西</t>
-  </si>
-  <si>
-    <t>天津，内蒙古，辽宁，上海，江苏，河南，湖南，广东，青海</t>
-  </si>
-  <si>
-    <t>天津，上海，福建，河南，广东，陕西，甘肃，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>山西，内蒙古，浙江，安徽，湖北，湖南，宁夏</t>
-  </si>
-  <si>
-    <t>北京，河北，黑龙江，江苏，重庆，贵州，云南，西藏</t>
-  </si>
-  <si>
-    <t>辽宁，吉林，江西，山东，广西，海南，四川</t>
-  </si>
-  <si>
-    <t>天津，山西，内蒙古，上海，浙江，福建，江西，山东，湖南，海南，重庆，四川，贵州，青海，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，河北，辽宁，吉林，黑龙江，江苏，安徽，河南，湖北，广东，广西，云南，西藏，陕西，甘肃</t>
-  </si>
-  <si>
-    <t>天津，河北，内蒙古，辽宁，黑龙江，上海，安徽，河南，湖北，湖南，贵州，西藏，甘肃，青海，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，山西，吉林，江苏，浙江，福建，江西，山东，广东，广西，海南，重庆，四川，云南，陕西，宁夏</t>
-  </si>
-  <si>
-    <t>天津，江苏，福建，湖北，广西，重庆，贵州</t>
-  </si>
-  <si>
-    <t>河北，内蒙古，吉林，上海，浙江，陕西，青海</t>
-  </si>
-  <si>
-    <t>山西，辽宁，河南，湖南，广东，海南，云南，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，黑龙江，安徽，江西，山东，四川，西藏，甘肃</t>
-  </si>
-  <si>
-    <t>天津，黑龙江，山东，四川，云南，陕西</t>
-  </si>
-  <si>
-    <t>河北，江苏，河南，广西，重庆，甘肃</t>
-  </si>
-  <si>
-    <t>内蒙古，吉林，上海，安徽，海南，青海</t>
-  </si>
-  <si>
-    <t>北京，浙江，福建，江西，湖南，贵州，宁夏</t>
-  </si>
-  <si>
-    <t>山西，辽宁，湖北，广东，西藏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，山西，辽宁，上海，江苏，浙江，安徽，江西，湖北，重庆，贵州，云南，西藏，甘肃，青海</t>
-  </si>
-  <si>
-    <t>北京，河北，内蒙古，吉林，黑龙江，福建，山东，河南，湖南，广东，广西，海南，四川，陕西，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>吉林，浙江，重庆，贵州，陕西，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，内蒙古，辽宁，安徽，湖北，广东，广西，四川，宁夏</t>
-  </si>
-  <si>
-    <t>北京，河北，山西，江苏，湖南，云南，西藏，青海</t>
-  </si>
-  <si>
-    <t>黑龙江，上海，福建，江西，山东，河南，海南</t>
-  </si>
-  <si>
-    <t>北京，内蒙古，辽宁，吉林，黑龙江，江苏，江西，山东，河南，湖北，湖南，广东，广西，贵州，云南，陕西</t>
-  </si>
-  <si>
-    <t>天津，河北，山西，上海，浙江，安徽，福建，海南，重庆，四川，西藏，甘肃，青海，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>河北，山西，内蒙古，辽宁，江苏，浙江，安徽，福建，江西，河南，海南，重庆，四川，青海，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，吉林，黑龙江，上海，山东，湖北，湖南，广东，广西，贵州，云南，西藏，陕西，甘肃</t>
-  </si>
-  <si>
-    <t>北京，山西，黑龙江，浙江，福建，广东，重庆，四川，陕西，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>河北，内蒙古，辽宁，上海，安徽，河南，湖南，广西，西藏，青海</t>
-  </si>
-  <si>
-    <t>天津，吉林，江苏，江西，山东，湖北，海南，贵州，云南，宁夏</t>
-  </si>
-  <si>
-    <t>安徽，福建，山东，河南，湖南，海南，重庆，贵州，陕西，甘肃，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>北京，天津，河北，内蒙古，黑龙江，上海，江苏，广东，四川，青海</t>
-  </si>
-  <si>
-    <t>山西，辽宁，吉林，浙江，江西，湖北，广西，云南，西藏，宁夏</t>
-  </si>
-  <si>
-    <t>北京，天津，河北，山西，辽宁，吉林，黑龙江，上海，江苏，浙江，江西，湖北，广西，甘肃，宁夏，新疆（含 兵团）</t>
-  </si>
-  <si>
-    <t>内蒙古，安徽，福建，山东，河南，湖南，广东，海南，重庆，四川，贵州，云南，西藏，陕西，青海</t>
-  </si>
-  <si>
-    <t>北京，天津，山西，内蒙古，辽宁，吉林，黑龙江，上海，江苏，山东，河南，湖南，广东，广西，海南，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>河北，浙江，安徽，福建，江西，湖北，重庆，四川，贵州，云南，西藏，陕西，甘肃，青海，宁夏</t>
-  </si>
-  <si>
-    <t>河北，黑龙江，云南，陕西</t>
-  </si>
-  <si>
-    <t>北京，上海，江西，海南</t>
-  </si>
-  <si>
-    <t>江苏，广西，重庆，西藏，甘肃</t>
-  </si>
-  <si>
-    <t>安徽，山东，贵州，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>辽宁，湖北，四川，宁夏</t>
-  </si>
-  <si>
-    <t>山西，吉林，浙江，福建，湖南，广东</t>
-  </si>
-  <si>
-    <t>天津，内蒙古，河南，青海</t>
-  </si>
-  <si>
-    <t>北京，天津，山西，内蒙古，辽宁，黑龙江，上海，河南，湖南，广东，四川，陕西，甘肃，青海，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>河北，吉林，江苏，浙江，安徽，福建，江西，山东，湖北，广西，海南，重庆，贵州，云南，西藏</t>
-  </si>
-  <si>
-    <t>北京，天津，河北，山西，黑龙江，上海，福建，江西，山东，广东，广西，贵州，陕西，甘肃，青海，宁夏</t>
-  </si>
-  <si>
-    <t>内蒙古，辽宁，吉林，江苏，浙江，安徽，河南，湖北，湖南，海南，重庆，四川，云南，西藏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>天津，山西，江西，广东，海南，重庆，四川，西藏，陕西，甘肃</t>
-  </si>
-  <si>
-    <t>河北，内蒙古，上海，江苏，浙江，福建，湖北，湖南，广西，青海</t>
-  </si>
-  <si>
-    <t>北京，辽宁，吉林，黑龙江，安徽，山东，河南，贵州，云南，宁夏，新疆（含兵团）</t>
-  </si>
-  <si>
-    <t>0.25g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃酸钠滴眼剂 0.1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃酸钠滴眼剂 0.1%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃酸钠滴眼剂 0.3%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃酸钠滴眼剂 0.3%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80mg+5mg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80mg+12.5mg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200mg+300mg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8734,23 +8735,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8764,21 +8775,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12978,10 +12979,10 @@
       <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146">
+      <c r="A2" s="150">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="154" t="s">
         <v>728</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -13004,8 +13005,8 @@
       <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="147"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="61" t="s">
         <v>730</v>
       </c>
@@ -13044,10 +13045,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146">
+      <c r="A4" s="150">
         <v>2</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="154" t="s">
         <v>736</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -13086,8 +13087,8 @@
       <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="61" t="s">
         <v>730</v>
       </c>
@@ -13110,10 +13111,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146">
+      <c r="A6" s="150">
         <v>3</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="154" t="s">
         <v>741</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -13136,8 +13137,8 @@
       <c r="N6" s="60"/>
     </row>
     <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="149"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="61" t="s">
         <v>730</v>
       </c>
@@ -13176,10 +13177,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146">
+      <c r="A8" s="150">
         <v>4</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="154" t="s">
         <v>747</v>
       </c>
       <c r="C8" s="53" t="s">
@@ -13215,13 +13216,13 @@
         <v>750</v>
       </c>
       <c r="M8" s="57"/>
-      <c r="N8" s="150" t="s">
+      <c r="N8" s="160" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="61" t="s">
         <v>730</v>
       </c>
@@ -13239,7 +13240,7 @@
       <c r="K9" s="64"/>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
-      <c r="N9" s="151"/>
+      <c r="N9" s="161"/>
     </row>
     <row r="10" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
@@ -13418,10 +13419,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146">
+      <c r="A14" s="150">
         <v>9</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="154" t="s">
         <v>772</v>
       </c>
       <c r="C14" s="53" t="s">
@@ -13462,8 +13463,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="61" t="s">
         <v>730</v>
       </c>
@@ -13704,10 +13705,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="146">
+      <c r="A21" s="150">
         <v>15</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="154" t="s">
         <v>799</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -13748,8 +13749,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
-      <c r="B22" s="149"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="61" t="s">
         <v>730</v>
       </c>
@@ -13816,10 +13817,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="146">
+      <c r="A24" s="150">
         <v>17</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="154" t="s">
         <v>806</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -13846,8 +13847,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="61" t="s">
         <v>730</v>
       </c>
@@ -13920,10 +13921,10 @@
       <c r="N26" s="74"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152">
+      <c r="A27" s="156">
         <v>19</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="158" t="s">
         <v>815</v>
       </c>
       <c r="C27" s="80" t="s">
@@ -13956,8 +13957,8 @@
       <c r="N27" s="60"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="153"/>
-      <c r="B28" s="155"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="83" t="s">
         <v>730</v>
       </c>
@@ -13988,10 +13989,10 @@
       <c r="N28" s="65"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146">
+      <c r="A29" s="150">
         <v>20</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="154" t="s">
         <v>818</v>
       </c>
       <c r="C29" s="53" t="s">
@@ -14032,8 +14033,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="155"/>
       <c r="C30" s="61" t="s">
         <v>730</v>
       </c>
@@ -14180,10 +14181,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152">
+      <c r="A34" s="156">
         <v>24</v>
       </c>
-      <c r="B34" s="154" t="s">
+      <c r="B34" s="158" t="s">
         <v>832</v>
       </c>
       <c r="C34" s="80" t="s">
@@ -14216,8 +14217,8 @@
       <c r="N34" s="60"/>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="153"/>
-      <c r="B35" s="155"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="83" t="s">
         <v>730</v>
       </c>
@@ -14368,10 +14369,10 @@
       <c r="N38" s="74"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="146">
-        <v>28</v>
-      </c>
-      <c r="B39" s="156" t="s">
+      <c r="A39" s="150">
+        <v>28</v>
+      </c>
+      <c r="B39" s="152" t="s">
         <v>852</v>
       </c>
       <c r="C39" s="53" t="s">
@@ -14412,8 +14413,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147"/>
-      <c r="B40" s="157"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="61" t="s">
         <v>853</v>
       </c>
@@ -14574,14 +14575,12 @@
   </sheetData>
   <autoFilter ref="A1:V43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -14591,12 +14590,14 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39455,7 +39456,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M64" sqref="M64"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51944,9 +51945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52327,7 +52328,7 @@
         <v>2.16</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>2187</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -52368,7 +52369,7 @@
         <v>1.55</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -52409,7 +52410,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -52528,7 +52529,7 @@
         <v>0.33799999999999997</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -52569,7 +52570,7 @@
         <v>0.59</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -52610,7 +52611,7 @@
         <v>0.33250000000000002</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -52651,7 +52652,7 @@
         <v>0.38</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -52731,7 +52732,7 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -52772,7 +52773,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -52852,7 +52853,7 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -52893,7 +52894,7 @@
         <v>0.32999999999999996</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -52934,7 +52935,7 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -53053,7 +53054,7 @@
         <v>28.68</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -53094,7 +53095,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -53174,7 +53175,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -53254,7 +53255,7 @@
         <v>0.19489999999999999</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -53295,7 +53296,7 @@
         <v>0.19649999999999998</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -53336,7 +53337,7 @@
         <v>0.2046</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -53377,7 +53378,7 @@
         <v>14.858000000000001</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -53418,7 +53419,7 @@
         <v>13.4</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -53459,7 +53460,7 @@
         <v>12.5</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -53500,7 +53501,7 @@
         <v>9.86</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -53619,7 +53620,7 @@
         <v>0.152</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -53660,7 +53661,7 @@
         <v>0.14550000000000002</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -53701,7 +53702,7 @@
         <v>0.1439</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -53742,7 +53743,7 @@
         <v>0.22949999999999998</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -53783,7 +53784,7 @@
         <v>20.580000000000002</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -53824,7 +53825,7 @@
         <v>13.780000000000001</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -53865,7 +53866,7 @@
         <v>14.4</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -53945,7 +53946,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -53986,7 +53987,7 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -54027,7 +54028,7 @@
         <v>0.42699999999999994</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -54068,7 +54069,7 @@
         <v>1.2</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -54148,7 +54149,7 @@
         <v>0.98</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -54228,7 +54229,7 @@
         <v>11.98</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -54308,7 +54309,7 @@
         <v>12.994999999999999</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -54349,7 +54350,7 @@
         <v>3.6</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -54390,7 +54391,7 @@
         <v>3.99</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -54431,7 +54432,7 @@
         <v>17.776</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -54511,7 +54512,7 @@
         <v>1.83</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -54552,7 +54553,7 @@
         <v>1.839</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -54593,7 +54594,7 @@
         <v>1.8546666666666667</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -54634,7 +54635,7 @@
         <v>1.9510000000000001</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -54687,7 +54688,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="90" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E68" s="88" t="s">
         <v>1060</v>
@@ -54714,7 +54715,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -54728,7 +54729,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E69" s="88" t="s">
         <v>14</v>
@@ -54755,7 +54756,7 @@
         <v>22.2</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -54769,7 +54770,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E70" s="88" t="s">
         <v>2070</v>
@@ -54796,7 +54797,7 @@
         <v>22</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -54810,7 +54811,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="90" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E71" s="88" t="s">
         <v>1861</v>
@@ -54876,7 +54877,7 @@
         <v>0.60933333333333339</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -54917,7 +54918,7 @@
         <v>0.61466666666666669</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -54958,7 +54959,7 @@
         <v>0.81</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -55038,7 +55039,7 @@
         <v>0.13041666666666665</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -55079,7 +55080,7 @@
         <v>0.12</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -55198,7 +55199,7 @@
         <v>1.7663333333333333</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -55239,7 +55240,7 @@
         <v>1.8128571428571427</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -55319,7 +55320,7 @@
         <v>3.3899999999999997</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -55360,7 +55361,7 @@
         <v>3.3899999999999997</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -55401,7 +55402,7 @@
         <v>1.2085000000000001</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -55481,7 +55482,7 @@
         <v>0.27599999999999997</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -55522,7 +55523,7 @@
         <v>0.2911111111111111</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -55563,7 +55564,7 @@
         <v>0.29444444444444445</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -55643,7 +55644,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -55684,7 +55685,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -55764,7 +55765,7 @@
         <v>0.49500000000000005</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -55805,7 +55806,7 @@
         <v>0.60250000000000004</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -55846,7 +55847,7 @@
         <v>0.52555555555555555</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -55926,7 +55927,7 @@
         <v>0.97933333333333328</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -55967,7 +55968,7 @@
         <v>0.6</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -56047,7 +56048,7 @@
         <v>2.95</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -56088,7 +56089,7 @@
         <v>5.5</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -56129,7 +56130,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -56287,7 +56288,7 @@
         <v>2.75</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -56328,7 +56329,7 @@
         <v>5.64</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -56369,7 +56370,7 @@
         <v>3.5</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -56449,7 +56450,7 @@
         <v>4.92</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -56490,7 +56491,7 @@
         <v>5.65</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -56531,7 +56532,7 @@
         <v>5.33</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -56611,7 +56612,7 @@
         <v>2.98</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -56691,7 +56692,7 @@
         <v>0.82714285714285718</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -56732,7 +56733,7 @@
         <v>1.1257142857142857</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -56773,7 +56774,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -56853,7 +56854,7 @@
         <v>2.56</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -56894,7 +56895,7 @@
         <v>3.9</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -56935,7 +56936,7 @@
         <v>2.77</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -57015,7 +57016,7 @@
         <v>2.68</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -57056,7 +57057,7 @@
         <v>2.84</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -57097,7 +57098,7 @@
         <v>4.9399999999999995</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -57177,7 +57178,7 @@
         <v>0.7526666666666666</v>
       </c>
       <c r="M129" s="11" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -57218,7 +57219,7 @@
         <v>0.72</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -57298,7 +57299,7 @@
         <v>780</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -57339,7 +57340,7 @@
         <v>600</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -57380,7 +57381,7 @@
         <v>346</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -57421,7 +57422,7 @@
         <v>980</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -57501,7 +57502,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -57542,7 +57543,7 @@
         <v>2.9530000000000003</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -57583,7 +57584,7 @@
         <v>1.8</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -57624,7 +57625,7 @@
         <v>1.9159999999999999</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -57704,7 +57705,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -57745,7 +57746,7 @@
         <v>0.38</v>
       </c>
       <c r="M143" s="11" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -57786,7 +57787,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -57866,7 +57867,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -57907,7 +57908,7 @@
         <v>2.3624999999999998</v>
       </c>
       <c r="M147" s="11" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -57948,7 +57949,7 @@
         <v>2.4087499999999999</v>
       </c>
       <c r="M148" s="11" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -57989,7 +57990,7 @@
         <v>0.32</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -58069,7 +58070,7 @@
         <v>0.67999999999999994</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -58110,7 +58111,7 @@
         <v>0.73583333333333334</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -58151,7 +58152,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -58192,7 +58193,7 @@
         <v>0.75</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
@@ -58272,7 +58273,7 @@
         <v>0.23933333333333331</v>
       </c>
       <c r="M156" s="11" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -58313,7 +58314,7 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -58393,7 +58394,7 @@
         <v>26.6</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -58434,7 +58435,7 @@
         <v>22.816666666666666</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -58514,7 +58515,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -58633,7 +58634,7 @@
         <v>1.1028571428571428</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -58674,7 +58675,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -58754,7 +58755,7 @@
         <v>0.92</v>
       </c>
       <c r="M168" s="11" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -58834,7 +58835,7 @@
         <v>0.59906250000000005</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -58875,7 +58876,7 @@
         <v>0.48071428571428576</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -58955,7 +58956,7 @@
         <v>0.47714285714285715</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -58996,7 +58997,7 @@
         <v>0.46035714285714285</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -59037,7 +59038,7 @@
         <v>0.47785714285714287</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -59118,7 +59119,7 @@
         <v>179</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -59159,7 +59160,7 @@
         <v>48.666000000000004</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -59239,7 +59240,7 @@
         <v>2.35</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -59280,7 +59281,7 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -59321,7 +59322,7 @@
         <v>2.2800000000000002</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -59362,7 +59363,7 @@
         <v>2.2879999999999998</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -59415,7 +59416,7 @@
         <v>25</v>
       </c>
       <c r="D185" s="90" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E185" s="88" t="s">
         <v>183</v>
@@ -59442,7 +59443,7 @@
         <v>1.3885714285714286</v>
       </c>
       <c r="M185" s="11" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -59456,7 +59457,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="90" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E186" s="94" t="s">
         <v>1859</v>
@@ -59483,7 +59484,7 @@
         <v>2.7626666666666666</v>
       </c>
       <c r="M186" s="11" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -59497,7 +59498,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="90" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E187" s="88" t="s">
         <v>554</v>
@@ -59536,7 +59537,7 @@
         <v>25</v>
       </c>
       <c r="D188" s="90" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E188" s="88" t="s">
         <v>1061</v>
@@ -59575,7 +59576,7 @@
         <v>25</v>
       </c>
       <c r="D189" s="90" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E189" s="88" t="s">
         <v>202</v>
@@ -59602,7 +59603,7 @@
         <v>1.8</v>
       </c>
       <c r="M189" s="11" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -59616,7 +59617,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="90" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E190" s="88" t="s">
         <v>554</v>
@@ -59643,7 +59644,7 @@
         <v>1.93</v>
       </c>
       <c r="M190" s="11" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -59657,7 +59658,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="90" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E191" s="88" t="s">
         <v>1061</v>
@@ -59723,7 +59724,7 @@
         <v>11.988</v>
       </c>
       <c r="M192" s="11" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -59764,7 +59765,7 @@
         <v>29.380000000000003</v>
       </c>
       <c r="M193" s="11" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -59805,7 +59806,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="M194" s="11" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -59924,7 +59925,7 @@
         <v>0.35333333333333333</v>
       </c>
       <c r="M197" s="11" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -59965,7 +59966,7 @@
         <v>0.39027777777777778</v>
       </c>
       <c r="M198" s="11" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -60006,7 +60007,7 @@
         <v>0.40433333333333338</v>
       </c>
       <c r="M199" s="11" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -60125,7 +60126,7 @@
         <v>0.46</v>
       </c>
       <c r="M202" s="11" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -60166,7 +60167,7 @@
         <v>0.86071428571428577</v>
       </c>
       <c r="M203" s="11" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -60246,7 +60247,7 @@
         <v>0.8640000000000001</v>
       </c>
       <c r="M205" s="11" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -60287,7 +60288,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="M206" s="11" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -60367,7 +60368,7 @@
         <v>2.8875000000000002</v>
       </c>
       <c r="M208" s="11" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -60381,7 +60382,7 @@
         <v>2128</v>
       </c>
       <c r="D209" s="90" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E209" s="88" t="s">
         <v>2155</v>
@@ -60408,7 +60409,7 @@
         <v>0.46266666666666667</v>
       </c>
       <c r="M209" s="11" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -60449,7 +60450,7 @@
         <v>0.76</v>
       </c>
       <c r="M210" s="11" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -60529,7 +60530,7 @@
         <v>2.4314285714285715</v>
       </c>
       <c r="M212" s="11" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -60570,7 +60571,7 @@
         <v>2.608571428571429</v>
       </c>
       <c r="M213" s="11" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -60611,7 +60612,7 @@
         <v>0.51714285714285713</v>
       </c>
       <c r="M214" s="11" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -60652,7 +60653,7 @@
         <v>2.6749999999999998</v>
       </c>
       <c r="M215" s="11" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -60699,7 +60700,7 @@
         <v>43</v>
       </c>
       <c r="B217" s="88" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C217" s="89" t="s">
         <v>2022</v>
@@ -60732,7 +60733,7 @@
         <v>5.8</v>
       </c>
       <c r="M217" s="11" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -60740,7 +60741,7 @@
         <v>43</v>
       </c>
       <c r="B218" s="88" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C218" s="89" t="s">
         <v>2022</v>
@@ -60773,7 +60774,7 @@
         <v>13.38</v>
       </c>
       <c r="M218" s="11" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -60781,46 +60782,46 @@
         <v>43</v>
       </c>
       <c r="B219" s="101" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C219" s="158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="159" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C219" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="147" t="s">
         <v>2163</v>
       </c>
       <c r="E219" s="101" t="s">
         <v>1122</v>
       </c>
-      <c r="F219" s="158" t="s">
+      <c r="F219" s="146" t="s">
         <v>1596</v>
       </c>
-      <c r="G219" s="158" t="s">
+      <c r="G219" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="H219" s="158" t="s">
-        <v>28</v>
-      </c>
-      <c r="I219" s="158" t="s">
-        <v>25</v>
-      </c>
-      <c r="J219" s="160">
+      <c r="H219" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="I219" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="J219" s="148">
         <v>23.48</v>
       </c>
       <c r="K219" s="113">
         <v>26.08</v>
       </c>
-      <c r="L219" s="161">
+      <c r="L219" s="149">
         <v>19.96</v>
       </c>
-      <c r="M219" s="158"/>
+      <c r="M219" s="146"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="88">
         <v>44</v>
       </c>
       <c r="B220" s="88" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C220" s="89" t="s">
         <v>2022</v>
@@ -60853,7 +60854,7 @@
         <v>2.1</v>
       </c>
       <c r="M220" s="11" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -60861,7 +60862,7 @@
         <v>44</v>
       </c>
       <c r="B221" s="88" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C221" s="89" t="s">
         <v>2022</v>
@@ -60894,7 +60895,7 @@
         <v>2.15</v>
       </c>
       <c r="M221" s="11" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -60902,7 +60903,7 @@
         <v>44</v>
       </c>
       <c r="B222" s="88" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C222" s="89" t="s">
         <v>2022</v>
@@ -60974,7 +60975,7 @@
         <v>777.5</v>
       </c>
       <c r="M223" s="11" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -61015,7 +61016,7 @@
         <v>548.88</v>
       </c>
       <c r="M224" s="11" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -61056,7 +61057,7 @@
         <v>486</v>
       </c>
       <c r="M225" s="11" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
